--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Карты замеров XXI-КПМ-30-1-500-9 (Штоф) Тестовый от 10.09.2019.xlsx</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Кристалл Фирменная 2, 0.7 л.</t>
+  </si>
+  <si>
+    <t>Чертеж изделия Кристалл Фирменная 2, 0.7 л.</t>
+  </si>
+  <si>
+    <t>Чертежи деталей Ф-т 0,7 Фирменная 2</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1877,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1886,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="22762257" cy="93385"/>
+          <a:ext cx="24065277" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -1887,7 +1896,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1941,7 +1950,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2013,7 +2022,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2041,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2086,7 +2095,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2414,10 +2423,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2427,7 +2436,7 @@
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2764,12 +2773,18 @@
       <c r="E16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="H16" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
@@ -2886,16 +2901,19 @@
     <hyperlink ref="G15" r:id="rId19" display="Чертежи деталей XXI-KПM-30-1-500-9 Штоф"/>
     <hyperlink ref="H16" r:id="rId20"/>
     <hyperlink ref="L15" r:id="rId21"/>
+    <hyperlink ref="I16" r:id="rId22"/>
+    <hyperlink ref="F16" r:id="rId23"/>
+    <hyperlink ref="G16" r:id="rId24"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId25"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -317,6 +317,66 @@
   </si>
   <si>
     <t>Чертежи деталей Ф-т 0,7 Фирменная 2</t>
+  </si>
+  <si>
+    <t>Чертеж Сваяк 0.7 л.</t>
+  </si>
+  <si>
+    <t>Чертежи деталей СВАЯК 0.7 л.</t>
+  </si>
+  <si>
+    <t>Детали ф-та Кристалл Фирменная 2 0,7 л.</t>
+  </si>
+  <si>
+    <t>Детали ф-та АВС 0,160 л.</t>
+  </si>
+  <si>
+    <t>Детали ф-та Сваяк  0,7 л.</t>
+  </si>
+  <si>
+    <t>ЗАЯВЛЕНИЯ</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке в производство Сваяк 0,7 л.</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке в производство Фляга 0.2 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Фляга 0.2 л.</t>
+  </si>
+  <si>
+    <t>Ф-т XIII-В-28-2-200-3 (Фляга 0.2 л.)</t>
+  </si>
+  <si>
+    <t>Чертежи деталей формокомплекта</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2-500-27</t>
+  </si>
+  <si>
+    <t>Евроторг 0.5 л.</t>
+  </si>
+  <si>
+    <t>ПаспортЕвроторг 0.5 л.</t>
+  </si>
+  <si>
+    <t>Документы</t>
+  </si>
+  <si>
+    <t>Формокомплекты</t>
+  </si>
+  <si>
+    <t>Шильды на склад</t>
+  </si>
+  <si>
+    <t>Докладные</t>
+  </si>
+  <si>
+    <t>Z:\ОПЕРАТИВНАЯ ИНФОРМАЦИЯ</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке в производство Евроторг 0.5 л.</t>
   </si>
 </sst>
 </file>
@@ -329,7 +389,7 @@
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +473,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -505,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +658,9 @@
     </xf>
     <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1886,7 +1958,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="24065277" cy="93385"/>
+          <a:ext cx="24278637" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2156,7 +2228,7 @@
     <tableColumn id="3" name="Тип" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
     <tableColumn id="4" name="Название" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
     <tableColumn id="5" name="Чертеж изделия" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
     <tableColumn id="7" name="Паспорт" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
     <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
     <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="19" dataCellStyle="Гиперссылка"/>
@@ -2422,11 +2494,11 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2440,7 +2512,7 @@
     <col min="7" max="7" width="39.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
@@ -2466,11 +2538,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -2489,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>7</v>
@@ -2543,12 +2615,18 @@
       <c r="E6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>105</v>
+      </c>
       <c r="H6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="23" t="s">
+        <v>103</v>
+      </c>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
@@ -2565,13 +2643,21 @@
       <c r="E7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>97</v>
+      </c>
       <c r="H7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
@@ -2785,7 +2871,9 @@
       <c r="I16" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="26"/>
@@ -2795,12 +2883,20 @@
       <c r="C17" s="18">
         <v>13</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>115</v>
+      </c>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
       <c r="L17" s="25"/>
@@ -2904,16 +3000,26 @@
     <hyperlink ref="I16" r:id="rId22"/>
     <hyperlink ref="F16" r:id="rId23"/>
     <hyperlink ref="G16" r:id="rId24"/>
+    <hyperlink ref="F7" r:id="rId25"/>
+    <hyperlink ref="G7" r:id="rId26"/>
+    <hyperlink ref="J16" r:id="rId27"/>
+    <hyperlink ref="I7" r:id="rId28"/>
+    <hyperlink ref="J7" r:id="rId29"/>
+    <hyperlink ref="I6" r:id="rId30"/>
+    <hyperlink ref="F6" r:id="rId31"/>
+    <hyperlink ref="G6" r:id="rId32"/>
+    <hyperlink ref="H17" r:id="rId33"/>
+    <hyperlink ref="I17" r:id="rId34"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId35"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2952,10 +3058,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2995,11 +3101,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -3094,7 +3200,9 @@
       <c r="E7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="G7" s="22"/>
       <c r="H7" s="27" t="s">
         <v>36</v>
@@ -3172,7 +3280,9 @@
       <c r="I10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
       <c r="M10" s="26"/>
@@ -3379,16 +3489,17 @@
     <hyperlink ref="I10" r:id="rId12"/>
     <hyperlink ref="F10" r:id="rId13"/>
     <hyperlink ref="G10" r:id="rId14"/>
+    <hyperlink ref="J10" r:id="rId15"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId16"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3420,61 +3531,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="53.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A10" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A3" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Евроторг 0.5 л.</t>
   </si>
   <si>
-    <t>ПаспортЕвроторг 0.5 л.</t>
-  </si>
-  <si>
     <t>Документы</t>
   </si>
   <si>
@@ -377,6 +374,45 @@
   </si>
   <si>
     <t>Отчет о подготовке в производство Евроторг 0.5 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Евроторг 0.5 л.</t>
+  </si>
+  <si>
+    <t>Чертежи деталей Евроторг 0.5 л.</t>
+  </si>
+  <si>
+    <t>Детали ф-та Евроторг 0.5 л.</t>
+  </si>
+  <si>
+    <t>Паспорт Евроторг 0.5 л.</t>
+  </si>
+  <si>
+    <t>XXI-В-30-4-500-3</t>
+  </si>
+  <si>
+    <t>Иван Купала</t>
+  </si>
+  <si>
+    <t>Паспорт Иван Купала</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Иван Купала</t>
+  </si>
+  <si>
+    <t>Чертеж Иван Купала</t>
+  </si>
+  <si>
+    <t>Чертежи деталей Иван Купала</t>
+  </si>
+  <si>
+    <t>Заявки на изготовление</t>
+  </si>
+  <si>
+    <t>Детали ф-та Иван Купала 0,5 л.</t>
+  </si>
+  <si>
+    <t>Отчет о подготовкеКалина 0,35 л.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +425,7 @@
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +518,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -515,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -538,6 +580,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,7 +629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +716,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2220,8 +2299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M18" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:M18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M19" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:M19"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="27" dataCellStyle="Столбец с отметкой"/>
     <tableColumn id="2" name="№ п/п" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
@@ -2492,13 +2571,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2538,11 +2617,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -2598,7 +2677,9 @@
       <c r="H5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
       <c r="L5" s="25"/>
@@ -2889,15 +2970,21 @@
       <c r="E17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="H17" s="27" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="K17" s="24"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
@@ -2931,25 +3018,69 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="2:13" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30">
+        <v>15</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="2:13" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:M19">
+  <conditionalFormatting sqref="C5:M21">
     <cfRule type="expression" dxfId="31" priority="27">
       <formula>$B5=1</formula>
     </cfRule>
@@ -3010,16 +3141,25 @@
     <hyperlink ref="G6" r:id="rId32"/>
     <hyperlink ref="H17" r:id="rId33"/>
     <hyperlink ref="I17" r:id="rId34"/>
+    <hyperlink ref="F17" r:id="rId35"/>
+    <hyperlink ref="G17" r:id="rId36"/>
+    <hyperlink ref="J17" r:id="rId37"/>
+    <hyperlink ref="H19" r:id="rId38"/>
+    <hyperlink ref="I19" r:id="rId39"/>
+    <hyperlink ref="F19" r:id="rId40"/>
+    <hyperlink ref="G19" r:id="rId41"/>
+    <hyperlink ref="J19" r:id="rId42"/>
+    <hyperlink ref="I5" r:id="rId43"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId44"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId36"/>
+  <drawing r:id="rId45"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3041,7 +3181,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B19</xm:sqref>
+          <xm:sqref>B5:B21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3101,11 +3241,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -3533,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3544,10 +3684,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3560,7 +3700,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>30</v>
@@ -3584,6 +3724,11 @@
         <v>67</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3591,10 +3736,13 @@
       <c r="A8" s="17" t="s">
         <v>101</v>
       </c>
+      <c r="B8" s="17" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3610,6 +3758,8 @@
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
     <hyperlink ref="A3" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="B8" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -413,6 +413,33 @@
   </si>
   <si>
     <t>Отчет о подготовкеКалина 0,35 л.</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2-500-28</t>
+  </si>
+  <si>
+    <t>Калина 0.5 л.</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Калина 0.5 л.</t>
+  </si>
+  <si>
+    <t>Детали ф-та Калина 0,35 л.docx</t>
+  </si>
+  <si>
+    <t>Паспорт Калина 0,5 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Калина 0.5 л.</t>
+  </si>
+  <si>
+    <t>Чертежи дет. ф-та Калина 0.5 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Калина 0.35 л.</t>
+  </si>
+  <si>
+    <t>Чертежи дет. ф-та Калина 0.35 л.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,9 +748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,6 +767,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -758,7 +803,91 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1325,27 +1454,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1910,27 +2018,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1992,9 +2079,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2028,7 +2115,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2134,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2101,7 +2188,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2173,7 +2260,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2279,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2246,7 +2333,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2299,42 +2386,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M19" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:M19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:M22"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="27" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="16" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="33" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="32" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="31" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="30" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="29" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="28" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="27" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="26" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="25" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="23" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="22" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="19" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="18" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="17" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="16" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="15" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="14" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="13" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="12" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="11" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="9" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="8" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2571,13 +2658,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2617,11 +2704,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -2672,15 +2759,21 @@
       <c r="E5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="H5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="K5" s="24"/>
       <c r="L5" s="25"/>
       <c r="M5" s="26"/>
@@ -2688,6 +2781,7 @@
     <row r="6" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="18">
+        <f>C5+1</f>
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -2716,6 +2810,7 @@
     <row r="7" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="18">
+        <f t="shared" ref="C7:C22" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -2746,6 +2841,7 @@
     <row r="8" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="18">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -2768,6 +2864,7 @@
     <row r="9" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="18">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -2790,6 +2887,7 @@
     <row r="10" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="18">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -2812,6 +2910,7 @@
     <row r="11" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="18">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -2834,6 +2933,7 @@
     <row r="12" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="18">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -2856,6 +2956,7 @@
     <row r="13" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="18">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -2884,6 +2985,7 @@
     <row r="14" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="18">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -2906,6 +3008,7 @@
     <row r="15" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="18">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -2932,6 +3035,7 @@
     <row r="16" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="18">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -2962,6 +3066,7 @@
     <row r="17" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
       <c r="C17" s="18">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -2992,6 +3097,7 @@
     <row r="18" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="18">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -3019,72 +3125,135 @@
     </row>
     <row r="19" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="29"/>
-      <c r="C19" s="30">
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="2:13" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+    </row>
+    <row r="22" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="37"/>
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:M21">
-    <cfRule type="expression" dxfId="31" priority="27">
+  <conditionalFormatting sqref="C5:M24">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="4" priority="28">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3150,22 +3319,29 @@
     <hyperlink ref="G19" r:id="rId41"/>
     <hyperlink ref="J19" r:id="rId42"/>
     <hyperlink ref="I5" r:id="rId43"/>
+    <hyperlink ref="I20" r:id="rId44"/>
+    <hyperlink ref="J5" r:id="rId45"/>
+    <hyperlink ref="H20" r:id="rId46"/>
+    <hyperlink ref="F20" r:id="rId47"/>
+    <hyperlink ref="G20" r:id="rId48"/>
+    <hyperlink ref="F5" r:id="rId49"/>
+    <hyperlink ref="G5" r:id="rId50"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId51"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId52"/>
   <tableParts count="1">
-    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId53"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="59" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
+          <x14:cfRule type="iconSet" priority="64" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3181,7 +3357,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B21</xm:sqref>
+          <xm:sqref>B5:B24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3241,11 +3417,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -3589,10 +3765,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3674,7 +3850,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="145">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Паспорт Франкония 0,5 л.</t>
   </si>
   <si>
-    <t>Заявки на обработку, изготовление деталей</t>
-  </si>
-  <si>
     <t>Заявки на мат. ценности</t>
   </si>
   <si>
@@ -440,6 +437,33 @@
   </si>
   <si>
     <t>Чертежи дет. ф-та Калина 0.35 л.</t>
+  </si>
+  <si>
+    <t>Детали ф-та Калина 0,5 л.docx</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2-350</t>
+  </si>
+  <si>
+    <t>Аквадив 0,35 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Аквадив 0,35 л.</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Аквадив 0,35 л</t>
+  </si>
+  <si>
+    <t>Письма</t>
+  </si>
+  <si>
+    <t>Заявки на отгрузку</t>
+  </si>
+  <si>
+    <t>Карты замеров</t>
+  </si>
+  <si>
+    <t>Карты замеров Аквадив 0.35 л.</t>
   </si>
 </sst>
 </file>
@@ -765,29 +789,29 @@
     <xf numFmtId="7" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -803,49 +827,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <strike/>
@@ -2079,9 +2061,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2386,42 +2368,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M22"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="33" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="32" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="31" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="30" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="29" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="28" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="27" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="26" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="25" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="23" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="22" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="29" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="28" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="25" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="21" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="18" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="19" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="18" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="17" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="16" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="15" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="14" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="13" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="12" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="11" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="9" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="8" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="15" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="14" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="13" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="12" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="11" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="9" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="8" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="4" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2661,10 +2643,10 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2704,11 +2686,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -2727,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>7</v>
@@ -2760,19 +2742,19 @@
         <v>23</v>
       </c>
       <c r="F5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="25"/>
@@ -2791,16 +2773,16 @@
         <v>45</v>
       </c>
       <c r="F6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
@@ -2820,19 +2802,19 @@
         <v>50</v>
       </c>
       <c r="F7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>97</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
@@ -2960,22 +2942,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="27" t="s">
+      <c r="I13" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="24"/>
@@ -3012,23 +2994,23 @@
         <v>11</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="G15" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="23"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="26"/>
     </row>
@@ -3039,25 +3021,25 @@
         <v>12</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>91</v>
-      </c>
       <c r="I16" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
@@ -3070,25 +3052,25 @@
         <v>13</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="F17" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="H17" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="25"/>
@@ -3117,7 +3099,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -3130,25 +3112,25 @@
         <v>15</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="F19" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="35" t="s">
+      <c r="I19" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>122</v>
-      </c>
       <c r="J19" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
@@ -3161,61 +3143,73 @@
         <v>16</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="F20" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="32" t="s">
+        <v>136</v>
+      </c>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="D21" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="43"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
@@ -3250,10 +3244,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M24">
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="3" priority="27">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="28">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3326,16 +3320,20 @@
     <hyperlink ref="G20" r:id="rId48"/>
     <hyperlink ref="F5" r:id="rId49"/>
     <hyperlink ref="G5" r:id="rId50"/>
+    <hyperlink ref="J20" r:id="rId51"/>
+    <hyperlink ref="F21" r:id="rId52"/>
+    <hyperlink ref="G21" r:id="rId53"/>
+    <hyperlink ref="L21" r:id="rId54"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId55"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId56"/>
   <tableParts count="1">
-    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3417,11 +3415,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -3517,7 +3515,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="27" t="s">
@@ -3582,22 +3580,22 @@
         <v>42</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="25"/>
@@ -3609,25 +3607,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>71</v>
-      </c>
       <c r="I11" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="25"/>
@@ -3765,10 +3763,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3847,10 +3845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3860,15 +3858,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>20</v>
@@ -3876,7 +3874,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>30</v>
@@ -3891,34 +3889,44 @@
       <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3927,15 +3935,17 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="A2" r:id="rId7"/>
     <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
     <hyperlink ref="A3" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B10" r:id="rId13"/>
+    <hyperlink ref="A12" r:id="rId14"/>
+    <hyperlink ref="B6" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
     <sheet name="Изделия.Банки" sheetId="3" r:id="rId2"/>
     <sheet name="Различные документы" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="valHighlight" localSheetId="1">IFERROR(IF(Изделия.Банки!$H$1="да", TRUE, FALSE),FALSE)</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -464,6 +465,15 @@
   </si>
   <si>
     <t>Карты замеров Аквадив 0.35 л.</t>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>Паспорт Аквадив 0.35 л.</t>
+  </si>
+  <si>
+    <t>Сделано</t>
   </si>
 </sst>
 </file>
@@ -680,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +822,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -828,48 +844,6 @@
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1436,6 +1410,27 @@
     </dxf>
     <dxf>
       <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1997,6 +1992,27 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2368,42 +2384,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M22"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="29" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="28" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="25" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="21" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="18" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="27" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="16" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="15" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="14" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="13" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="12" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="11" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="9" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="8" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="4" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2642,8 +2658,8 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
@@ -3185,7 +3201,9 @@
       <c r="G21" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="I21" s="40"/>
       <c r="J21" s="23"/>
       <c r="K21" s="41"/>
@@ -3244,10 +3262,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M24">
-    <cfRule type="expression" dxfId="3" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3324,16 +3342,17 @@
     <hyperlink ref="F21" r:id="rId52"/>
     <hyperlink ref="G21" r:id="rId53"/>
     <hyperlink ref="L21" r:id="rId54"/>
+    <hyperlink ref="H21" r:id="rId55"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId56"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId56"/>
+  <drawing r:id="rId57"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId58"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3375,7 +3394,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3763,10 +3782,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3845,10 +3864,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3927,6 +3946,11 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3946,7 +3970,202 @@
     <hyperlink ref="B10" r:id="rId13"/>
     <hyperlink ref="A12" r:id="rId14"/>
     <hyperlink ref="B6" r:id="rId15"/>
+    <hyperlink ref="A14" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="44"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="45">
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="44"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="44"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="44"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="44"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="44"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="44"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="44"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="44"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="44"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="45">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="44"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="45">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="44"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="45">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="44"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="45">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="44"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="44"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="45">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="44"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="45">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="44"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="45">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="158">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -474,6 +474,36 @@
   </si>
   <si>
     <t>Сделано</t>
+  </si>
+  <si>
+    <t>Мат. отчет</t>
+  </si>
+  <si>
+    <t>Документация</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-1-200-5</t>
+  </si>
+  <si>
+    <t>Бутылка 0,2 л.</t>
+  </si>
+  <si>
+    <t>Чертеж ХХI-В-28-1-200-5 (Бутылка 0.2 л.)</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та XXI-B-28-1-200-5 (Бутылка 0.2 л.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХХI-В-28-2.1-500-4 </t>
+  </si>
+  <si>
+    <t>Ведьма 0.5 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Ведьма</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Ведьма</t>
   </si>
 </sst>
 </file>
@@ -583,6 +613,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -690,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,13 +852,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2113,7 +2154,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2163,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="24278637" cy="93385"/>
+          <a:ext cx="24949197" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2132,7 +2173,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2186,7 +2227,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2258,7 +2299,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2318,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2331,7 +2372,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2384,8 +2425,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:M22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:M23"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="27" dataCellStyle="Столбец с отметкой"/>
     <tableColumn id="2" name="№ п/п" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
@@ -2658,11 +2699,11 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2673,7 +2714,7 @@
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.21875" style="2" bestFit="1" customWidth="1"/>
@@ -2702,11 +2743,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -3218,10 +3259,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="D22" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
       <c r="J22" s="23"/>
@@ -3230,18 +3279,26 @@
       <c r="M22" s="42"/>
     </row>
     <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
@@ -3343,16 +3400,20 @@
     <hyperlink ref="G21" r:id="rId53"/>
     <hyperlink ref="L21" r:id="rId54"/>
     <hyperlink ref="H21" r:id="rId55"/>
+    <hyperlink ref="F22" r:id="rId56"/>
+    <hyperlink ref="G22" r:id="rId57"/>
+    <hyperlink ref="F23" r:id="rId58"/>
+    <hyperlink ref="G23" r:id="rId59"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId56"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId60"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId57"/>
+  <drawing r:id="rId61"/>
   <tableParts count="1">
-    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId62"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3394,7 +3455,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3434,11 +3495,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -3864,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3951,6 +4012,16 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3971,6 +4042,8 @@
     <hyperlink ref="A12" r:id="rId14"/>
     <hyperlink ref="B6" r:id="rId15"/>
     <hyperlink ref="A14" r:id="rId16"/>
+    <hyperlink ref="A16" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3990,179 +4063,179 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <f t="shared" ref="A4:A25" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="43"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="43"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="43"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="43"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="43"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="43"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="43"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+      <c r="A18" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="43"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="45">
+      <c r="A19" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="44">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="43"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
+      <c r="A21" s="44">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="43"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="44">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="43"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="44">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="43"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="45">
+      <c r="A25" s="44">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="valHighlight" localSheetId="1">IFERROR(IF(Изделия.Банки!$H$1="да", TRUE, FALSE),FALSE)</definedName>
-    <definedName name="valHighlight">IFERROR(IF(Изделия.Бутылки!$H$1="да", TRUE, FALSE),FALSE)</definedName>
+    <definedName name="valHighlight">IFERROR(IF(Изделия.Бутылки!$F$1="да", TRUE, FALSE),FALSE)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Изделия.Банки!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Изделия.Бутылки!$1:$4</definedName>
     <definedName name="ЗаголовокСтолбца1" localSheetId="1">ИнвентарнаяВедомость4[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="162">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>Чертежи деталей ф-та Ведьма</t>
+  </si>
+  <si>
+    <t>Карта замеров Бутылка 0,2 л.</t>
+  </si>
+  <si>
+    <t>Карты замеров Ведьма</t>
+  </si>
+  <si>
+    <t>Чертеж Брест Колоски</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Аквадив 0.35 л.</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +629,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -722,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,21 +750,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -825,9 +840,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="7" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,26 +861,44 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -884,7 +914,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1488,9 +1518,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79961546678060247"/>
+          <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1561,51 +1591,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.79961546678060247"/>
-          <bgColor theme="4" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1696,51 +1681,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="11" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1813,6 +1753,47 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="11" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2057,6 +2038,27 @@
     </dxf>
     <dxf>
       <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -2118,9 +2120,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2144,7 +2146,7 @@
       <xdr:rowOff>1865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2154,7 +2156,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2165,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="24949197" cy="93385"/>
+          <a:ext cx="24171957" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2173,7 +2175,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2227,7 +2229,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2299,7 +2301,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2320,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2372,7 +2374,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2425,21 +2427,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:M23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:M23"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="27" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="16" dataCellStyle="Отменено"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L24" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L24"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2699,727 +2700,733 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
     <col min="14" max="14" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="15"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="18">
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="18">
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="17">
         <f>C5+1</f>
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="18">
-        <f t="shared" ref="C7:C22" si="0">C6+1</f>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="17">
+        <f t="shared" ref="C7:C23" si="0">C6+1</f>
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="18">
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="18">
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="18">
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="18">
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="18">
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="18">
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="18">
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="18">
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="18">
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="18">
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23" t="s">
+      <c r="F18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="18">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="H19" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="18">
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="H20" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="18">
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="34"/>
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="24" t="s">
+      <c r="I21" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="M21" s="42"/>
-    </row>
-    <row r="22" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="18">
+    </row>
+    <row r="22" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="34"/>
+      <c r="C22" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="37"/>
+      <c r="G22" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="23" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="30" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="H23" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="51" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:M24">
-    <cfRule type="expression" dxfId="31" priority="27">
+  <conditionalFormatting sqref="C5:L24">
+    <cfRule type="expression" dxfId="32" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
-      <formula>$M5="да"</formula>
+    <cfRule type="expression" dxfId="31" priority="84">
+      <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="H1">
+  <conditionalFormatting sqref="M24">
+    <cfRule type="expression" dxfId="30" priority="92">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="93">
+      <formula>$M24="да"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="F1:G1"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите &quot;Да&quot;, если позиция была отменена. При вводе варианта &quot;Да&quot; соответствующая строка выделяется светло-серым цветом, а стиль шрифта изменяется на зачеркнутый." sqref="M4"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J18" r:id="rId1"/>
-    <hyperlink ref="G18" r:id="rId2"/>
-    <hyperlink ref="H18" r:id="rId3"/>
+    <hyperlink ref="H18" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
     <hyperlink ref="I18" r:id="rId4"/>
     <hyperlink ref="K14" r:id="rId5"/>
-    <hyperlink ref="H5" r:id="rId6"/>
-    <hyperlink ref="H6" r:id="rId7"/>
-    <hyperlink ref="H7" r:id="rId8"/>
-    <hyperlink ref="H8" r:id="rId9"/>
-    <hyperlink ref="H9" r:id="rId10"/>
-    <hyperlink ref="H10" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H11" r:id="rId13"/>
-    <hyperlink ref="H13" r:id="rId14"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="F6" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F8" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="F10" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12"/>
+    <hyperlink ref="F11" r:id="rId13"/>
+    <hyperlink ref="F13" r:id="rId14"/>
     <hyperlink ref="I13" r:id="rId15"/>
-    <hyperlink ref="F13" r:id="rId16"/>
-    <hyperlink ref="G13" r:id="rId17"/>
-    <hyperlink ref="F15" r:id="rId18"/>
-    <hyperlink ref="G15" r:id="rId19" display="Чертежи деталей XXI-KПM-30-1-500-9 Штоф"/>
-    <hyperlink ref="H16" r:id="rId20"/>
+    <hyperlink ref="G13" r:id="rId16"/>
+    <hyperlink ref="H13" r:id="rId17"/>
+    <hyperlink ref="G15" r:id="rId18"/>
+    <hyperlink ref="H15" r:id="rId19" display="Чертежи деталей XXI-KПM-30-1-500-9 Штоф"/>
+    <hyperlink ref="F16" r:id="rId20"/>
     <hyperlink ref="L15" r:id="rId21"/>
     <hyperlink ref="I16" r:id="rId22"/>
-    <hyperlink ref="F16" r:id="rId23"/>
-    <hyperlink ref="G16" r:id="rId24"/>
-    <hyperlink ref="F7" r:id="rId25"/>
-    <hyperlink ref="G7" r:id="rId26"/>
+    <hyperlink ref="G16" r:id="rId23"/>
+    <hyperlink ref="H16" r:id="rId24"/>
+    <hyperlink ref="G7" r:id="rId25"/>
+    <hyperlink ref="H7" r:id="rId26"/>
     <hyperlink ref="J16" r:id="rId27"/>
     <hyperlink ref="I7" r:id="rId28"/>
     <hyperlink ref="J7" r:id="rId29"/>
     <hyperlink ref="I6" r:id="rId30"/>
-    <hyperlink ref="F6" r:id="rId31"/>
-    <hyperlink ref="G6" r:id="rId32"/>
-    <hyperlink ref="H17" r:id="rId33"/>
+    <hyperlink ref="G6" r:id="rId31"/>
+    <hyperlink ref="H6" r:id="rId32"/>
+    <hyperlink ref="F17" r:id="rId33"/>
     <hyperlink ref="I17" r:id="rId34"/>
-    <hyperlink ref="F17" r:id="rId35"/>
-    <hyperlink ref="G17" r:id="rId36"/>
+    <hyperlink ref="G17" r:id="rId35"/>
+    <hyperlink ref="H17" r:id="rId36"/>
     <hyperlink ref="J17" r:id="rId37"/>
-    <hyperlink ref="H19" r:id="rId38"/>
+    <hyperlink ref="F19" r:id="rId38"/>
     <hyperlink ref="I19" r:id="rId39"/>
-    <hyperlink ref="F19" r:id="rId40"/>
-    <hyperlink ref="G19" r:id="rId41"/>
+    <hyperlink ref="G19" r:id="rId40"/>
+    <hyperlink ref="H19" r:id="rId41"/>
     <hyperlink ref="J19" r:id="rId42"/>
     <hyperlink ref="I5" r:id="rId43"/>
     <hyperlink ref="I20" r:id="rId44"/>
     <hyperlink ref="J5" r:id="rId45"/>
-    <hyperlink ref="H20" r:id="rId46"/>
-    <hyperlink ref="F20" r:id="rId47"/>
-    <hyperlink ref="G20" r:id="rId48"/>
-    <hyperlink ref="F5" r:id="rId49"/>
-    <hyperlink ref="G5" r:id="rId50"/>
+    <hyperlink ref="F20" r:id="rId46"/>
+    <hyperlink ref="G20" r:id="rId47"/>
+    <hyperlink ref="H20" r:id="rId48"/>
+    <hyperlink ref="G5" r:id="rId49"/>
+    <hyperlink ref="H5" r:id="rId50"/>
     <hyperlink ref="J20" r:id="rId51"/>
-    <hyperlink ref="F21" r:id="rId52"/>
-    <hyperlink ref="G21" r:id="rId53"/>
+    <hyperlink ref="G21" r:id="rId52"/>
+    <hyperlink ref="H21" r:id="rId53"/>
     <hyperlink ref="L21" r:id="rId54"/>
-    <hyperlink ref="H21" r:id="rId55"/>
-    <hyperlink ref="F22" r:id="rId56"/>
-    <hyperlink ref="G22" r:id="rId57"/>
-    <hyperlink ref="F23" r:id="rId58"/>
-    <hyperlink ref="G23" r:id="rId59"/>
+    <hyperlink ref="F21" r:id="rId55"/>
+    <hyperlink ref="G22" r:id="rId56"/>
+    <hyperlink ref="H22" r:id="rId57"/>
+    <hyperlink ref="G23" r:id="rId58"/>
+    <hyperlink ref="H23" r:id="rId59"/>
+    <hyperlink ref="L22" r:id="rId60"/>
+    <hyperlink ref="L23" r:id="rId61"/>
+    <hyperlink ref="G18" r:id="rId62"/>
+    <hyperlink ref="I21" r:id="rId63"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId60"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId64"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId61"/>
+  <drawing r:id="rId65"/>
   <tableParts count="1">
-    <tablePart r:id="rId62"/>
+    <tablePart r:id="rId66"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="64" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
+          <x14:cfRule type="iconSet" priority="91" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3445,7 +3452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Лист1">
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3461,7 +3468,7 @@
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -3477,365 +3484,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="18">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="27" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="18">
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="27" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="18">
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="17">
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="18">
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="17">
         <v>4</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="27" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="18">
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="17">
         <v>5</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="18">
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="17">
         <v>6</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="18">
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="17">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="18">
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="17">
         <v>8</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="18">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="17">
         <v>9</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="18">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="17">
         <v>10</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="17">
         <v>11</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="18">
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="17">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="18">
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="17">
         <v>13</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="18">
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="17">
         <v>14</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="2:13" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="2:13" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3925,10 +3932,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3937,90 +3945,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4051,191 +4059,247 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Лист3">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
-        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+      <c r="A4" s="41">
+        <f t="shared" ref="A4:A33" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="40"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="40"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="40"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="40"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
+      <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
+      <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
+      <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
+      <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="40"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="44">
+      <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="44">
+      <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="40"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="44">
+      <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="44">
+      <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="40"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="40"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="40"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="40"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="40"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="40"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="40"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="40"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="170">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -516,6 +516,30 @@
   </si>
   <si>
     <t>Отчет о подготовке Аквадив 0.35 л.</t>
+  </si>
+  <si>
+    <t>XXI-B-30-4A-500</t>
+  </si>
+  <si>
+    <t>Чертеж XXI-В-30-4А-500 Байрон</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Байрон 0.5 л</t>
+  </si>
+  <si>
+    <t>Байрон 0.5 л.</t>
+  </si>
+  <si>
+    <t>Карты замеров (Байрон 0.5)</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Ведьма 0.5 л.</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Круглая 0.2 л.</t>
+  </si>
+  <si>
+    <t>Детали ф-та Круглая 0.2 л.</t>
   </si>
 </sst>
 </file>
@@ -2427,8 +2451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L24" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L27"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
     <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
@@ -2698,13 +2722,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2851,7 +2875,7 @@
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C23" si="0">C6+1</f>
+        <f t="shared" ref="C7:C24" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -3263,8 +3287,12 @@
       <c r="H22" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="22"/>
+      <c r="I22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="K22" s="39"/>
       <c r="L22" s="23" t="s">
         <v>158</v>
@@ -3289,7 +3317,9 @@
       <c r="H23" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="38"/>
+      <c r="I23" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
       <c r="L23" s="51" t="s">
@@ -3297,24 +3327,76 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>164</v>
+      </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="25"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="28"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="51"/>
+    </row>
+    <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L24">
+  <conditionalFormatting sqref="C5:L27">
     <cfRule type="expression" dxfId="32" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
@@ -3322,12 +3404,12 @@
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
+  <conditionalFormatting sqref="M27">
     <cfRule type="expression" dxfId="30" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="93">
-      <formula>$M24="да"</formula>
+      <formula>$M27="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -3411,16 +3493,22 @@
     <hyperlink ref="L23" r:id="rId61"/>
     <hyperlink ref="G18" r:id="rId62"/>
     <hyperlink ref="I21" r:id="rId63"/>
+    <hyperlink ref="G24" r:id="rId64"/>
+    <hyperlink ref="H24" r:id="rId65"/>
+    <hyperlink ref="L24" r:id="rId66"/>
+    <hyperlink ref="I23" r:id="rId67"/>
+    <hyperlink ref="I22" r:id="rId68"/>
+    <hyperlink ref="J22" r:id="rId69"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId70"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId65"/>
+  <drawing r:id="rId71"/>
   <tableParts count="1">
-    <tablePart r:id="rId66"/>
+    <tablePart r:id="rId72"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3442,7 +3530,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B24</xm:sqref>
+          <xm:sqref>B5:B27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3935,8 +4023,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -2180,7 +2180,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2199,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2253,7 +2253,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2325,7 +2325,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2398,7 +2398,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2724,11 +2724,11 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4023,8 +4023,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -540,6 +540,39 @@
   </si>
   <si>
     <t>Детали ф-та Круглая 0.2 л.</t>
+  </si>
+  <si>
+    <t>ШР Участок ремонта форм</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-30-1-500-7</t>
+  </si>
+  <si>
+    <t>Каласы 0.5 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Каласы</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Каласы Климовичи</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-1-250-6</t>
+  </si>
+  <si>
+    <t>Крис1а</t>
+  </si>
+  <si>
+    <t>Чертеж Крис1а</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Крис1а</t>
+  </si>
+  <si>
+    <t>Карты замеров Каласы</t>
+  </si>
+  <si>
+    <t>Карты замеров Крис1а</t>
   </si>
 </sst>
 </file>
@@ -938,7 +971,49 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2144,9 +2219,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2180,7 +2255,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2274,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2253,7 +2328,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2325,7 +2400,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2419,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2398,7 +2473,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2451,41 +2526,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L27" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:L27"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="30" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="29" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="28" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="25" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="23" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="21" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="15" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="14" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="13" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="12" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="11" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="9" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="8" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="4" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2724,11 +2799,11 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2875,7 +2950,7 @@
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C24" si="0">C6+1</f>
+        <f t="shared" ref="C7:C26" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -3354,29 +3429,55 @@
     </row>
     <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>172</v>
+      </c>
       <c r="F25" s="42"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>174</v>
+      </c>
       <c r="I25" s="38"/>
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="51"/>
+      <c r="L25" s="51" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="F26" s="42"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="31"/>
+      <c r="G26" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>178</v>
+      </c>
       <c r="I26" s="38"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="51"/>
+      <c r="L26" s="51" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="43"/>
@@ -3397,18 +3498,18 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:L27">
-    <cfRule type="expression" dxfId="32" priority="83">
+    <cfRule type="expression" dxfId="36" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="84">
+    <cfRule type="expression" dxfId="35" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="30" priority="92">
+    <cfRule type="expression" dxfId="34" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="93">
+    <cfRule type="expression" dxfId="33" priority="93">
       <formula>$M27="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3499,16 +3600,22 @@
     <hyperlink ref="I23" r:id="rId67"/>
     <hyperlink ref="I22" r:id="rId68"/>
     <hyperlink ref="J22" r:id="rId69"/>
+    <hyperlink ref="G25" r:id="rId70"/>
+    <hyperlink ref="H25" r:id="rId71"/>
+    <hyperlink ref="G26" r:id="rId72"/>
+    <hyperlink ref="H26" r:id="rId73"/>
+    <hyperlink ref="L25" r:id="rId74"/>
+    <hyperlink ref="L26" r:id="rId75"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId70"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId76"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId71"/>
+  <drawing r:id="rId77"/>
   <tableParts count="1">
-    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId78"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3938,10 +4045,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4021,10 +4128,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4118,6 +4225,11 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4140,6 +4252,7 @@
     <hyperlink ref="A14" r:id="rId16"/>
     <hyperlink ref="A16" r:id="rId17"/>
     <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -573,6 +573,33 @@
   </si>
   <si>
     <t>Карты замеров Крис1а</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Байрон</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Банка 1 л. СКО</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Банка 1 л. twist</t>
+  </si>
+  <si>
+    <t>Чертеж Фляга 0,5</t>
+  </si>
+  <si>
+    <t>Ф-т контрольный (Придвинье, Фляга)</t>
+  </si>
+  <si>
+    <t>XI-28MCA-700</t>
+  </si>
+  <si>
+    <t>Баден 0.7 л.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чертеж СКО 1 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Банка III-2-82-1000-3 twist</t>
   </si>
 </sst>
 </file>
@@ -971,49 +998,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -2219,9 +2204,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
-      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2255,7 +2240,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2259,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2328,7 +2313,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2400,7 +2385,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2404,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2473,7 +2458,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2526,41 +2511,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L27" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L30"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="30" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="29" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="28" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="25" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="23" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="21" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="15" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="14" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="13" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="12" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="11" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="9" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="8" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="4" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2797,13 +2782,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:L27"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2992,8 +2977,12 @@
       <c r="F8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
@@ -3420,7 +3409,9 @@
       <c r="H24" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="38"/>
+      <c r="I24" s="22" t="s">
+        <v>181</v>
+      </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
       <c r="L24" s="51" t="s">
@@ -3480,37 +3471,82 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="17">
+        <v>23</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="25"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="51"/>
+    </row>
+    <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="51"/>
+    </row>
+    <row r="29" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="51"/>
+    </row>
+    <row r="30" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L27">
-    <cfRule type="expression" dxfId="36" priority="83">
+  <conditionalFormatting sqref="C5:L30">
+    <cfRule type="expression" dxfId="32" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="84">
+    <cfRule type="expression" dxfId="31" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="34" priority="92">
+  <conditionalFormatting sqref="M30">
+    <cfRule type="expression" dxfId="30" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="93">
-      <formula>$M27="да"</formula>
+    <cfRule type="expression" dxfId="29" priority="93">
+      <formula>$M30="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -3606,16 +3642,19 @@
     <hyperlink ref="H26" r:id="rId73"/>
     <hyperlink ref="L25" r:id="rId74"/>
     <hyperlink ref="L26" r:id="rId75"/>
+    <hyperlink ref="I24" r:id="rId76"/>
+    <hyperlink ref="G8" r:id="rId77"/>
+    <hyperlink ref="H8" r:id="rId78"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId76"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId79"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId80"/>
   <tableParts count="1">
-    <tablePart r:id="rId78"/>
+    <tablePart r:id="rId81"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3637,7 +3676,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B27</xm:sqref>
+          <xm:sqref>B5:B30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3654,10 +3693,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3796,10 +3835,12 @@
       <c r="E7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="21"/>
+      <c r="F7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="H7" s="26" t="s">
         <v>36</v>
       </c>
@@ -3820,8 +3861,12 @@
       <c r="E8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="H8" s="26" t="s">
         <v>36</v>
       </c>
@@ -4045,10 +4090,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4086,16 +4131,20 @@
     <hyperlink ref="F10" r:id="rId13"/>
     <hyperlink ref="G10" r:id="rId14"/>
     <hyperlink ref="J10" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="G8" r:id="rId17"/>
+    <hyperlink ref="F7" r:id="rId18"/>
+    <hyperlink ref="F8" r:id="rId19"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId20"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4130,7 +4179,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4265,8 +4314,8 @@
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="198">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -600,6 +600,30 @@
   </si>
   <si>
     <t>Чертеж Банка III-2-82-1000-3 twist</t>
+  </si>
+  <si>
+    <t>Детали Фляга 0,2 л.</t>
+  </si>
+  <si>
+    <t>Детали Фляга 0,5 л.</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ХI-28-МСА-700(ВАDEN)</t>
+  </si>
+  <si>
+    <t>Бутылка  ХI-28MCA-700_Баден</t>
+  </si>
+  <si>
+    <t>Паспорт Круглая 0.2 л.</t>
+  </si>
+  <si>
+    <t>Паспорт Ведьма</t>
+  </si>
+  <si>
+    <t>Паспорт, Акт приемки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Байрон 0.5 л. от 15.10.2019 </t>
   </si>
 </sst>
 </file>
@@ -824,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,9 +959,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2240,7 +2261,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2280,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2313,7 +2334,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2385,7 +2406,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2425,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2458,7 +2479,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2518,7 +2539,7 @@
     <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
     <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
     <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
     <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
     <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
     <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
@@ -2785,10 +2806,10 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2831,11 +2852,11 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3"/>
@@ -2854,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
@@ -2928,7 +2949,9 @@
       <c r="I6" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>190</v>
+      </c>
       <c r="K6" s="23"/>
       <c r="L6" s="24"/>
     </row>
@@ -2984,7 +3007,9 @@
         <v>185</v>
       </c>
       <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>191</v>
+      </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
     </row>
@@ -3327,7 +3352,7 @@
         <v>161</v>
       </c>
       <c r="J21" s="22"/>
-      <c r="K21" s="39"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="23" t="s">
         <v>144</v>
       </c>
@@ -3344,7 +3369,9 @@
       <c r="E22" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="26" t="s">
+        <v>194</v>
+      </c>
       <c r="G22" s="26" t="s">
         <v>152</v>
       </c>
@@ -3357,7 +3384,7 @@
       <c r="J22" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="39"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="23" t="s">
         <v>158</v>
       </c>
@@ -3374,7 +3401,9 @@
       <c r="E23" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="33" t="s">
+        <v>195</v>
+      </c>
       <c r="G23" s="33" t="s">
         <v>156</v>
       </c>
@@ -3386,7 +3415,7 @@
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="50" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3402,7 +3431,9 @@
       <c r="E24" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="33" t="s">
+        <v>197</v>
+      </c>
       <c r="G24" s="33" t="s">
         <v>163</v>
       </c>
@@ -3414,7 +3445,7 @@
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="50" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3430,17 +3461,17 @@
       <c r="E25" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="33" t="s">
         <v>173</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="38"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="51" t="s">
+      <c r="L25" s="50" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3456,17 +3487,17 @@
       <c r="E26" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
         <v>177</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="38"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="50" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3481,52 +3512,56 @@
       <c r="E27" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="38"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="37"/>
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="51"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
       <c r="C28" s="17"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="42"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="33"/>
       <c r="H28" s="31"/>
-      <c r="I28" s="38"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="51"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="17"/>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="42"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="33"/>
       <c r="H29" s="31"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="31"/>
       <c r="K29" s="32"/>
-      <c r="L29" s="51"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
       <c r="M30" s="25"/>
     </row>
   </sheetData>
@@ -3645,16 +3680,23 @@
     <hyperlink ref="I24" r:id="rId76"/>
     <hyperlink ref="G8" r:id="rId77"/>
     <hyperlink ref="H8" r:id="rId78"/>
+    <hyperlink ref="J6" r:id="rId79"/>
+    <hyperlink ref="J8" r:id="rId80"/>
+    <hyperlink ref="H27" r:id="rId81"/>
+    <hyperlink ref="G27" r:id="rId82"/>
+    <hyperlink ref="F22" r:id="rId83"/>
+    <hyperlink ref="F23" r:id="rId84"/>
+    <hyperlink ref="F24" r:id="rId85"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId79"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId86"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId80"/>
+  <drawing r:id="rId87"/>
   <tableParts count="1">
-    <tablePart r:id="rId81"/>
+    <tablePart r:id="rId88"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3736,11 +3778,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -4180,7 +4222,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4321,235 +4363,235 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+      <c r="A3" s="40">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="40">
         <f t="shared" ref="A4:A33" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+      <c r="A13" s="40">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+      <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="39"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+      <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+      <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="39"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="39"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+      <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="39"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="39"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+      <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="39"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="41">
+      <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="39"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="41">
+      <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="39"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="39"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
+      <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+      <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="39"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="41">
+      <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -485,9 +485,6 @@
     <t>ХХI-В-28-1-200-5</t>
   </si>
   <si>
-    <t>Бутылка 0,2 л.</t>
-  </si>
-  <si>
     <t>Чертеж ХХI-В-28-1-200-5 (Бутылка 0.2 л.)</t>
   </si>
   <si>
@@ -614,16 +611,22 @@
     <t>Бутылка  ХI-28MCA-700_Баден</t>
   </si>
   <si>
-    <t>Паспорт Круглая 0.2 л.</t>
-  </si>
-  <si>
-    <t>Паспорт Ведьма</t>
-  </si>
-  <si>
     <t>Паспорт, Акт приемки</t>
   </si>
   <si>
     <t xml:space="preserve">Байрон 0.5 л. от 15.10.2019 </t>
+  </si>
+  <si>
+    <t>Круглая 0,2 л.</t>
+  </si>
+  <si>
+    <t>Круглая 0.2 л. от 03.10.2019</t>
+  </si>
+  <si>
+    <t>Ведьма 0.5 л. от 03.10.2019</t>
+  </si>
+  <si>
+    <t>Баден 0.7 от 25.10.2019</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2264,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2334,7 +2337,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2406,7 +2409,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2428,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2479,7 +2482,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2805,11 +2808,11 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2875,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
@@ -2950,7 +2953,7 @@
         <v>102</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="24"/>
@@ -3001,14 +3004,14 @@
         <v>53</v>
       </c>
       <c r="G8" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>185</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3253,7 +3256,7 @@
         <v>48</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -3349,7 +3352,7 @@
         <v>140</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="38"/>
@@ -3367,26 +3370,26 @@
         <v>150</v>
       </c>
       <c r="E22" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>153</v>
-      </c>
       <c r="I22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>169</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -3396,27 +3399,27 @@
         <v>19</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>157</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
       <c r="L23" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -3426,27 +3429,27 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>164</v>
-      </c>
       <c r="I24" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
       <c r="L24" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -3456,23 +3459,23 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="31" t="s">
         <v>173</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>174</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
       <c r="L25" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -3482,23 +3485,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>176</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>177</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>178</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -3507,17 +3510,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="33" t="s">
+        <v>198</v>
+      </c>
       <c r="G27" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
@@ -3687,16 +3692,17 @@
     <hyperlink ref="F22" r:id="rId83"/>
     <hyperlink ref="F23" r:id="rId84"/>
     <hyperlink ref="F24" r:id="rId85"/>
+    <hyperlink ref="F27" r:id="rId86"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId87"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId87"/>
+  <drawing r:id="rId88"/>
   <tableParts count="1">
-    <tablePart r:id="rId88"/>
+    <tablePart r:id="rId89"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3878,10 +3884,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>36</v>
@@ -3904,10 +3910,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>36</v>
@@ -4221,8 +4227,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4320,7 +4326,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="217">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -627,6 +627,60 @@
   </si>
   <si>
     <t>Баден 0.7 от 25.10.2019</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2-500-29</t>
+  </si>
+  <si>
+    <t>Кепил 0.5 л.</t>
+  </si>
+  <si>
+    <t>Бутылка ХХI-В-28-2-500-29_ Кепил</t>
+  </si>
+  <si>
+    <t>Ф-т ХХI-В-28-2-500-29 KEPIL 500</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Кепил 0.5 л.</t>
+  </si>
+  <si>
+    <t>Паспорт Кепил  0,5 л.</t>
+  </si>
+  <si>
+    <t>V-GPI-630-200</t>
+  </si>
+  <si>
+    <t>Тоник 0.2 л.</t>
+  </si>
+  <si>
+    <t>Бутылка для тоника V-GPI-630-200</t>
+  </si>
+  <si>
+    <t>Ф-т Тоник 0,2л</t>
+  </si>
+  <si>
+    <t>XXI-В-30-4А-700</t>
+  </si>
+  <si>
+    <t>Байрон 0.7 л.</t>
+  </si>
+  <si>
+    <t>Бутылка XXI-В-30-4А-700 Байрон 0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХХI-В-28-2б-500-1 </t>
+  </si>
+  <si>
+    <t>Штоф колоски</t>
+  </si>
+  <si>
+    <t>Чертеж Штоф колоски</t>
+  </si>
+  <si>
+    <t>Ф-т Байрон 0.7 л.</t>
+  </si>
+  <si>
+    <t>Ф-т  Штоф колоски</t>
   </si>
 </sst>
 </file>
@@ -744,6 +798,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1022,7 +1078,112 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1589,27 +1750,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2125,48 +2265,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -2228,9 +2326,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2535,41 +2633,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L35"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="34" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="33" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="32" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="31" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="30" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="29" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="28" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="27" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="25" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="21" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="20" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="19" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="18" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="17" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="15" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="14" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="13" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="12" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="11" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="10" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2806,13 +2904,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2961,7 +3059,7 @@
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C26" si="0">C6+1</f>
+        <f t="shared" ref="C7:C31" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -3210,7 +3308,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="17">
         <f t="shared" si="0"/>
@@ -3240,7 +3338,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="17">
         <f t="shared" si="0"/>
@@ -3270,7 +3368,7 @@
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
     </row>
-    <row r="19" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="28"/>
       <c r="C19" s="17">
         <f t="shared" si="0"/>
@@ -3300,7 +3398,7 @@
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="17">
         <f t="shared" si="0"/>
@@ -3330,7 +3428,7 @@
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="34"/>
       <c r="C21" s="17">
         <f t="shared" si="0"/>
@@ -3360,7 +3458,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="34"/>
       <c r="C22" s="17">
         <f t="shared" si="0"/>
@@ -3392,7 +3490,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="C23" s="17">
         <f t="shared" si="0"/>
@@ -3422,7 +3520,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="28"/>
       <c r="C24" s="17">
         <f t="shared" si="0"/>
@@ -3452,7 +3550,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
       <c r="C25" s="17">
         <f t="shared" si="0"/>
@@ -3478,7 +3576,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="17">
         <f t="shared" si="0"/>
@@ -3504,9 +3602,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
       <c r="C27" s="17">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
@@ -3529,64 +3628,177 @@
       <c r="K27" s="32"/>
       <c r="L27" s="50"/>
     </row>
-    <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="37"/>
+      <c r="C28" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
       <c r="L28" s="50"/>
     </row>
-    <row r="29" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>206</v>
+      </c>
       <c r="F29" s="41"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="31"/>
+      <c r="G29" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>208</v>
+      </c>
       <c r="I29" s="37"/>
       <c r="J29" s="31"/>
       <c r="K29" s="32"/>
       <c r="L29" s="50"/>
     </row>
-    <row r="30" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+    <row r="30" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+      <c r="C30" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>215</v>
+      </c>
       <c r="I30" s="37"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="25"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="50"/>
+    </row>
+    <row r="31" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="28"/>
+      <c r="C31" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="28"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="28"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="50"/>
+    </row>
+    <row r="34" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="28"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L30">
-    <cfRule type="expression" dxfId="32" priority="83">
+  <conditionalFormatting sqref="C5:L35">
+    <cfRule type="expression" dxfId="7" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="84">
+    <cfRule type="expression" dxfId="6" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30">
-    <cfRule type="expression" dxfId="30" priority="92">
+  <conditionalFormatting sqref="M35">
+    <cfRule type="expression" dxfId="5" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="93">
-      <formula>$M30="да"</formula>
+    <cfRule type="expression" dxfId="4" priority="93">
+      <formula>$M35="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -3693,16 +3905,26 @@
     <hyperlink ref="F23" r:id="rId84"/>
     <hyperlink ref="F24" r:id="rId85"/>
     <hyperlink ref="F27" r:id="rId86"/>
+    <hyperlink ref="G28" r:id="rId87"/>
+    <hyperlink ref="H28" r:id="rId88"/>
+    <hyperlink ref="I28" r:id="rId89"/>
+    <hyperlink ref="F28" r:id="rId90"/>
+    <hyperlink ref="G29" r:id="rId91"/>
+    <hyperlink ref="H29" r:id="rId92"/>
+    <hyperlink ref="G30" r:id="rId93"/>
+    <hyperlink ref="G31" r:id="rId94"/>
+    <hyperlink ref="H30" r:id="rId95"/>
+    <hyperlink ref="H31" r:id="rId96"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId97"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId88"/>
+  <drawing r:id="rId98"/>
   <tableParts count="1">
-    <tablePart r:id="rId89"/>
+    <tablePart r:id="rId99"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3724,7 +3946,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B30</xm:sqref>
+          <xm:sqref>B5:B35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4138,10 +4360,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4228,7 +4450,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="225">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -527,9 +527,6 @@
     <t>Байрон 0.5 л.</t>
   </si>
   <si>
-    <t>Карты замеров (Байрон 0.5)</t>
-  </si>
-  <si>
     <t>Отчет о подготовке Ведьма 0.5 л.</t>
   </si>
   <si>
@@ -566,9 +563,6 @@
     <t>Чертежи деталей ф-та Крис1а</t>
   </si>
   <si>
-    <t>Карты замеров Каласы</t>
-  </si>
-  <si>
     <t>Карты замеров Крис1а</t>
   </si>
   <si>
@@ -681,6 +675,36 @@
   </si>
   <si>
     <t>Ф-т  Штоф колоски</t>
+  </si>
+  <si>
+    <t>Штофф Колоски от 06.11.2019</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-2</t>
+  </si>
+  <si>
+    <t>Медофф</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Медофф 0.5 л.</t>
+  </si>
+  <si>
+    <t>Паспорт Медофф</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Белорусская коллекция 0.5 л.</t>
+  </si>
+  <si>
+    <t>Каласы от 23.10.2019</t>
+  </si>
+  <si>
+    <t>Байрон 0.7 л. от 06.11.2019</t>
+  </si>
+  <si>
+    <t>Ф-т ХХI-П-25-500-1 Беларусская калекцыя</t>
+  </si>
+  <si>
+    <t>Бутылка ХХI-П-25-500-1(Беларуская калекцыя)</t>
   </si>
 </sst>
 </file>
@@ -1078,112 +1102,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1750,6 +1669,27 @@
     </dxf>
     <dxf>
       <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2265,6 +2205,48 @@
     </dxf>
     <dxf>
       <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -2326,9 +2308,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
-      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2362,7 +2344,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2363,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2435,7 +2417,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2507,7 +2489,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2508,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2580,7 +2562,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2633,41 +2615,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:L35"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="34" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="33" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="32" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="31" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="30" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="29" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="28" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="27" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="25" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="21" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="20" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="19" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="18" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="17" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="15" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="14" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="13" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="12" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="11" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="10" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2907,10 +2889,10 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2976,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
@@ -3051,7 +3033,7 @@
         <v>102</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="24"/>
@@ -3059,7 +3041,7 @@
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C31" si="0">C6+1</f>
+        <f t="shared" ref="C7:C33" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -3102,14 +3084,14 @@
         <v>53</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3151,9 +3133,15 @@
       <c r="F10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
@@ -3468,10 +3456,10 @@
         <v>150</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>151</v>
@@ -3480,10 +3468,10 @@
         <v>152</v>
       </c>
       <c r="I22" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="23" t="s">
@@ -3503,7 +3491,7 @@
         <v>154</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>155</v>
@@ -3512,7 +3500,7 @@
         <v>156</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
@@ -3533,7 +3521,7 @@
         <v>164</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>162</v>
@@ -3542,13 +3530,11 @@
         <v>163</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="50" t="s">
-        <v>165</v>
-      </c>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
@@ -3557,24 +3543,24 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="33" t="s">
+      <c r="H25" s="31" t="s">
         <v>172</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>173</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="50" t="s">
-        <v>178</v>
-      </c>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
@@ -3583,23 +3569,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>175</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>176</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>177</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3609,19 +3595,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
@@ -3635,22 +3621,22 @@
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="H28" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="33" t="s">
+      <c r="I28" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
@@ -3663,17 +3649,17 @@
         <v>25</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="31"/>
@@ -3687,17 +3673,19 @@
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="33" t="s">
-        <v>211</v>
-      </c>
       <c r="H30" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="31"/>
@@ -3711,17 +3699,19 @@
         <v>27</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="33" t="s">
+      <c r="H31" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>216</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="31"/>
@@ -3730,20 +3720,34 @@
     </row>
     <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="28"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="41"/>
+      <c r="C32" s="17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>219</v>
+      </c>
       <c r="G32" s="33"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="37"/>
+      <c r="I32" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
       <c r="L32" s="50"/>
     </row>
     <row r="33" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="28"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
       <c r="F33" s="41"/>
@@ -3786,18 +3790,18 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:L35">
-    <cfRule type="expression" dxfId="7" priority="83">
+    <cfRule type="expression" dxfId="32" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="84">
+    <cfRule type="expression" dxfId="31" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="5" priority="92">
+    <cfRule type="expression" dxfId="30" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="93">
+    <cfRule type="expression" dxfId="29" priority="93">
       <formula>$M35="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3884,47 +3888,53 @@
     <hyperlink ref="I21" r:id="rId63"/>
     <hyperlink ref="G24" r:id="rId64"/>
     <hyperlink ref="H24" r:id="rId65"/>
-    <hyperlink ref="L24" r:id="rId66"/>
-    <hyperlink ref="I23" r:id="rId67"/>
-    <hyperlink ref="I22" r:id="rId68"/>
-    <hyperlink ref="J22" r:id="rId69"/>
-    <hyperlink ref="G25" r:id="rId70"/>
-    <hyperlink ref="H25" r:id="rId71"/>
-    <hyperlink ref="G26" r:id="rId72"/>
-    <hyperlink ref="H26" r:id="rId73"/>
-    <hyperlink ref="L25" r:id="rId74"/>
-    <hyperlink ref="L26" r:id="rId75"/>
-    <hyperlink ref="I24" r:id="rId76"/>
-    <hyperlink ref="G8" r:id="rId77"/>
-    <hyperlink ref="H8" r:id="rId78"/>
-    <hyperlink ref="J6" r:id="rId79"/>
-    <hyperlink ref="J8" r:id="rId80"/>
-    <hyperlink ref="H27" r:id="rId81"/>
-    <hyperlink ref="G27" r:id="rId82"/>
-    <hyperlink ref="F22" r:id="rId83"/>
-    <hyperlink ref="F23" r:id="rId84"/>
-    <hyperlink ref="F24" r:id="rId85"/>
-    <hyperlink ref="F27" r:id="rId86"/>
-    <hyperlink ref="G28" r:id="rId87"/>
-    <hyperlink ref="H28" r:id="rId88"/>
-    <hyperlink ref="I28" r:id="rId89"/>
-    <hyperlink ref="F28" r:id="rId90"/>
-    <hyperlink ref="G29" r:id="rId91"/>
-    <hyperlink ref="H29" r:id="rId92"/>
-    <hyperlink ref="G30" r:id="rId93"/>
-    <hyperlink ref="G31" r:id="rId94"/>
-    <hyperlink ref="H30" r:id="rId95"/>
-    <hyperlink ref="H31" r:id="rId96"/>
+    <hyperlink ref="I23" r:id="rId66"/>
+    <hyperlink ref="I22" r:id="rId67"/>
+    <hyperlink ref="J22" r:id="rId68"/>
+    <hyperlink ref="G25" r:id="rId69"/>
+    <hyperlink ref="H25" r:id="rId70"/>
+    <hyperlink ref="G26" r:id="rId71"/>
+    <hyperlink ref="H26" r:id="rId72"/>
+    <hyperlink ref="L26" r:id="rId73"/>
+    <hyperlink ref="I24" r:id="rId74"/>
+    <hyperlink ref="G8" r:id="rId75"/>
+    <hyperlink ref="H8" r:id="rId76"/>
+    <hyperlink ref="J6" r:id="rId77"/>
+    <hyperlink ref="J8" r:id="rId78"/>
+    <hyperlink ref="H27" r:id="rId79"/>
+    <hyperlink ref="G27" r:id="rId80"/>
+    <hyperlink ref="F22" r:id="rId81"/>
+    <hyperlink ref="F23" r:id="rId82"/>
+    <hyperlink ref="F24" r:id="rId83"/>
+    <hyperlink ref="F27" r:id="rId84"/>
+    <hyperlink ref="G28" r:id="rId85"/>
+    <hyperlink ref="H28" r:id="rId86"/>
+    <hyperlink ref="I28" r:id="rId87"/>
+    <hyperlink ref="F28" r:id="rId88"/>
+    <hyperlink ref="G29" r:id="rId89"/>
+    <hyperlink ref="H29" r:id="rId90"/>
+    <hyperlink ref="G30" r:id="rId91"/>
+    <hyperlink ref="G31" r:id="rId92"/>
+    <hyperlink ref="H30" r:id="rId93"/>
+    <hyperlink ref="H31" r:id="rId94"/>
+    <hyperlink ref="F31" r:id="rId95"/>
+    <hyperlink ref="I32" r:id="rId96"/>
+    <hyperlink ref="F32" r:id="rId97"/>
+    <hyperlink ref="I10" r:id="rId98"/>
+    <hyperlink ref="F25" r:id="rId99"/>
+    <hyperlink ref="F30" r:id="rId100"/>
+    <hyperlink ref="H10" r:id="rId101"/>
+    <hyperlink ref="G10" r:id="rId102"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId103"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId98"/>
+  <drawing r:id="rId104"/>
   <tableParts count="1">
-    <tablePart r:id="rId99"/>
+    <tablePart r:id="rId105"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3963,10 +3973,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4106,10 +4116,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>36</v>
@@ -4132,10 +4142,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>36</v>
@@ -4360,10 +4370,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4450,7 +4460,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4548,7 +4558,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="228">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Паспорт Фляга  0,2 л.</t>
   </si>
   <si>
-    <t>Паспорт Брест колоски</t>
-  </si>
-  <si>
     <t>XXI-КПМ-30-1-700</t>
   </si>
   <si>
@@ -284,18 +281,6 @@
     <t>Чертежи деталей Банки 0,16 л. ABC</t>
   </si>
   <si>
-    <t>ХХI-КПМ-30-1-500-9</t>
-  </si>
-  <si>
-    <t>Штоф</t>
-  </si>
-  <si>
-    <t>Чертеж Штоф</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>XXI-B-28-2.1б -700</t>
   </si>
   <si>
@@ -305,9 +290,6 @@
     <t>Паспорт Фирменная 2  0,7 л.</t>
   </si>
   <si>
-    <t>Карты замеров XXI-КПМ-30-1-500-9 (Штоф) Тестовый от 10.09.2019.xlsx</t>
-  </si>
-  <si>
     <t>Отчет о подготовке Кристалл Фирменная 2, 0.7 л.</t>
   </si>
   <si>
@@ -705,6 +687,33 @@
   </si>
   <si>
     <t>Бутылка ХХI-П-25-500-1(Беларуская калекцыя)</t>
+  </si>
+  <si>
+    <t>Брест колоски от 13.11.2019</t>
+  </si>
+  <si>
+    <t>Тех. регламент восстановления деталей формокомплектов</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-9 (Штоф)</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-9</t>
+  </si>
+  <si>
+    <t>Штофф</t>
+  </si>
+  <si>
+    <t>Ф-т ХХI-КПМ-30-1-500-9 (Штоф)</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-30-1-500-9 Штоф</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-26-4-500-10 (Ice cube)</t>
+  </si>
+  <si>
+    <t>Ф-т ХХI-КПМ-26-4-500-10 Ice cube</t>
   </si>
 </sst>
 </file>
@@ -931,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1092,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1102,7 +1114,28 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2308,9 +2341,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="firstColumn" dxfId="35"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2353,7 +2386,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="24171957" cy="93385"/>
+          <a:ext cx="21756417" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2615,41 +2648,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:L35"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="28" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="21" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="20" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="13" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="12" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="11" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="9" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="8" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="3" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="2" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2889,10 +2922,10 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2908,7 +2941,7 @@
     <col min="9" max="9" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
     <col min="14" max="14" width="1.6640625" customWidth="1"/>
   </cols>
@@ -2935,11 +2968,11 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3"/>
@@ -2958,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>8</v>
@@ -2994,16 +3027,16 @@
         <v>24</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
@@ -3024,16 +3057,16 @@
         <v>47</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="24"/>
@@ -3045,25 +3078,25 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>51</v>
-      </c>
       <c r="G7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>101</v>
-      </c>
       <c r="J7" s="22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
@@ -3075,23 +3108,23 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3103,13 +3136,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
@@ -3125,22 +3158,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
@@ -3153,13 +3186,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
@@ -3175,13 +3208,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
@@ -3197,22 +3230,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
@@ -3231,8 +3264,12 @@
         <v>13</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="G14" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>227</v>
+      </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
       <c r="K14" s="23" t="s">
@@ -3247,23 +3284,23 @@
         <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>87</v>
+      <c r="G15" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>224</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="23" t="s">
-        <v>91</v>
+      <c r="L15" s="51" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3273,25 +3310,25 @@
         <v>12</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="I16" s="22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
@@ -3303,25 +3340,25 @@
         <v>13</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>113</v>
-      </c>
       <c r="J17" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
@@ -3339,10 +3376,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -3351,7 +3388,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -3363,25 +3400,25 @@
         <v>15</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E19" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>125</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -3393,25 +3430,25 @@
         <v>16</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>133</v>
-      </c>
       <c r="I20" s="31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
@@ -3423,27 +3460,27 @@
         <v>17</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="38"/>
       <c r="L21" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -3453,29 +3490,29 @@
         <v>18</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3485,27 +3522,27 @@
         <v>19</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
       <c r="L23" s="50" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3515,22 +3552,22 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
@@ -3543,19 +3580,19 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="31"/>
@@ -3569,23 +3606,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="50" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3595,19 +3632,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="31" t="s">
         <v>183</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>189</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
@@ -3621,22 +3658,22 @@
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
@@ -3649,17 +3686,17 @@
         <v>25</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="33" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="31"/>
@@ -3673,19 +3710,19 @@
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" s="31" t="s">
         <v>207</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>213</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="31"/>
@@ -3699,19 +3736,19 @@
         <v>27</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="31"/>
@@ -3725,18 +3762,18 @@
         <v>28</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="31"/>
       <c r="I32" s="22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -3790,18 +3827,18 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:L35">
-    <cfRule type="expression" dxfId="32" priority="83">
+    <cfRule type="expression" dxfId="34" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="84">
+    <cfRule type="expression" dxfId="33" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="30" priority="92">
+    <cfRule type="expression" dxfId="32" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="93">
+    <cfRule type="expression" dxfId="31" priority="93">
       <formula>$M35="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3840,101 +3877,103 @@
     <hyperlink ref="I13" r:id="rId15"/>
     <hyperlink ref="G13" r:id="rId16"/>
     <hyperlink ref="H13" r:id="rId17"/>
-    <hyperlink ref="G15" r:id="rId18"/>
-    <hyperlink ref="H15" r:id="rId19" display="Чертежи деталей XXI-KПM-30-1-500-9 Штоф"/>
-    <hyperlink ref="F16" r:id="rId20"/>
-    <hyperlink ref="L15" r:id="rId21"/>
-    <hyperlink ref="I16" r:id="rId22"/>
-    <hyperlink ref="G16" r:id="rId23"/>
-    <hyperlink ref="H16" r:id="rId24"/>
-    <hyperlink ref="G7" r:id="rId25"/>
-    <hyperlink ref="H7" r:id="rId26"/>
-    <hyperlink ref="J16" r:id="rId27"/>
-    <hyperlink ref="I7" r:id="rId28"/>
-    <hyperlink ref="J7" r:id="rId29"/>
-    <hyperlink ref="I6" r:id="rId30"/>
-    <hyperlink ref="G6" r:id="rId31"/>
-    <hyperlink ref="H6" r:id="rId32"/>
-    <hyperlink ref="F17" r:id="rId33"/>
-    <hyperlink ref="I17" r:id="rId34"/>
-    <hyperlink ref="G17" r:id="rId35"/>
-    <hyperlink ref="H17" r:id="rId36"/>
-    <hyperlink ref="J17" r:id="rId37"/>
-    <hyperlink ref="F19" r:id="rId38"/>
-    <hyperlink ref="I19" r:id="rId39"/>
-    <hyperlink ref="G19" r:id="rId40"/>
-    <hyperlink ref="H19" r:id="rId41"/>
-    <hyperlink ref="J19" r:id="rId42"/>
-    <hyperlink ref="I5" r:id="rId43"/>
-    <hyperlink ref="I20" r:id="rId44"/>
-    <hyperlink ref="J5" r:id="rId45"/>
-    <hyperlink ref="F20" r:id="rId46"/>
-    <hyperlink ref="G20" r:id="rId47"/>
-    <hyperlink ref="H20" r:id="rId48"/>
-    <hyperlink ref="G5" r:id="rId49"/>
-    <hyperlink ref="H5" r:id="rId50"/>
-    <hyperlink ref="J20" r:id="rId51"/>
-    <hyperlink ref="G21" r:id="rId52"/>
-    <hyperlink ref="H21" r:id="rId53"/>
-    <hyperlink ref="L21" r:id="rId54"/>
-    <hyperlink ref="F21" r:id="rId55"/>
-    <hyperlink ref="G22" r:id="rId56"/>
-    <hyperlink ref="H22" r:id="rId57"/>
-    <hyperlink ref="G23" r:id="rId58"/>
-    <hyperlink ref="H23" r:id="rId59"/>
-    <hyperlink ref="L22" r:id="rId60"/>
-    <hyperlink ref="L23" r:id="rId61"/>
-    <hyperlink ref="G18" r:id="rId62"/>
-    <hyperlink ref="I21" r:id="rId63"/>
-    <hyperlink ref="G24" r:id="rId64"/>
-    <hyperlink ref="H24" r:id="rId65"/>
-    <hyperlink ref="I23" r:id="rId66"/>
-    <hyperlink ref="I22" r:id="rId67"/>
-    <hyperlink ref="J22" r:id="rId68"/>
-    <hyperlink ref="G25" r:id="rId69"/>
-    <hyperlink ref="H25" r:id="rId70"/>
-    <hyperlink ref="G26" r:id="rId71"/>
-    <hyperlink ref="H26" r:id="rId72"/>
-    <hyperlink ref="L26" r:id="rId73"/>
-    <hyperlink ref="I24" r:id="rId74"/>
-    <hyperlink ref="G8" r:id="rId75"/>
-    <hyperlink ref="H8" r:id="rId76"/>
-    <hyperlink ref="J6" r:id="rId77"/>
-    <hyperlink ref="J8" r:id="rId78"/>
-    <hyperlink ref="H27" r:id="rId79"/>
-    <hyperlink ref="G27" r:id="rId80"/>
-    <hyperlink ref="F22" r:id="rId81"/>
-    <hyperlink ref="F23" r:id="rId82"/>
-    <hyperlink ref="F24" r:id="rId83"/>
-    <hyperlink ref="F27" r:id="rId84"/>
-    <hyperlink ref="G28" r:id="rId85"/>
-    <hyperlink ref="H28" r:id="rId86"/>
-    <hyperlink ref="I28" r:id="rId87"/>
-    <hyperlink ref="F28" r:id="rId88"/>
-    <hyperlink ref="G29" r:id="rId89"/>
-    <hyperlink ref="H29" r:id="rId90"/>
-    <hyperlink ref="G30" r:id="rId91"/>
-    <hyperlink ref="G31" r:id="rId92"/>
-    <hyperlink ref="H30" r:id="rId93"/>
-    <hyperlink ref="H31" r:id="rId94"/>
-    <hyperlink ref="F31" r:id="rId95"/>
-    <hyperlink ref="I32" r:id="rId96"/>
-    <hyperlink ref="F32" r:id="rId97"/>
-    <hyperlink ref="I10" r:id="rId98"/>
-    <hyperlink ref="F25" r:id="rId99"/>
-    <hyperlink ref="F30" r:id="rId100"/>
-    <hyperlink ref="H10" r:id="rId101"/>
-    <hyperlink ref="G10" r:id="rId102"/>
+    <hyperlink ref="F16" r:id="rId18"/>
+    <hyperlink ref="I16" r:id="rId19"/>
+    <hyperlink ref="G16" r:id="rId20"/>
+    <hyperlink ref="H16" r:id="rId21"/>
+    <hyperlink ref="G7" r:id="rId22"/>
+    <hyperlink ref="H7" r:id="rId23"/>
+    <hyperlink ref="J16" r:id="rId24"/>
+    <hyperlink ref="I7" r:id="rId25"/>
+    <hyperlink ref="J7" r:id="rId26"/>
+    <hyperlink ref="I6" r:id="rId27"/>
+    <hyperlink ref="G6" r:id="rId28"/>
+    <hyperlink ref="H6" r:id="rId29"/>
+    <hyperlink ref="F17" r:id="rId30"/>
+    <hyperlink ref="I17" r:id="rId31"/>
+    <hyperlink ref="G17" r:id="rId32"/>
+    <hyperlink ref="H17" r:id="rId33"/>
+    <hyperlink ref="J17" r:id="rId34"/>
+    <hyperlink ref="F19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G19" r:id="rId37"/>
+    <hyperlink ref="H19" r:id="rId38"/>
+    <hyperlink ref="J19" r:id="rId39"/>
+    <hyperlink ref="I5" r:id="rId40"/>
+    <hyperlink ref="I20" r:id="rId41"/>
+    <hyperlink ref="J5" r:id="rId42"/>
+    <hyperlink ref="F20" r:id="rId43"/>
+    <hyperlink ref="G20" r:id="rId44"/>
+    <hyperlink ref="H20" r:id="rId45"/>
+    <hyperlink ref="G5" r:id="rId46"/>
+    <hyperlink ref="H5" r:id="rId47"/>
+    <hyperlink ref="J20" r:id="rId48"/>
+    <hyperlink ref="G21" r:id="rId49"/>
+    <hyperlink ref="H21" r:id="rId50"/>
+    <hyperlink ref="L21" r:id="rId51"/>
+    <hyperlink ref="F21" r:id="rId52"/>
+    <hyperlink ref="G22" r:id="rId53"/>
+    <hyperlink ref="H22" r:id="rId54"/>
+    <hyperlink ref="G23" r:id="rId55"/>
+    <hyperlink ref="H23" r:id="rId56"/>
+    <hyperlink ref="L22" r:id="rId57"/>
+    <hyperlink ref="L23" r:id="rId58"/>
+    <hyperlink ref="G18" r:id="rId59"/>
+    <hyperlink ref="I21" r:id="rId60"/>
+    <hyperlink ref="G24" r:id="rId61"/>
+    <hyperlink ref="H24" r:id="rId62"/>
+    <hyperlink ref="I23" r:id="rId63"/>
+    <hyperlink ref="I22" r:id="rId64"/>
+    <hyperlink ref="J22" r:id="rId65"/>
+    <hyperlink ref="G25" r:id="rId66"/>
+    <hyperlink ref="H25" r:id="rId67"/>
+    <hyperlink ref="G26" r:id="rId68"/>
+    <hyperlink ref="H26" r:id="rId69"/>
+    <hyperlink ref="L26" r:id="rId70"/>
+    <hyperlink ref="I24" r:id="rId71"/>
+    <hyperlink ref="G8" r:id="rId72"/>
+    <hyperlink ref="H8" r:id="rId73"/>
+    <hyperlink ref="J6" r:id="rId74"/>
+    <hyperlink ref="J8" r:id="rId75"/>
+    <hyperlink ref="H27" r:id="rId76"/>
+    <hyperlink ref="G27" r:id="rId77"/>
+    <hyperlink ref="F22" r:id="rId78"/>
+    <hyperlink ref="F23" r:id="rId79"/>
+    <hyperlink ref="F24" r:id="rId80"/>
+    <hyperlink ref="F27" r:id="rId81"/>
+    <hyperlink ref="G28" r:id="rId82"/>
+    <hyperlink ref="H28" r:id="rId83"/>
+    <hyperlink ref="I28" r:id="rId84"/>
+    <hyperlink ref="F28" r:id="rId85"/>
+    <hyperlink ref="G29" r:id="rId86"/>
+    <hyperlink ref="H29" r:id="rId87"/>
+    <hyperlink ref="G30" r:id="rId88"/>
+    <hyperlink ref="G31" r:id="rId89"/>
+    <hyperlink ref="H30" r:id="rId90"/>
+    <hyperlink ref="H31" r:id="rId91"/>
+    <hyperlink ref="F31" r:id="rId92"/>
+    <hyperlink ref="I32" r:id="rId93"/>
+    <hyperlink ref="F32" r:id="rId94"/>
+    <hyperlink ref="I10" r:id="rId95"/>
+    <hyperlink ref="F25" r:id="rId96"/>
+    <hyperlink ref="F30" r:id="rId97"/>
+    <hyperlink ref="H10" r:id="rId98"/>
+    <hyperlink ref="G10" r:id="rId99"/>
+    <hyperlink ref="L15" r:id="rId100"/>
+    <hyperlink ref="H15" r:id="rId101"/>
+    <hyperlink ref="G15" r:id="rId102"/>
+    <hyperlink ref="G14" r:id="rId103"/>
+    <hyperlink ref="H14" r:id="rId104"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId103"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId105"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId104"/>
+  <drawing r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId105"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4016,11 +4055,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -4116,10 +4155,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>36</v>
@@ -4142,10 +4181,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>36</v>
@@ -4187,22 +4226,22 @@
         <v>42</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
@@ -4214,25 +4253,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
@@ -4370,10 +4409,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4460,7 +4499,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4470,15 +4509,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>20</v>
@@ -4486,7 +4525,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>30</v>
@@ -4504,61 +4543,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4582,6 +4626,7 @@
     <hyperlink ref="A16" r:id="rId17"/>
     <hyperlink ref="A18" r:id="rId18"/>
     <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="B15" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4605,7 +4650,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="227">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -446,9 +446,6 @@
     <t>Карты замеров</t>
   </si>
   <si>
-    <t>Карты замеров Аквадив 0.35 л.</t>
-  </si>
-  <si>
     <t>Обучение</t>
   </si>
   <si>
@@ -485,12 +482,6 @@
     <t>Чертежи деталей ф-та Ведьма</t>
   </si>
   <si>
-    <t>Карта замеров Бутылка 0,2 л.</t>
-  </si>
-  <si>
-    <t>Карты замеров Ведьма</t>
-  </si>
-  <si>
     <t>Чертеж Брест Колоски</t>
   </si>
   <si>
@@ -695,15 +686,9 @@
     <t>Тех. регламент восстановления деталей формокомплектов</t>
   </si>
   <si>
-    <t>XXI-КПМ-30-1-500-9 (Штоф)</t>
-  </si>
-  <si>
     <t>XXI-КПМ-30-1-500-9</t>
   </si>
   <si>
-    <t>Штофф</t>
-  </si>
-  <si>
     <t>Ф-т ХХI-КПМ-30-1-500-9 (Штоф)</t>
   </si>
   <si>
@@ -714,6 +699,18 @@
   </si>
   <si>
     <t>Ф-т ХХI-КПМ-26-4-500-10 Ice cube</t>
+  </si>
+  <si>
+    <t>Штофф от 18.11.2019</t>
+  </si>
+  <si>
+    <t>Штофф Земляк</t>
+  </si>
+  <si>
+    <t>XXI-B-30-4А-700 (Байрон 0.7 л.)</t>
+  </si>
+  <si>
+    <t>Шапка</t>
   </si>
 </sst>
 </file>
@@ -940,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,9 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="13" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,28 +1108,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -2341,9 +2314,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
-      <tableStyleElement type="firstColumn" dxfId="35"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2377,7 +2350,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2369,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2450,7 +2423,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2522,7 +2495,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2514,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2595,7 +2568,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2648,41 +2621,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:L35"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="28" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="24" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="21" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="20" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="13" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="12" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="11" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="9" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="8" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="3" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="2" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2922,10 +2895,10 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2968,11 +2941,11 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3"/>
@@ -2991,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
@@ -3066,7 +3039,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="24"/>
@@ -3117,14 +3090,14 @@
         <v>52</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3167,13 +3140,13 @@
         <v>58</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
@@ -3265,10 +3238,10 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -3284,24 +3257,24 @@
         <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>224</v>
+      <c r="G15" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>219</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="51" t="s">
-        <v>221</v>
-      </c>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
@@ -3376,10 +3349,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -3466,7 +3439,7 @@
         <v>132</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>133</v>
@@ -3475,13 +3448,11 @@
         <v>134</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="23" t="s">
-        <v>138</v>
-      </c>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="34"/>
@@ -3490,30 +3461,28 @@
         <v>18</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="I22" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K22" s="38"/>
-      <c r="L22" s="23" t="s">
-        <v>151</v>
-      </c>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
@@ -3522,28 +3491,26 @@
         <v>19</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
-      <c r="L23" s="50" t="s">
-        <v>152</v>
-      </c>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="28"/>
@@ -3552,26 +3519,26 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>158</v>
-      </c>
       <c r="F24" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="50"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
@@ -3580,24 +3547,24 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="31" t="s">
         <v>163</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>166</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="50"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
@@ -3606,23 +3573,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="50" t="s">
-        <v>171</v>
+      <c r="L26" s="49" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3632,24 +3599,24 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="50"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
@@ -3658,26 +3625,26 @@
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="I28" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="50"/>
+      <c r="L28" s="49"/>
     </row>
     <row r="29" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
@@ -3686,22 +3653,22 @@
         <v>25</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="31"/>
       <c r="K29" s="32"/>
-      <c r="L29" s="50"/>
+      <c r="L29" s="49"/>
     </row>
     <row r="30" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
@@ -3710,24 +3677,26 @@
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="I30" s="37"/>
+        <v>204</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>225</v>
+      </c>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="50"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="31" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
@@ -3736,24 +3705,24 @@
         <v>27</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E31" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="31" t="s">
         <v>205</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>208</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="31"/>
       <c r="K31" s="32"/>
-      <c r="L31" s="50"/>
+      <c r="L31" s="49"/>
     </row>
     <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="28"/>
@@ -3762,22 +3731,22 @@
         <v>28</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="31"/>
       <c r="I32" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
-      <c r="L32" s="50"/>
+      <c r="L32" s="49"/>
     </row>
     <row r="33" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="28"/>
@@ -3793,7 +3762,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="31"/>
       <c r="K33" s="32"/>
-      <c r="L33" s="50"/>
+      <c r="L33" s="49"/>
     </row>
     <row r="34" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="28"/>
@@ -3806,20 +3775,22 @@
       <c r="I34" s="37"/>
       <c r="J34" s="31"/>
       <c r="K34" s="32"/>
-      <c r="L34" s="50"/>
+      <c r="L34" s="49"/>
     </row>
     <row r="35" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="F35" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
       <c r="I35" s="37"/>
       <c r="J35" s="22"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
       <c r="M35" s="25"/>
     </row>
   </sheetData>
@@ -3827,18 +3798,18 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:L35">
-    <cfRule type="expression" dxfId="34" priority="83">
+    <cfRule type="expression" dxfId="32" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="84">
+    <cfRule type="expression" dxfId="31" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="32" priority="92">
+    <cfRule type="expression" dxfId="30" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="93">
+    <cfRule type="expression" dxfId="29" priority="93">
       <formula>$M35="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3910,70 +3881,69 @@
     <hyperlink ref="J20" r:id="rId48"/>
     <hyperlink ref="G21" r:id="rId49"/>
     <hyperlink ref="H21" r:id="rId50"/>
-    <hyperlink ref="L21" r:id="rId51"/>
-    <hyperlink ref="F21" r:id="rId52"/>
-    <hyperlink ref="G22" r:id="rId53"/>
-    <hyperlink ref="H22" r:id="rId54"/>
-    <hyperlink ref="G23" r:id="rId55"/>
-    <hyperlink ref="H23" r:id="rId56"/>
-    <hyperlink ref="L22" r:id="rId57"/>
-    <hyperlink ref="L23" r:id="rId58"/>
-    <hyperlink ref="G18" r:id="rId59"/>
-    <hyperlink ref="I21" r:id="rId60"/>
-    <hyperlink ref="G24" r:id="rId61"/>
-    <hyperlink ref="H24" r:id="rId62"/>
-    <hyperlink ref="I23" r:id="rId63"/>
-    <hyperlink ref="I22" r:id="rId64"/>
-    <hyperlink ref="J22" r:id="rId65"/>
-    <hyperlink ref="G25" r:id="rId66"/>
-    <hyperlink ref="H25" r:id="rId67"/>
-    <hyperlink ref="G26" r:id="rId68"/>
-    <hyperlink ref="H26" r:id="rId69"/>
-    <hyperlink ref="L26" r:id="rId70"/>
-    <hyperlink ref="I24" r:id="rId71"/>
-    <hyperlink ref="G8" r:id="rId72"/>
-    <hyperlink ref="H8" r:id="rId73"/>
-    <hyperlink ref="J6" r:id="rId74"/>
-    <hyperlink ref="J8" r:id="rId75"/>
-    <hyperlink ref="H27" r:id="rId76"/>
-    <hyperlink ref="G27" r:id="rId77"/>
-    <hyperlink ref="F22" r:id="rId78"/>
-    <hyperlink ref="F23" r:id="rId79"/>
-    <hyperlink ref="F24" r:id="rId80"/>
-    <hyperlink ref="F27" r:id="rId81"/>
-    <hyperlink ref="G28" r:id="rId82"/>
-    <hyperlink ref="H28" r:id="rId83"/>
-    <hyperlink ref="I28" r:id="rId84"/>
-    <hyperlink ref="F28" r:id="rId85"/>
-    <hyperlink ref="G29" r:id="rId86"/>
-    <hyperlink ref="H29" r:id="rId87"/>
-    <hyperlink ref="G30" r:id="rId88"/>
-    <hyperlink ref="G31" r:id="rId89"/>
-    <hyperlink ref="H30" r:id="rId90"/>
-    <hyperlink ref="H31" r:id="rId91"/>
-    <hyperlink ref="F31" r:id="rId92"/>
-    <hyperlink ref="I32" r:id="rId93"/>
-    <hyperlink ref="F32" r:id="rId94"/>
-    <hyperlink ref="I10" r:id="rId95"/>
-    <hyperlink ref="F25" r:id="rId96"/>
-    <hyperlink ref="F30" r:id="rId97"/>
-    <hyperlink ref="H10" r:id="rId98"/>
-    <hyperlink ref="G10" r:id="rId99"/>
-    <hyperlink ref="L15" r:id="rId100"/>
-    <hyperlink ref="H15" r:id="rId101"/>
-    <hyperlink ref="G15" r:id="rId102"/>
-    <hyperlink ref="G14" r:id="rId103"/>
-    <hyperlink ref="H14" r:id="rId104"/>
+    <hyperlink ref="F21" r:id="rId51"/>
+    <hyperlink ref="G22" r:id="rId52"/>
+    <hyperlink ref="H22" r:id="rId53"/>
+    <hyperlink ref="G23" r:id="rId54"/>
+    <hyperlink ref="H23" r:id="rId55"/>
+    <hyperlink ref="G18" r:id="rId56"/>
+    <hyperlink ref="I21" r:id="rId57"/>
+    <hyperlink ref="G24" r:id="rId58"/>
+    <hyperlink ref="H24" r:id="rId59"/>
+    <hyperlink ref="I23" r:id="rId60"/>
+    <hyperlink ref="I22" r:id="rId61"/>
+    <hyperlink ref="J22" r:id="rId62"/>
+    <hyperlink ref="G25" r:id="rId63"/>
+    <hyperlink ref="H25" r:id="rId64"/>
+    <hyperlink ref="G26" r:id="rId65"/>
+    <hyperlink ref="H26" r:id="rId66"/>
+    <hyperlink ref="L26" r:id="rId67"/>
+    <hyperlink ref="I24" r:id="rId68"/>
+    <hyperlink ref="G8" r:id="rId69"/>
+    <hyperlink ref="H8" r:id="rId70"/>
+    <hyperlink ref="J6" r:id="rId71"/>
+    <hyperlink ref="J8" r:id="rId72"/>
+    <hyperlink ref="H27" r:id="rId73"/>
+    <hyperlink ref="G27" r:id="rId74"/>
+    <hyperlink ref="F22" r:id="rId75"/>
+    <hyperlink ref="F23" r:id="rId76"/>
+    <hyperlink ref="F24" r:id="rId77"/>
+    <hyperlink ref="F27" r:id="rId78"/>
+    <hyperlink ref="G28" r:id="rId79"/>
+    <hyperlink ref="H28" r:id="rId80"/>
+    <hyperlink ref="I28" r:id="rId81"/>
+    <hyperlink ref="F28" r:id="rId82"/>
+    <hyperlink ref="G29" r:id="rId83"/>
+    <hyperlink ref="H29" r:id="rId84"/>
+    <hyperlink ref="G30" r:id="rId85"/>
+    <hyperlink ref="G31" r:id="rId86"/>
+    <hyperlink ref="H30" r:id="rId87"/>
+    <hyperlink ref="H31" r:id="rId88"/>
+    <hyperlink ref="F31" r:id="rId89"/>
+    <hyperlink ref="I32" r:id="rId90"/>
+    <hyperlink ref="F32" r:id="rId91"/>
+    <hyperlink ref="I10" r:id="rId92"/>
+    <hyperlink ref="F25" r:id="rId93"/>
+    <hyperlink ref="F30" r:id="rId94"/>
+    <hyperlink ref="H10" r:id="rId95"/>
+    <hyperlink ref="G10" r:id="rId96"/>
+    <hyperlink ref="H15" r:id="rId97"/>
+    <hyperlink ref="G15" r:id="rId98"/>
+    <hyperlink ref="G14" r:id="rId99"/>
+    <hyperlink ref="H14" r:id="rId100"/>
+    <hyperlink ref="F15" r:id="rId101"/>
+    <hyperlink ref="I30" r:id="rId102"/>
+    <hyperlink ref="F35" r:id="rId103"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId105"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId104"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId106"/>
+  <drawing r:id="rId105"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId106"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4012,10 +3982,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4055,11 +4025,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -4155,10 +4125,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>36</v>
@@ -4181,10 +4151,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>36</v>
@@ -4409,10 +4379,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4499,7 +4469,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4582,27 +4552,27 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4650,7 +4620,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="232">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -711,6 +711,21 @@
   </si>
   <si>
     <t>Шапка</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-30-1-500-Размова</t>
+  </si>
+  <si>
+    <t>Ф-т тестовый Размова 0,5.</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-30-1-500</t>
+  </si>
+  <si>
+    <t>Размова</t>
+  </si>
+  <si>
+    <t>Паспорт V-GPI-630-200 Тоник 0,2</t>
   </si>
 </sst>
 </file>
@@ -937,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1108,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2894,11 +2912,11 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3265,7 +3283,7 @@
       <c r="F15" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="52" t="s">
         <v>220</v>
       </c>
       <c r="H15" s="50" t="s">
@@ -3658,7 +3676,9 @@
       <c r="E29" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="33" t="s">
+        <v>231</v>
+      </c>
       <c r="G29" s="33" t="s">
         <v>196</v>
       </c>
@@ -3754,11 +3774,19 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="D33" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>230</v>
+      </c>
       <c r="F33" s="41"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="31"/>
+      <c r="G33" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>228</v>
+      </c>
       <c r="I33" s="37"/>
       <c r="J33" s="31"/>
       <c r="K33" s="32"/>
@@ -3934,16 +3962,19 @@
     <hyperlink ref="F15" r:id="rId101"/>
     <hyperlink ref="I30" r:id="rId102"/>
     <hyperlink ref="F35" r:id="rId103"/>
+    <hyperlink ref="G33" r:id="rId104"/>
+    <hyperlink ref="H33" r:id="rId105"/>
+    <hyperlink ref="F29" r:id="rId106"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId104"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId107"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId105"/>
+  <drawing r:id="rId108"/>
   <tableParts count="1">
-    <tablePart r:id="rId106"/>
+    <tablePart r:id="rId109"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4468,7 +4499,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <definedName name="ЗаголовокСтолбца1" localSheetId="1">ИнвентарнаяВедомость4[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
     <definedName name="ЗаголовокСтолбца1">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="248">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Расчет капель по машинам (УРФ) 2019</t>
   </si>
   <si>
-    <t>ТАБЕЛЬ Участок ремонта форм 2019 год</t>
-  </si>
-  <si>
     <t>XXI-В-28-2-350-1</t>
   </si>
   <si>
@@ -726,6 +723,57 @@
   </si>
   <si>
     <t>Паспорт V-GPI-630-200 Тоник 0,2</t>
+  </si>
+  <si>
+    <t>Аква Мятая 0.5 л.</t>
+  </si>
+  <si>
+    <t>Чертеж АКВА МЯТАЯ</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-30-1-500-4</t>
+  </si>
+  <si>
+    <t>Ф-т тестовый АКВА МЯТАЯ</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Фляга 0.5 л.</t>
+  </si>
+  <si>
+    <t>XIII-В-28-2-200-3 (Фляга 0.2 л.)</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2-500-1 (Штофф Колоски 0.5 л.)</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-7 (Климовичи Каласы 0.5 л.)</t>
+  </si>
+  <si>
+    <t>Банка I-82-500 ГОСТ</t>
+  </si>
+  <si>
+    <t>Банка I-82-500 JPG</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Каласы 0.5</t>
+  </si>
+  <si>
+    <t>ТАБЕЛЬ Участок ремонта форм</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2.1-500-16</t>
+  </si>
+  <si>
+    <t>Сябры 0.5 л.</t>
+  </si>
+  <si>
+    <t>Паспорт Сябры  0,5 л</t>
+  </si>
+  <si>
+    <t>Сябры</t>
+  </si>
+  <si>
+    <t>Ф-т ХХI-В-28-2.1-500-16 Сябры</t>
   </si>
 </sst>
 </file>
@@ -735,8 +783,8 @@
   <numFmts count="4">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;&quot;;&quot;&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1106,11 +1154,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1623,7 +1671,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;&quot;;&quot;&quot;"/>
+      <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2159,7 +2207,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;&quot;;&quot;&quot;"/>
+      <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2368,7 +2416,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2425,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="21756417" cy="93385"/>
+          <a:ext cx="22236477" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2387,7 +2435,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2441,7 +2489,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2513,7 +2561,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2580,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2586,7 +2634,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2639,8 +2687,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L35" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L39" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L39"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
     <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
@@ -2910,13 +2958,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2931,7 +2979,7 @@
     <col min="8" max="8" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
     <col min="14" max="14" width="1.6640625" customWidth="1"/>
@@ -2959,11 +3007,11 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3"/>
@@ -2982,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>8</v>
@@ -3009,25 +3057,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="I5" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
@@ -3039,55 +3087,57 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="I6" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" s="23"/>
+        <v>177</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>236</v>
+      </c>
       <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C33" si="0">C6+1</f>
+        <f t="shared" ref="C7:C35" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="I7" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
@@ -3099,23 +3149,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>235</v>
+      </c>
       <c r="J8" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3127,13 +3179,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
@@ -3149,22 +3201,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="G10" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
@@ -3177,13 +3229,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
@@ -3199,13 +3251,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
@@ -3221,22 +3273,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
@@ -3256,10 +3308,10 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -3275,24 +3327,24 @@
         <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>218</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>219</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="50"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
@@ -3301,25 +3353,25 @@
         <v>12</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="J16" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
@@ -3331,25 +3383,25 @@
         <v>13</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="F17" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="I17" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
@@ -3367,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -3379,7 +3431,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -3391,25 +3443,25 @@
         <v>15</v>
       </c>
       <c r="D19" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>115</v>
-      </c>
       <c r="J19" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -3421,25 +3473,25 @@
         <v>16</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="J20" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
@@ -3451,22 +3503,22 @@
         <v>17</v>
       </c>
       <c r="D21" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="F21" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>134</v>
-      </c>
       <c r="I21" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="38"/>
@@ -3479,25 +3531,25 @@
         <v>18</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="I22" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="23"/>
@@ -3509,22 +3561,22 @@
         <v>19</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>149</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
@@ -3537,22 +3589,22 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>154</v>
-      </c>
       <c r="I24" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
@@ -3565,23 +3617,27 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="33" t="s">
+      <c r="H25" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="22" t="s">
+        <v>241</v>
+      </c>
       <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="49" t="s">
+        <v>238</v>
+      </c>
       <c r="L25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3591,23 +3647,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>164</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>165</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>166</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>167</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3617,19 +3673,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>175</v>
-      </c>
       <c r="F27" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
@@ -3643,22 +3699,22 @@
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="F28" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" s="33" t="s">
+      <c r="H28" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
@@ -3671,19 +3727,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="F29" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="33" t="s">
+      <c r="H29" s="31" t="s">
         <v>196</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>197</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="31"/>
@@ -3697,22 +3753,22 @@
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>200</v>
-      </c>
       <c r="H30" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -3725,23 +3781,25 @@
         <v>27</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="F31" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>203</v>
-      </c>
       <c r="H31" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
+      <c r="K31" s="49" t="s">
+        <v>237</v>
+      </c>
       <c r="L31" s="49"/>
     </row>
     <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3751,18 +3809,18 @@
         <v>28</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>208</v>
-      </c>
       <c r="F32" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="31"/>
       <c r="I32" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -3775,17 +3833,17 @@
         <v>29</v>
       </c>
       <c r="D33" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>229</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>230</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="31" t="s">
         <v>227</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>228</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="31"/>
@@ -3794,38 +3852,114 @@
     </row>
     <row r="34" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="28"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+      <c r="C34" s="17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>231</v>
+      </c>
       <c r="F34" s="41"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="31"/>
+      <c r="G34" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>234</v>
+      </c>
       <c r="I34" s="37"/>
       <c r="J34" s="31"/>
       <c r="K34" s="32"/>
       <c r="L34" s="49"/>
     </row>
     <row r="35" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="17">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>247</v>
+      </c>
       <c r="I35" s="37"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="25"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="49"/>
+    </row>
+    <row r="36" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="28"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="49"/>
+    </row>
+    <row r="37" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B37" s="28"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="49"/>
+    </row>
+    <row r="38" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="28"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="49"/>
+    </row>
+    <row r="39" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L35">
+  <conditionalFormatting sqref="C5:L39">
     <cfRule type="expression" dxfId="32" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
@@ -3833,12 +3967,12 @@
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
+  <conditionalFormatting sqref="M39">
     <cfRule type="expression" dxfId="30" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="93">
-      <formula>$M35="да"</formula>
+      <formula>$M39="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -3961,20 +4095,30 @@
     <hyperlink ref="H14" r:id="rId100"/>
     <hyperlink ref="F15" r:id="rId101"/>
     <hyperlink ref="I30" r:id="rId102"/>
-    <hyperlink ref="F35" r:id="rId103"/>
+    <hyperlink ref="F39" r:id="rId103"/>
     <hyperlink ref="G33" r:id="rId104"/>
     <hyperlink ref="H33" r:id="rId105"/>
     <hyperlink ref="F29" r:id="rId106"/>
+    <hyperlink ref="G34" r:id="rId107"/>
+    <hyperlink ref="H34" r:id="rId108"/>
+    <hyperlink ref="I8" r:id="rId109"/>
+    <hyperlink ref="K6" r:id="rId110"/>
+    <hyperlink ref="K31" r:id="rId111"/>
+    <hyperlink ref="K25" r:id="rId112"/>
+    <hyperlink ref="I25" r:id="rId113"/>
+    <hyperlink ref="F35" r:id="rId114"/>
+    <hyperlink ref="G35" r:id="rId115"/>
+    <hyperlink ref="H35" r:id="rId116"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId107"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId117"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId108"/>
+  <drawing r:id="rId118"/>
   <tableParts count="1">
-    <tablePart r:id="rId109"/>
+    <tablePart r:id="rId119"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3996,7 +4140,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B35</xm:sqref>
+          <xm:sqref>B5:B39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4016,7 +4160,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4056,11 +4200,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -4106,15 +4250,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -4128,15 +4272,15 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
@@ -4150,19 +4294,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -4176,19 +4320,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -4202,15 +4346,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -4224,25 +4372,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
@@ -4254,25 +4402,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="I11" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
@@ -4455,16 +4603,18 @@
     <hyperlink ref="G8" r:id="rId17"/>
     <hyperlink ref="F7" r:id="rId18"/>
     <hyperlink ref="F8" r:id="rId19"/>
+    <hyperlink ref="F9" r:id="rId20"/>
+    <hyperlink ref="G9" r:id="rId21"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId22"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4499,8 +4649,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4510,15 +4660,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>20</v>
@@ -4526,84 +4676,84 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4651,7 +4801,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -18,19 +18,19 @@
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="valHighlight" localSheetId="1">IFERROR(IF(Изделия.Банки!$H$1="да", TRUE, FALSE),FALSE)</definedName>
+    <definedName name="valHighlight" localSheetId="1">IFERROR(IF(Изделия.Банки!$F$1="да", TRUE, FALSE),FALSE)</definedName>
     <definedName name="valHighlight">IFERROR(IF(Изделия.Бутылки!$F$1="да", TRUE, FALSE),FALSE)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Изделия.Банки!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Изделия.Бутылки!$1:$4</definedName>
     <definedName name="ЗаголовокСтолбца1" localSheetId="1">ИнвентарнаяВедомость4[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
     <definedName name="ЗаголовокСтолбца1">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="266">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -92,9 +92,6 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Расчет капель по машинам (УРФ) 2019</t>
-  </si>
-  <si>
     <t>XXI-В-28-2-350-1</t>
   </si>
   <si>
@@ -774,6 +771,63 @@
   </si>
   <si>
     <t>Ф-т ХХI-В-28-2.1-500-16 Сябры</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2-450-19</t>
+  </si>
+  <si>
+    <t>Калина 0.45 л.</t>
+  </si>
+  <si>
+    <t>Чертеж ХХI-В-28-2-450-19 (Калина 0.45)</t>
+  </si>
+  <si>
+    <t>Чертежи деталей ф-та Калина 0.45</t>
+  </si>
+  <si>
+    <t>Паспорт Калина 0.45 от 09.01.2020</t>
+  </si>
+  <si>
+    <t>III-4-66-1-300-1</t>
+  </si>
+  <si>
+    <t>Банка 0.3 л.</t>
+  </si>
+  <si>
+    <t>Паспорт Банка 0,3 л.</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Банка 0,3 л.</t>
+  </si>
+  <si>
+    <t>Чертеж Банка III-4-66-1-300-1</t>
+  </si>
+  <si>
+    <t>Ф-т Контрольный</t>
+  </si>
+  <si>
+    <t>Расчет капель по машинам (УРФ) 2020</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-26-2-700-17</t>
+  </si>
+  <si>
+    <t>Экстра New</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-26-2-1000-18</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-26-2-700-17 Экстра New</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-26-2-1000-18 Экстра New</t>
+  </si>
+  <si>
+    <t>Бульбашь 0,7л</t>
+  </si>
+  <si>
+    <t>Бульбашь 1л</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1228,112 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1401,51 +1560,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="11" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1518,6 +1632,47 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="11" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1741,27 +1896,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2277,48 +2411,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -2380,9 +2472,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2416,7 +2508,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2517,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="22236477" cy="93385"/>
+          <a:ext cx="22617477" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2435,7 +2527,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2489,7 +2581,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2561,7 +2653,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2672,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2634,7 +2726,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2687,41 +2779,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L39" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L43"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="34" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="33" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="32" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="31" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="30" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="29" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="28" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="27" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="25" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="7" name="Паспорт" dataDxfId="5" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="21" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="20" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="19" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="18" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="15" name="Паспорт" dataDxfId="17" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="16" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="15" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="14" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="13" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="12" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="11" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="10" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2958,13 +3050,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2972,9 +3064,9 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.5546875" bestFit="1" customWidth="1"/>
@@ -3008,7 +3100,7 @@
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -3030,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>8</v>
@@ -3057,25 +3149,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>128</v>
-      </c>
       <c r="I5" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
@@ -3087,57 +3179,57 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>97</v>
-      </c>
       <c r="I6" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C35" si="0">C6+1</f>
+        <f t="shared" ref="C7:C38" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>49</v>
-      </c>
       <c r="G7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="I7" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
@@ -3149,25 +3241,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="I8" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3179,13 +3271,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
@@ -3201,22 +3293,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>57</v>
-      </c>
       <c r="G10" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
@@ -3229,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
@@ -3251,13 +3343,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
@@ -3273,22 +3365,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
@@ -3308,10 +3400,10 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -3327,19 +3419,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>217</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>218</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -3353,25 +3445,25 @@
         <v>12</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="J16" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
@@ -3383,25 +3475,25 @@
         <v>13</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="F17" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="I17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
@@ -3419,10 +3511,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -3431,7 +3523,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -3443,25 +3535,25 @@
         <v>15</v>
       </c>
       <c r="D19" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>114</v>
-      </c>
       <c r="J19" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -3473,25 +3565,25 @@
         <v>16</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="J20" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
@@ -3503,22 +3595,22 @@
         <v>17</v>
       </c>
       <c r="D21" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="F21" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>133</v>
-      </c>
       <c r="I21" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="38"/>
@@ -3531,25 +3623,25 @@
         <v>18</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>144</v>
-      </c>
       <c r="I22" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>157</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="23"/>
@@ -3561,22 +3653,22 @@
         <v>19</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>148</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
@@ -3589,22 +3681,22 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>153</v>
-      </c>
       <c r="I24" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
@@ -3617,26 +3709,26 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="33" t="s">
+      <c r="H25" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>162</v>
-      </c>
       <c r="I25" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L25" s="49"/>
     </row>
@@ -3647,23 +3739,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>163</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>164</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>166</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3673,19 +3765,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>174</v>
-      </c>
       <c r="F27" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
@@ -3699,22 +3791,22 @@
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="F28" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="33" t="s">
+      <c r="H28" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
@@ -3727,19 +3819,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="F29" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="33" t="s">
+      <c r="H29" s="31" t="s">
         <v>195</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>196</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="31"/>
@@ -3753,22 +3845,22 @@
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>199</v>
-      </c>
       <c r="H30" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -3781,24 +3873,24 @@
         <v>27</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="F31" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>202</v>
-      </c>
       <c r="H31" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="31"/>
       <c r="K31" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L31" s="49"/>
     </row>
@@ -3809,18 +3901,18 @@
         <v>28</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>207</v>
-      </c>
       <c r="F32" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="31"/>
       <c r="I32" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -3833,17 +3925,17 @@
         <v>29</v>
       </c>
       <c r="D33" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>229</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="31" t="s">
         <v>226</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>227</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="31"/>
@@ -3857,17 +3949,17 @@
         <v>30</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="31"/>
@@ -3881,19 +3973,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="31" t="s">
         <v>246</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>247</v>
       </c>
       <c r="I35" s="37"/>
       <c r="J35" s="31"/>
@@ -3902,12 +3994,25 @@
     </row>
     <row r="36" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="28"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="31"/>
+      <c r="C36" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>250</v>
+      </c>
       <c r="I36" s="37"/>
       <c r="J36" s="31"/>
       <c r="K36" s="32"/>
@@ -3915,12 +4020,23 @@
     </row>
     <row r="37" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>260</v>
+      </c>
       <c r="F37" s="41"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="31"/>
+      <c r="G37" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>264</v>
+      </c>
       <c r="I37" s="37"/>
       <c r="J37" s="31"/>
       <c r="K37" s="32"/>
@@ -3928,51 +4044,114 @@
     </row>
     <row r="38" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="C38" s="17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>260</v>
+      </c>
       <c r="F38" s="41"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="31"/>
+      <c r="G38" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>265</v>
+      </c>
       <c r="I38" s="37"/>
       <c r="J38" s="31"/>
       <c r="K38" s="32"/>
       <c r="L38" s="49"/>
     </row>
     <row r="39" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="25"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="49"/>
+    </row>
+    <row r="40" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B40" s="28"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="49"/>
+    </row>
+    <row r="41" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B41" s="28"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="49"/>
+    </row>
+    <row r="42" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B42" s="28"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="49"/>
+    </row>
+    <row r="43" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L39">
-    <cfRule type="expression" dxfId="32" priority="83">
+  <conditionalFormatting sqref="C5:L43">
+    <cfRule type="expression" dxfId="7" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="84">
+    <cfRule type="expression" dxfId="6" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M39">
-    <cfRule type="expression" dxfId="30" priority="92">
+  <conditionalFormatting sqref="M43">
+    <cfRule type="expression" dxfId="5" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="93">
-      <formula>$M39="да"</formula>
+    <cfRule type="expression" dxfId="4" priority="93">
+      <formula>$M43="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -4095,7 +4274,7 @@
     <hyperlink ref="H14" r:id="rId100"/>
     <hyperlink ref="F15" r:id="rId101"/>
     <hyperlink ref="I30" r:id="rId102"/>
-    <hyperlink ref="F39" r:id="rId103"/>
+    <hyperlink ref="F43" r:id="rId103"/>
     <hyperlink ref="G33" r:id="rId104"/>
     <hyperlink ref="H33" r:id="rId105"/>
     <hyperlink ref="F29" r:id="rId106"/>
@@ -4109,16 +4288,23 @@
     <hyperlink ref="F35" r:id="rId114"/>
     <hyperlink ref="G35" r:id="rId115"/>
     <hyperlink ref="H35" r:id="rId116"/>
+    <hyperlink ref="G36" r:id="rId117"/>
+    <hyperlink ref="H36" r:id="rId118"/>
+    <hyperlink ref="F36" r:id="rId119"/>
+    <hyperlink ref="G37" r:id="rId120"/>
+    <hyperlink ref="G38" r:id="rId121"/>
+    <hyperlink ref="H37" r:id="rId122"/>
+    <hyperlink ref="H38" r:id="rId123"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId117"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId124"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId118"/>
+  <drawing r:id="rId125"/>
   <tableParts count="1">
-    <tablePart r:id="rId119"/>
+    <tablePart r:id="rId126"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4140,7 +4326,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B39</xm:sqref>
+          <xm:sqref>B5:B43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4160,7 +4346,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4170,9 +4356,9 @@
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
@@ -4189,9 +4375,9 @@
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="7"/>
@@ -4201,7 +4387,7 @@
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -4220,13 +4406,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>7</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>8</v>
@@ -4250,16 +4436,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="26" t="s">
-        <v>28</v>
-      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
@@ -4272,16 +4458,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="26" t="s">
-        <v>28</v>
-      </c>
+      <c r="F6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
@@ -4294,19 +4480,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>35</v>
+      <c r="G7" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -4320,19 +4506,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -4346,19 +4532,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -4372,25 +4558,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="G10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="H10" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>42</v>
-      </c>
       <c r="I10" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
@@ -4402,25 +4588,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>68</v>
-      </c>
       <c r="I11" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
@@ -4431,12 +4617,24 @@
       <c r="C12" s="17">
         <v>8</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="D12" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>255</v>
+      </c>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
@@ -4450,8 +4648,8 @@
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
@@ -4466,8 +4664,8 @@
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
       <c r="K14" s="23"/>
@@ -4482,8 +4680,8 @@
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
       <c r="K15" s="23"/>
@@ -4498,8 +4696,8 @@
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
       <c r="K16" s="23"/>
@@ -4514,8 +4712,8 @@
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
       <c r="K17" s="23"/>
@@ -4529,9 +4727,9 @@
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="24"/>
@@ -4543,9 +4741,9 @@
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="24"/>
@@ -4558,10 +4756,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="2" priority="95">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4570,51 +4768,55 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="H4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="F1:G1"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="H1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H9" r:id="rId5"/>
-    <hyperlink ref="H10" r:id="rId6"/>
-    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
     <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="F11" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
     <hyperlink ref="J11" r:id="rId11"/>
     <hyperlink ref="I10" r:id="rId12"/>
-    <hyperlink ref="F10" r:id="rId13"/>
-    <hyperlink ref="G10" r:id="rId14"/>
+    <hyperlink ref="G10" r:id="rId13"/>
+    <hyperlink ref="H10" r:id="rId14"/>
     <hyperlink ref="J10" r:id="rId15"/>
-    <hyperlink ref="G7" r:id="rId16"/>
-    <hyperlink ref="G8" r:id="rId17"/>
-    <hyperlink ref="F7" r:id="rId18"/>
-    <hyperlink ref="F8" r:id="rId19"/>
-    <hyperlink ref="F9" r:id="rId20"/>
-    <hyperlink ref="G9" r:id="rId21"/>
+    <hyperlink ref="H7" r:id="rId16"/>
+    <hyperlink ref="H8" r:id="rId17"/>
+    <hyperlink ref="G7" r:id="rId18"/>
+    <hyperlink ref="G8" r:id="rId19"/>
+    <hyperlink ref="G9" r:id="rId20"/>
+    <hyperlink ref="H9" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22"/>
+    <hyperlink ref="I12" r:id="rId23"/>
+    <hyperlink ref="G12" r:id="rId24"/>
+    <hyperlink ref="H12" r:id="rId25"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId26"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4650,7 +4852,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4660,100 +4862,100 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4801,7 +5003,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="270">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Детали ф-та Иван Купала 0,5 л.</t>
   </si>
   <si>
-    <t>Отчет о подготовкеКалина 0,35 л.</t>
-  </si>
-  <si>
     <t>XXI-В-28-2-500-28</t>
   </si>
   <si>
@@ -828,6 +825,21 @@
   </si>
   <si>
     <t>Бульбашь 1л</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Калина 0,35 л.</t>
+  </si>
+  <si>
+    <t>Франкония 0.5 л</t>
+  </si>
+  <si>
+    <t>Франкония 0.75</t>
+  </si>
+  <si>
+    <t>Ф-т Frankonia 500мл СС_</t>
+  </si>
+  <si>
+    <t>0,75 MCA</t>
   </si>
 </sst>
 </file>
@@ -1228,112 +1240,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1896,6 +1803,27 @@
     </dxf>
     <dxf>
       <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2411,6 +2339,48 @@
     </dxf>
     <dxf>
       <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -2472,9 +2442,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
-      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2508,7 +2478,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2497,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2581,7 +2551,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2653,7 +2623,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2642,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2726,7 +2696,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2779,41 +2749,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:L43"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="34" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="33" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="32" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="31" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="30" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="29" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="28" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="27" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="25" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="21" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="20" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="19" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="18" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="15" name="Паспорт" dataDxfId="17" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="16" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="15" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="14" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="13" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="12" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="11" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="10" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="15" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="6" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3053,10 +3023,10 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3122,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
@@ -3158,16 +3128,16 @@
         <v>22</v>
       </c>
       <c r="G5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="I5" s="22" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
@@ -3197,10 +3167,10 @@
         <v>94</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6" s="24"/>
     </row>
@@ -3250,16 +3220,16 @@
         <v>50</v>
       </c>
       <c r="G8" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>171</v>
-      </c>
       <c r="I8" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3302,13 +3272,13 @@
         <v>56</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
@@ -3329,8 +3299,12 @@
       <c r="F11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>268</v>
+      </c>
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
@@ -3351,8 +3325,12 @@
       <c r="F12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>269</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
@@ -3400,10 +3378,10 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -3419,19 +3397,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>216</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>217</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -3511,10 +3489,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -3565,25 +3543,25 @@
         <v>16</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>121</v>
-      </c>
       <c r="J20" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
@@ -3595,22 +3573,22 @@
         <v>17</v>
       </c>
       <c r="D21" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="F21" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="I21" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="38"/>
@@ -3623,25 +3601,25 @@
         <v>18</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="I22" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="23"/>
@@ -3653,22 +3631,22 @@
         <v>19</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>147</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
@@ -3681,22 +3659,22 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>152</v>
-      </c>
       <c r="I24" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
@@ -3709,26 +3687,26 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="33" t="s">
+      <c r="H25" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>161</v>
-      </c>
       <c r="I25" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L25" s="49"/>
     </row>
@@ -3739,23 +3717,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>162</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>163</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>164</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>165</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3765,19 +3743,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="F27" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
@@ -3791,22 +3769,22 @@
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="F28" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="33" t="s">
+      <c r="H28" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>190</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
@@ -3819,19 +3797,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="F29" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="33" t="s">
+      <c r="H29" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>195</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="31"/>
@@ -3845,22 +3823,22 @@
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>198</v>
-      </c>
       <c r="H30" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -3873,24 +3851,24 @@
         <v>27</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="F31" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>201</v>
-      </c>
       <c r="H31" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="31"/>
       <c r="K31" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L31" s="49"/>
     </row>
@@ -3901,18 +3879,18 @@
         <v>28</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>206</v>
-      </c>
       <c r="F32" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="31"/>
       <c r="I32" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -3925,17 +3903,17 @@
         <v>29</v>
       </c>
       <c r="D33" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>227</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>228</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="31" t="s">
         <v>225</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>226</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="31"/>
@@ -3949,17 +3927,17 @@
         <v>30</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="31"/>
@@ -3973,19 +3951,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="31" t="s">
         <v>245</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>246</v>
       </c>
       <c r="I35" s="37"/>
       <c r="J35" s="31"/>
@@ -3999,19 +3977,19 @@
         <v>32</v>
       </c>
       <c r="D36" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="F36" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="33" t="s">
+      <c r="H36" s="31" t="s">
         <v>249</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>250</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="31"/>
@@ -4025,17 +4003,17 @@
         <v>33</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>259</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>260</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="31"/>
@@ -4049,17 +4027,17 @@
         <v>34</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="31"/>
@@ -4124,7 +4102,7 @@
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
       <c r="F43" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G43" s="46"/>
       <c r="H43" s="47"/>
@@ -4139,18 +4117,18 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:L43">
-    <cfRule type="expression" dxfId="7" priority="83">
+    <cfRule type="expression" dxfId="32" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="84">
+    <cfRule type="expression" dxfId="31" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43">
-    <cfRule type="expression" dxfId="5" priority="92">
+    <cfRule type="expression" dxfId="30" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="93">
+    <cfRule type="expression" dxfId="29" priority="93">
       <formula>$M43="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4295,16 +4273,20 @@
     <hyperlink ref="G38" r:id="rId121"/>
     <hyperlink ref="H37" r:id="rId122"/>
     <hyperlink ref="H38" r:id="rId123"/>
+    <hyperlink ref="G11" r:id="rId124"/>
+    <hyperlink ref="G12" r:id="rId125"/>
+    <hyperlink ref="H11" r:id="rId126"/>
+    <hyperlink ref="H12" r:id="rId127"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId124"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId128"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId125"/>
+  <drawing r:id="rId129"/>
   <tableParts count="1">
-    <tablePart r:id="rId126"/>
+    <tablePart r:id="rId130"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4346,7 +4328,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4489,10 +4471,10 @@
         <v>34</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -4515,10 +4497,10 @@
         <v>34</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -4541,10 +4523,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -4618,22 +4600,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
@@ -4756,10 +4738,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="15" priority="94">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="14" priority="95">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4873,7 +4855,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4891,7 +4873,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4899,7 +4881,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4920,12 +4902,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4935,27 +4917,27 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5003,7 +4985,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="284">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Паспорт Банка 1,5 л.xlsx</t>
   </si>
   <si>
-    <t>Отчет по выпуску продукции на формокомплектах.2019 год</t>
-  </si>
-  <si>
     <t>Таблица выработки ф-тов.2019</t>
   </si>
   <si>
@@ -840,6 +837,51 @@
   </si>
   <si>
     <t>0,75 MCA</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-24-1-500-16</t>
+  </si>
+  <si>
+    <t>Бульбаш Экстра Нью</t>
+  </si>
+  <si>
+    <t>Паспорт Бульбаш 0.5 от 23.01.2020</t>
+  </si>
+  <si>
+    <t>Ф-т ХХI-КПМ-24-1-500-16(Экстра new)</t>
+  </si>
+  <si>
+    <t>БК-СХ-60-200-19067-Л1</t>
+  </si>
+  <si>
+    <t>БК-СХ-60-200-19068-Л2</t>
+  </si>
+  <si>
+    <t>БК-СХ-60-200-19069-Л3</t>
+  </si>
+  <si>
+    <t>Лампада-1</t>
+  </si>
+  <si>
+    <t>Лампада-2</t>
+  </si>
+  <si>
+    <t>Лампада-3</t>
+  </si>
+  <si>
+    <t>Лампада 1</t>
+  </si>
+  <si>
+    <t>Лампада 2</t>
+  </si>
+  <si>
+    <t>Лампада 3</t>
+  </si>
+  <si>
+    <t>V-GPI-630-200 Тоник</t>
+  </si>
+  <si>
+    <t>Отчет по выпуску продукции на формокомплектах 2020 год</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2529,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="22617477" cy="93385"/>
+          <a:ext cx="22823217" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2632,7 +2674,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="626705"/>
-          <a:ext cx="20941077" cy="93385"/>
+          <a:ext cx="21093477" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -3022,11 +3064,11 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3035,7 +3077,7 @@
     <col min="2" max="2" width="3.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -3092,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>8</v>
@@ -3128,16 +3170,16 @@
         <v>22</v>
       </c>
       <c r="G5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="I5" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
@@ -3149,28 +3191,28 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="I6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L6" s="24"/>
     </row>
@@ -3181,25 +3223,25 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>48</v>
-      </c>
       <c r="G7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>88</v>
-      </c>
       <c r="I7" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
@@ -3211,25 +3253,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>50</v>
-      </c>
       <c r="G8" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="I8" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -3241,13 +3283,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
@@ -3263,22 +3305,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="G10" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
@@ -3291,19 +3333,19 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
@@ -3317,19 +3359,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>61</v>
-      </c>
       <c r="G12" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
@@ -3343,22 +3385,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
@@ -3378,10 +3420,10 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -3397,19 +3439,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>215</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>216</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -3423,25 +3465,25 @@
         <v>12</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>84</v>
-      </c>
       <c r="J16" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
@@ -3453,25 +3495,25 @@
         <v>13</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="F17" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="I17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>108</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
@@ -3489,10 +3531,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -3501,7 +3543,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -3513,25 +3555,25 @@
         <v>15</v>
       </c>
       <c r="D19" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="J19" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
@@ -3543,25 +3585,25 @@
         <v>16</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="J20" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
@@ -3573,22 +3615,22 @@
         <v>17</v>
       </c>
       <c r="D21" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="F21" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="I21" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="38"/>
@@ -3601,25 +3643,25 @@
         <v>18</v>
       </c>
       <c r="D22" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>142</v>
-      </c>
       <c r="I22" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="23"/>
@@ -3631,22 +3673,22 @@
         <v>19</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>146</v>
-      </c>
       <c r="I23" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
@@ -3659,22 +3701,22 @@
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>151</v>
-      </c>
       <c r="I24" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="32"/>
@@ -3687,26 +3729,26 @@
         <v>21</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="33" t="s">
+      <c r="H25" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>160</v>
-      </c>
       <c r="I25" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L25" s="49"/>
     </row>
@@ -3717,23 +3759,23 @@
         <v>22</v>
       </c>
       <c r="D26" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>161</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>162</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>163</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>164</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -3743,19 +3785,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>172</v>
-      </c>
       <c r="F27" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="31"/>
@@ -3769,22 +3811,22 @@
         <v>24</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="F28" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="33" t="s">
+      <c r="H28" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="32"/>
@@ -3797,21 +3839,23 @@
         <v>25</v>
       </c>
       <c r="D29" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="F29" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="33" t="s">
+      <c r="H29" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="37"/>
+      <c r="I29" s="22" t="s">
+        <v>282</v>
+      </c>
       <c r="J29" s="31"/>
       <c r="K29" s="32"/>
       <c r="L29" s="49"/>
@@ -3823,22 +3867,22 @@
         <v>26</v>
       </c>
       <c r="D30" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>197</v>
-      </c>
       <c r="H30" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -3851,24 +3895,24 @@
         <v>27</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="F31" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>200</v>
-      </c>
       <c r="H31" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="31"/>
       <c r="K31" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L31" s="49"/>
     </row>
@@ -3879,18 +3923,18 @@
         <v>28</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>205</v>
-      </c>
       <c r="F32" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="31"/>
       <c r="I32" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="32"/>
@@ -3903,17 +3947,17 @@
         <v>29</v>
       </c>
       <c r="D33" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="31" t="s">
         <v>224</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>225</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="31"/>
@@ -3927,17 +3971,17 @@
         <v>30</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="31"/>
@@ -3951,19 +3995,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="31" t="s">
         <v>244</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>245</v>
       </c>
       <c r="I35" s="37"/>
       <c r="J35" s="31"/>
@@ -3977,19 +4021,19 @@
         <v>32</v>
       </c>
       <c r="D36" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="F36" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" s="33" t="s">
+      <c r="H36" s="31" t="s">
         <v>248</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>249</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="31"/>
@@ -4003,17 +4047,17 @@
         <v>33</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>258</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>259</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="31"/>
@@ -4027,17 +4071,17 @@
         <v>34</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="31"/>
@@ -4047,11 +4091,19 @@
     <row r="39" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="28"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="41"/>
+      <c r="D39" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>271</v>
+      </c>
       <c r="G39" s="33"/>
-      <c r="H39" s="31"/>
+      <c r="H39" s="31" t="s">
+        <v>272</v>
+      </c>
       <c r="I39" s="37"/>
       <c r="J39" s="31"/>
       <c r="K39" s="32"/>
@@ -4102,7 +4154,7 @@
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
       <c r="F43" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G43" s="46"/>
       <c r="H43" s="47"/>
@@ -4277,16 +4329,19 @@
     <hyperlink ref="G12" r:id="rId125"/>
     <hyperlink ref="H11" r:id="rId126"/>
     <hyperlink ref="H12" r:id="rId127"/>
+    <hyperlink ref="F39" r:id="rId128"/>
+    <hyperlink ref="H39" r:id="rId129"/>
+    <hyperlink ref="I29" r:id="rId130"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId128"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId131"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId129"/>
+  <drawing r:id="rId132"/>
   <tableParts count="1">
-    <tablePart r:id="rId130"/>
+    <tablePart r:id="rId133"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4328,7 +4383,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4336,7 +4391,7 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -4440,10 +4495,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>27</v>
@@ -4462,19 +4517,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>34</v>
-      </c>
       <c r="G7" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -4488,19 +4543,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -4514,19 +4569,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>39</v>
-      </c>
       <c r="G9" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -4540,25 +4595,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="G10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>80</v>
-      </c>
       <c r="I10" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
@@ -4570,25 +4625,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="I11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
@@ -4600,22 +4655,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
@@ -4627,11 +4682,19 @@
       <c r="C13" s="17">
         <v>9</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>276</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="G13" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>279</v>
+      </c>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
@@ -4643,11 +4706,19 @@
       <c r="C14" s="17">
         <v>10</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>277</v>
+      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="G14" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>280</v>
+      </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
       <c r="K14" s="23"/>
@@ -4659,11 +4730,19 @@
       <c r="C15" s="17">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>278</v>
+      </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
       <c r="K15" s="23"/>
@@ -4789,16 +4868,22 @@
     <hyperlink ref="I12" r:id="rId23"/>
     <hyperlink ref="G12" r:id="rId24"/>
     <hyperlink ref="H12" r:id="rId25"/>
+    <hyperlink ref="G13" r:id="rId26"/>
+    <hyperlink ref="G14" r:id="rId27"/>
+    <hyperlink ref="G15" r:id="rId28"/>
+    <hyperlink ref="H13" r:id="rId29"/>
+    <hyperlink ref="H14" r:id="rId30"/>
+    <hyperlink ref="H15" r:id="rId31"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId32"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId27"/>
+  <drawing r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4833,8 +4918,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4844,100 +4929,100 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +5070,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="285">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>Отчет по выпуску продукции на формокомплектах 2020 год</t>
+  </si>
+  <si>
+    <t>ПЕРЕЧЕНЬ СРЕДСТВ ИЗМЕРЕНИЙ</t>
   </si>
 </sst>
 </file>
@@ -3068,7 +3071,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4380,10 +4383,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4916,10 +4919,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5023,6 +5026,11 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5047,6 +5055,7 @@
     <hyperlink ref="A18" r:id="rId18"/>
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="B15" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="290">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -885,6 +885,21 @@
   </si>
   <si>
     <t>ПЕРЕЧЕНЬ СРЕДСТВ ИЗМЕРЕНИЙ</t>
+  </si>
+  <si>
+    <t>Лампада_1_2_3</t>
+  </si>
+  <si>
+    <t>XXI-В-30-4б-500-14</t>
+  </si>
+  <si>
+    <t>Батькова</t>
+  </si>
+  <si>
+    <t>Паспорт Батькова</t>
+  </si>
+  <si>
+    <t>Чертежи ф-а ХХI-В-30-4Б-500-14</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2538,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2557,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2596,7 +2611,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2668,7 +2683,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2702,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2741,7 +2756,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3068,10 +3083,10 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3222,7 +3237,7 @@
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C38" si="0">C6+1</f>
+        <f t="shared" ref="C7:C40" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -4093,7 +4108,10 @@
     </row>
     <row r="39" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="28"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="D39" s="29" t="s">
         <v>269</v>
       </c>
@@ -4114,12 +4132,25 @@
     </row>
     <row r="40" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="31"/>
+      <c r="C40" s="17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>289</v>
+      </c>
       <c r="I40" s="37"/>
       <c r="J40" s="31"/>
       <c r="K40" s="32"/>
@@ -4335,16 +4366,19 @@
     <hyperlink ref="F39" r:id="rId128"/>
     <hyperlink ref="H39" r:id="rId129"/>
     <hyperlink ref="I29" r:id="rId130"/>
+    <hyperlink ref="F40" r:id="rId131"/>
+    <hyperlink ref="G40" r:id="rId132"/>
+    <hyperlink ref="H40" r:id="rId133"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId131"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId134"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId132"/>
+  <drawing r:id="rId135"/>
   <tableParts count="1">
-    <tablePart r:id="rId133"/>
+    <tablePart r:id="rId136"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4383,10 +4417,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4691,7 +4725,9 @@
       <c r="E13" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="26" t="s">
+        <v>285</v>
+      </c>
       <c r="G13" s="26" t="s">
         <v>273</v>
       </c>
@@ -4715,7 +4751,9 @@
       <c r="E14" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="26" t="s">
+        <v>285</v>
+      </c>
       <c r="G14" s="26" t="s">
         <v>274</v>
       </c>
@@ -4739,7 +4777,9 @@
       <c r="E15" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="26" t="s">
+        <v>285</v>
+      </c>
       <c r="G15" s="26" t="s">
         <v>275</v>
       </c>
@@ -4877,16 +4917,18 @@
     <hyperlink ref="H13" r:id="rId29"/>
     <hyperlink ref="H14" r:id="rId30"/>
     <hyperlink ref="H15" r:id="rId31"/>
+    <hyperlink ref="F13" r:id="rId32"/>
+    <hyperlink ref="F14:F15" r:id="rId33" display="Лампада_1_2_3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId34"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId33"/>
+  <drawing r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4922,7 +4964,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="291">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t>Чертежи ф-а ХХI-В-30-4Б-500-14</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Штофф Земляк 0.5 л.</t>
   </si>
 </sst>
 </file>
@@ -3082,8 +3085,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
@@ -3471,7 +3474,9 @@
       <c r="H15" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="22" t="s">
+        <v>290</v>
+      </c>
       <c r="J15" s="22"/>
       <c r="K15" s="23"/>
       <c r="L15" s="51"/>
@@ -4369,16 +4374,17 @@
     <hyperlink ref="F40" r:id="rId131"/>
     <hyperlink ref="G40" r:id="rId132"/>
     <hyperlink ref="H40" r:id="rId133"/>
+    <hyperlink ref="I15" r:id="rId134"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId134"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId135"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId135"/>
+  <drawing r:id="rId136"/>
   <tableParts count="1">
-    <tablePart r:id="rId136"/>
+    <tablePart r:id="rId137"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4420,7 +4426,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4963,8 +4969,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="281">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Паспорт Банка 1,5 л.xlsx</t>
   </si>
   <si>
-    <t>Таблица выработки ф-тов.2019</t>
-  </si>
-  <si>
     <t>I-82-1500-1</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Чертежи деталей ф-та Банка 0,45 л.</t>
   </si>
   <si>
-    <t>Детали бутылки Брест Колоски</t>
-  </si>
-  <si>
     <t>Детали для производства Банки 0,45 ТО (82)  л.</t>
   </si>
   <si>
@@ -296,15 +290,9 @@
     <t>Чертежи деталей СВАЯК 0.7 л.</t>
   </si>
   <si>
-    <t>Детали ф-та Кристалл Фирменная 2 0,7 л.</t>
-  </si>
-  <si>
     <t>Детали ф-та АВС 0,160 л.</t>
   </si>
   <si>
-    <t>Детали ф-та Сваяк  0,7 л.</t>
-  </si>
-  <si>
     <t>ЗАЯВЛЕНИЯ</t>
   </si>
   <si>
@@ -353,9 +341,6 @@
     <t>Чертежи деталей Евроторг 0.5 л.</t>
   </si>
   <si>
-    <t>Детали ф-та Евроторг 0.5 л.</t>
-  </si>
-  <si>
     <t>Паспорт Евроторг 0.5 л.</t>
   </si>
   <si>
@@ -380,9 +365,6 @@
     <t>Заявки на изготовление</t>
   </si>
   <si>
-    <t>Детали ф-та Иван Купала 0,5 л.</t>
-  </si>
-  <si>
     <t>XXI-В-28-2-500-28</t>
   </si>
   <si>
@@ -392,9 +374,6 @@
     <t>Отчет о подготовке Калина 0.5 л.</t>
   </si>
   <si>
-    <t>Детали ф-та Калина 0,35 л.docx</t>
-  </si>
-  <si>
     <t>Паспорт Калина 0,5 л.</t>
   </si>
   <si>
@@ -410,9 +389,6 @@
     <t>Чертежи дет. ф-та Калина 0.35 л.</t>
   </si>
   <si>
-    <t>Детали ф-та Калина 0,5 л.docx</t>
-  </si>
-  <si>
     <t>XXI-В-28-2-350</t>
   </si>
   <si>
@@ -494,9 +470,6 @@
     <t>Отчет о подготовке Круглая 0.2 л.</t>
   </si>
   <si>
-    <t>Детали ф-та Круглая 0.2 л.</t>
-  </si>
-  <si>
     <t>ШР Участок ремонта форм</t>
   </si>
   <si>
@@ -554,12 +527,6 @@
     <t>Чертеж Банка III-2-82-1000-3 twist</t>
   </si>
   <si>
-    <t>Детали Фляга 0,2 л.</t>
-  </si>
-  <si>
-    <t>Детали Фляга 0,5 л.</t>
-  </si>
-  <si>
     <t>Чертежи деталей ХI-28-МСА-700(ВАDEN)</t>
   </si>
   <si>
@@ -704,9 +671,6 @@
     <t>ХХI-КПМ-30-1-500-Размова</t>
   </si>
   <si>
-    <t>Ф-т тестовый Размова 0,5.</t>
-  </si>
-  <si>
     <t>ХХI-КПМ-30-1-500</t>
   </si>
   <si>
@@ -903,6 +867,12 @@
   </si>
   <si>
     <t>Отчет о подготовке Штофф Земляк 0.5 л.</t>
+  </si>
+  <si>
+    <t>Ф-т Размова 0,5</t>
+  </si>
+  <si>
+    <t>Таблица выработки ф-тов</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,9 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
@@ -1303,7 +1270,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -1951,36 +1918,6 @@
         <patternFill patternType="solid">
           <fgColor theme="6" tint="0.79961546678060247"/>
           <bgColor theme="4" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2505,9 +2442,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2531,7 +2468,7 @@
       <xdr:rowOff>1865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2549,8 +2486,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="313008" y="626705"/>
-          <a:ext cx="22823217" cy="93385"/>
+          <a:off x="313008" y="630515"/>
+          <a:ext cx="19527567" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2694,8 +2631,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="313008" y="626705"/>
-          <a:ext cx="21093477" cy="93385"/>
+          <a:off x="313008" y="630515"/>
+          <a:ext cx="20641992" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2812,18 +2749,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L43"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:K43" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:K43"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="25" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="22" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="21" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="20" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
     <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
     <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
@@ -3083,1147 +3019,1083 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
+    <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="52" t="s">
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3"/>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="17">
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>120</v>
-      </c>
+      <c r="G5" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="22"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="17">
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="16">
         <f>C5+1</f>
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>93</v>
+      <c r="F6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="17">
+        <v>221</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="16">
         <f t="shared" ref="C7:C40" si="0">C6+1</f>
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="22"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="17">
+    </row>
+    <row r="10" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>207</v>
+      <c r="G10" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="17">
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" s="21"/>
+      <c r="F11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="17">
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" s="21"/>
+      <c r="G12" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="17">
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="G13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="17">
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="48"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="I33" s="36"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="48"/>
+    </row>
+    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="H34" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
-      <c r="C21" s="17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="2:12" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="17">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="17">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="49"/>
-    </row>
-    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="17">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="17">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="49" t="s">
+      <c r="I34" s="36"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="48"/>
+    </row>
+    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="27"/>
+      <c r="C35" s="16">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="48"/>
+    </row>
+    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="49"/>
-    </row>
-    <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="17">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="17">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="49"/>
-    </row>
-    <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="17">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="49"/>
-    </row>
-    <row r="29" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="17">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="49"/>
-    </row>
-    <row r="30" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="17">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="49"/>
-    </row>
-    <row r="31" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="17">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="L31" s="49"/>
-    </row>
-    <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="17">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="49"/>
-    </row>
-    <row r="33" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="C33" s="17">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="49"/>
-    </row>
-    <row r="34" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="C34" s="17">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="49"/>
-    </row>
-    <row r="35" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
-      <c r="C35" s="17">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="49"/>
-    </row>
-    <row r="36" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
-      <c r="C36" s="17">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D36" s="29" t="s">
+      <c r="H36" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="48"/>
+    </row>
+    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="27"/>
+      <c r="C37" s="16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F37" s="40"/>
+      <c r="G37" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I37" s="36"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="48"/>
+    </row>
+    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="27"/>
+      <c r="C38" s="16">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="G36" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="49"/>
-    </row>
-    <row r="37" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
-      <c r="C37" s="17">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D37" s="29" t="s">
+      <c r="H38" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="27"/>
+      <c r="C39" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="33" t="s">
+      <c r="F39" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="H37" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="49"/>
-    </row>
-    <row r="38" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
-      <c r="C38" s="17">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="49"/>
-    </row>
-    <row r="39" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B39" s="28"/>
-      <c r="C39" s="17">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I39" s="37"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="49"/>
-    </row>
-    <row r="40" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B40" s="28"/>
-      <c r="C40" s="17">
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="27"/>
+      <c r="C40" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D40" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="I40" s="37"/>
+      <c r="D40" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I40" s="36"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="49"/>
-    </row>
-    <row r="41" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B41" s="28"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="37"/>
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="27"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="49"/>
-    </row>
-    <row r="42" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="37"/>
+      <c r="K41" s="48"/>
+    </row>
+    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="49"/>
-    </row>
-    <row r="43" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="25"/>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L43">
-    <cfRule type="expression" dxfId="32" priority="83">
+  <conditionalFormatting sqref="C5:K43">
+    <cfRule type="expression" dxfId="31" priority="83">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="84">
+    <cfRule type="expression" dxfId="30" priority="84">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M43">
-    <cfRule type="expression" dxfId="30" priority="92">
+  <conditionalFormatting sqref="L43">
+    <cfRule type="expression" dxfId="29" priority="92">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="93">
-      <formula>$M43="да"</formula>
+    <cfRule type="expression" dxfId="28" priority="93">
+      <formula>$L43="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
@@ -4237,154 +4109,144 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:K4"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1"/>
-    <hyperlink ref="H18" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
-    <hyperlink ref="I18" r:id="rId4"/>
-    <hyperlink ref="K14" r:id="rId5"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="F7" r:id="rId8"/>
-    <hyperlink ref="F8" r:id="rId9"/>
-    <hyperlink ref="F9" r:id="rId10"/>
-    <hyperlink ref="F10" r:id="rId11"/>
-    <hyperlink ref="F12" r:id="rId12"/>
-    <hyperlink ref="F11" r:id="rId13"/>
-    <hyperlink ref="F13" r:id="rId14"/>
-    <hyperlink ref="I13" r:id="rId15"/>
-    <hyperlink ref="G13" r:id="rId16"/>
-    <hyperlink ref="H13" r:id="rId17"/>
-    <hyperlink ref="F16" r:id="rId18"/>
-    <hyperlink ref="I16" r:id="rId19"/>
-    <hyperlink ref="G16" r:id="rId20"/>
-    <hyperlink ref="H16" r:id="rId21"/>
-    <hyperlink ref="G7" r:id="rId22"/>
-    <hyperlink ref="H7" r:id="rId23"/>
-    <hyperlink ref="J16" r:id="rId24"/>
-    <hyperlink ref="I7" r:id="rId25"/>
-    <hyperlink ref="J7" r:id="rId26"/>
-    <hyperlink ref="I6" r:id="rId27"/>
-    <hyperlink ref="G6" r:id="rId28"/>
-    <hyperlink ref="H6" r:id="rId29"/>
-    <hyperlink ref="F17" r:id="rId30"/>
-    <hyperlink ref="I17" r:id="rId31"/>
-    <hyperlink ref="G17" r:id="rId32"/>
-    <hyperlink ref="H17" r:id="rId33"/>
-    <hyperlink ref="J17" r:id="rId34"/>
-    <hyperlink ref="F19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G19" r:id="rId37"/>
-    <hyperlink ref="H19" r:id="rId38"/>
-    <hyperlink ref="J19" r:id="rId39"/>
-    <hyperlink ref="I5" r:id="rId40"/>
-    <hyperlink ref="I20" r:id="rId41"/>
-    <hyperlink ref="J5" r:id="rId42"/>
-    <hyperlink ref="F20" r:id="rId43"/>
-    <hyperlink ref="G20" r:id="rId44"/>
-    <hyperlink ref="H20" r:id="rId45"/>
-    <hyperlink ref="G5" r:id="rId46"/>
-    <hyperlink ref="H5" r:id="rId47"/>
-    <hyperlink ref="J20" r:id="rId48"/>
-    <hyperlink ref="G21" r:id="rId49"/>
-    <hyperlink ref="H21" r:id="rId50"/>
-    <hyperlink ref="F21" r:id="rId51"/>
-    <hyperlink ref="G22" r:id="rId52"/>
-    <hyperlink ref="H22" r:id="rId53"/>
-    <hyperlink ref="G23" r:id="rId54"/>
-    <hyperlink ref="H23" r:id="rId55"/>
-    <hyperlink ref="G18" r:id="rId56"/>
-    <hyperlink ref="I21" r:id="rId57"/>
-    <hyperlink ref="G24" r:id="rId58"/>
-    <hyperlink ref="H24" r:id="rId59"/>
-    <hyperlink ref="I23" r:id="rId60"/>
-    <hyperlink ref="I22" r:id="rId61"/>
-    <hyperlink ref="J22" r:id="rId62"/>
-    <hyperlink ref="G25" r:id="rId63"/>
-    <hyperlink ref="H25" r:id="rId64"/>
-    <hyperlink ref="G26" r:id="rId65"/>
-    <hyperlink ref="H26" r:id="rId66"/>
-    <hyperlink ref="L26" r:id="rId67"/>
-    <hyperlink ref="I24" r:id="rId68"/>
-    <hyperlink ref="G8" r:id="rId69"/>
-    <hyperlink ref="H8" r:id="rId70"/>
-    <hyperlink ref="J6" r:id="rId71"/>
-    <hyperlink ref="J8" r:id="rId72"/>
-    <hyperlink ref="H27" r:id="rId73"/>
-    <hyperlink ref="G27" r:id="rId74"/>
-    <hyperlink ref="F22" r:id="rId75"/>
-    <hyperlink ref="F23" r:id="rId76"/>
-    <hyperlink ref="F24" r:id="rId77"/>
-    <hyperlink ref="F27" r:id="rId78"/>
-    <hyperlink ref="G28" r:id="rId79"/>
-    <hyperlink ref="H28" r:id="rId80"/>
-    <hyperlink ref="I28" r:id="rId81"/>
-    <hyperlink ref="F28" r:id="rId82"/>
-    <hyperlink ref="G29" r:id="rId83"/>
-    <hyperlink ref="H29" r:id="rId84"/>
-    <hyperlink ref="G30" r:id="rId85"/>
-    <hyperlink ref="G31" r:id="rId86"/>
-    <hyperlink ref="H30" r:id="rId87"/>
-    <hyperlink ref="H31" r:id="rId88"/>
-    <hyperlink ref="F31" r:id="rId89"/>
-    <hyperlink ref="I32" r:id="rId90"/>
-    <hyperlink ref="F32" r:id="rId91"/>
-    <hyperlink ref="I10" r:id="rId92"/>
-    <hyperlink ref="F25" r:id="rId93"/>
-    <hyperlink ref="F30" r:id="rId94"/>
-    <hyperlink ref="H10" r:id="rId95"/>
-    <hyperlink ref="G10" r:id="rId96"/>
-    <hyperlink ref="H15" r:id="rId97"/>
-    <hyperlink ref="G15" r:id="rId98"/>
-    <hyperlink ref="G14" r:id="rId99"/>
-    <hyperlink ref="H14" r:id="rId100"/>
-    <hyperlink ref="F15" r:id="rId101"/>
-    <hyperlink ref="I30" r:id="rId102"/>
-    <hyperlink ref="F43" r:id="rId103"/>
-    <hyperlink ref="G33" r:id="rId104"/>
-    <hyperlink ref="H33" r:id="rId105"/>
-    <hyperlink ref="F29" r:id="rId106"/>
-    <hyperlink ref="G34" r:id="rId107"/>
-    <hyperlink ref="H34" r:id="rId108"/>
-    <hyperlink ref="I8" r:id="rId109"/>
-    <hyperlink ref="K6" r:id="rId110"/>
-    <hyperlink ref="K31" r:id="rId111"/>
-    <hyperlink ref="K25" r:id="rId112"/>
-    <hyperlink ref="I25" r:id="rId113"/>
-    <hyperlink ref="F35" r:id="rId114"/>
-    <hyperlink ref="G35" r:id="rId115"/>
-    <hyperlink ref="H35" r:id="rId116"/>
-    <hyperlink ref="G36" r:id="rId117"/>
-    <hyperlink ref="H36" r:id="rId118"/>
-    <hyperlink ref="F36" r:id="rId119"/>
-    <hyperlink ref="G37" r:id="rId120"/>
-    <hyperlink ref="G38" r:id="rId121"/>
-    <hyperlink ref="H37" r:id="rId122"/>
-    <hyperlink ref="H38" r:id="rId123"/>
-    <hyperlink ref="G11" r:id="rId124"/>
-    <hyperlink ref="G12" r:id="rId125"/>
-    <hyperlink ref="H11" r:id="rId126"/>
-    <hyperlink ref="H12" r:id="rId127"/>
-    <hyperlink ref="F39" r:id="rId128"/>
-    <hyperlink ref="H39" r:id="rId129"/>
-    <hyperlink ref="I29" r:id="rId130"/>
-    <hyperlink ref="F40" r:id="rId131"/>
-    <hyperlink ref="G40" r:id="rId132"/>
-    <hyperlink ref="H40" r:id="rId133"/>
-    <hyperlink ref="I15" r:id="rId134"/>
+    <hyperlink ref="H18" r:id="rId1"/>
+    <hyperlink ref="F18" r:id="rId2"/>
+    <hyperlink ref="I18" r:id="rId3"/>
+    <hyperlink ref="J14" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F8" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId9"/>
+    <hyperlink ref="F10" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="F13" r:id="rId13"/>
+    <hyperlink ref="I13" r:id="rId14"/>
+    <hyperlink ref="G13" r:id="rId15"/>
+    <hyperlink ref="H13" r:id="rId16"/>
+    <hyperlink ref="F16" r:id="rId17"/>
+    <hyperlink ref="I16" r:id="rId18"/>
+    <hyperlink ref="G16" r:id="rId19"/>
+    <hyperlink ref="H16" r:id="rId20"/>
+    <hyperlink ref="G7" r:id="rId21"/>
+    <hyperlink ref="H7" r:id="rId22"/>
+    <hyperlink ref="I7" r:id="rId23"/>
+    <hyperlink ref="I6" r:id="rId24"/>
+    <hyperlink ref="G6" r:id="rId25"/>
+    <hyperlink ref="H6" r:id="rId26"/>
+    <hyperlink ref="F17" r:id="rId27"/>
+    <hyperlink ref="I17" r:id="rId28"/>
+    <hyperlink ref="G17" r:id="rId29"/>
+    <hyperlink ref="H17" r:id="rId30"/>
+    <hyperlink ref="F19" r:id="rId31"/>
+    <hyperlink ref="I19" r:id="rId32"/>
+    <hyperlink ref="G19" r:id="rId33"/>
+    <hyperlink ref="H19" r:id="rId34"/>
+    <hyperlink ref="I5" r:id="rId35"/>
+    <hyperlink ref="I20" r:id="rId36"/>
+    <hyperlink ref="F20" r:id="rId37"/>
+    <hyperlink ref="G20" r:id="rId38"/>
+    <hyperlink ref="H20" r:id="rId39"/>
+    <hyperlink ref="G5" r:id="rId40"/>
+    <hyperlink ref="H5" r:id="rId41"/>
+    <hyperlink ref="G21" r:id="rId42"/>
+    <hyperlink ref="H21" r:id="rId43"/>
+    <hyperlink ref="F21" r:id="rId44"/>
+    <hyperlink ref="G22" r:id="rId45"/>
+    <hyperlink ref="H22" r:id="rId46"/>
+    <hyperlink ref="G23" r:id="rId47"/>
+    <hyperlink ref="H23" r:id="rId48"/>
+    <hyperlink ref="G18" r:id="rId49"/>
+    <hyperlink ref="I21" r:id="rId50"/>
+    <hyperlink ref="G24" r:id="rId51"/>
+    <hyperlink ref="H24" r:id="rId52"/>
+    <hyperlink ref="I23" r:id="rId53"/>
+    <hyperlink ref="I22" r:id="rId54"/>
+    <hyperlink ref="G25" r:id="rId55"/>
+    <hyperlink ref="H25" r:id="rId56"/>
+    <hyperlink ref="G26" r:id="rId57"/>
+    <hyperlink ref="H26" r:id="rId58"/>
+    <hyperlink ref="K26" r:id="rId59"/>
+    <hyperlink ref="I24" r:id="rId60"/>
+    <hyperlink ref="G8" r:id="rId61"/>
+    <hyperlink ref="H8" r:id="rId62"/>
+    <hyperlink ref="H27" r:id="rId63"/>
+    <hyperlink ref="G27" r:id="rId64"/>
+    <hyperlink ref="F22" r:id="rId65"/>
+    <hyperlink ref="F23" r:id="rId66"/>
+    <hyperlink ref="F24" r:id="rId67"/>
+    <hyperlink ref="F27" r:id="rId68"/>
+    <hyperlink ref="G28" r:id="rId69"/>
+    <hyperlink ref="H28" r:id="rId70"/>
+    <hyperlink ref="I28" r:id="rId71"/>
+    <hyperlink ref="F28" r:id="rId72"/>
+    <hyperlink ref="G29" r:id="rId73"/>
+    <hyperlink ref="H29" r:id="rId74"/>
+    <hyperlink ref="G30" r:id="rId75"/>
+    <hyperlink ref="G31" r:id="rId76"/>
+    <hyperlink ref="H30" r:id="rId77"/>
+    <hyperlink ref="H31" r:id="rId78"/>
+    <hyperlink ref="F31" r:id="rId79"/>
+    <hyperlink ref="I32" r:id="rId80"/>
+    <hyperlink ref="F32" r:id="rId81"/>
+    <hyperlink ref="I10" r:id="rId82"/>
+    <hyperlink ref="F25" r:id="rId83"/>
+    <hyperlink ref="F30" r:id="rId84"/>
+    <hyperlink ref="H10" r:id="rId85"/>
+    <hyperlink ref="G10" r:id="rId86"/>
+    <hyperlink ref="H15" r:id="rId87"/>
+    <hyperlink ref="G15" r:id="rId88"/>
+    <hyperlink ref="G14" r:id="rId89"/>
+    <hyperlink ref="H14" r:id="rId90"/>
+    <hyperlink ref="F15" r:id="rId91"/>
+    <hyperlink ref="I30" r:id="rId92"/>
+    <hyperlink ref="F43" r:id="rId93"/>
+    <hyperlink ref="G33" r:id="rId94"/>
+    <hyperlink ref="F29" r:id="rId95"/>
+    <hyperlink ref="G34" r:id="rId96"/>
+    <hyperlink ref="H34" r:id="rId97"/>
+    <hyperlink ref="I8" r:id="rId98"/>
+    <hyperlink ref="J6" r:id="rId99"/>
+    <hyperlink ref="J31" r:id="rId100"/>
+    <hyperlink ref="J25" r:id="rId101"/>
+    <hyperlink ref="I25" r:id="rId102"/>
+    <hyperlink ref="F35" r:id="rId103"/>
+    <hyperlink ref="G35" r:id="rId104"/>
+    <hyperlink ref="H35" r:id="rId105"/>
+    <hyperlink ref="G36" r:id="rId106"/>
+    <hyperlink ref="H36" r:id="rId107"/>
+    <hyperlink ref="F36" r:id="rId108"/>
+    <hyperlink ref="G37" r:id="rId109"/>
+    <hyperlink ref="G38" r:id="rId110"/>
+    <hyperlink ref="H37" r:id="rId111"/>
+    <hyperlink ref="H38" r:id="rId112"/>
+    <hyperlink ref="G11" r:id="rId113"/>
+    <hyperlink ref="G12" r:id="rId114"/>
+    <hyperlink ref="H11" r:id="rId115"/>
+    <hyperlink ref="H12" r:id="rId116"/>
+    <hyperlink ref="F39" r:id="rId117"/>
+    <hyperlink ref="H39" r:id="rId118"/>
+    <hyperlink ref="I29" r:id="rId119"/>
+    <hyperlink ref="F40" r:id="rId120"/>
+    <hyperlink ref="G40" r:id="rId121"/>
+    <hyperlink ref="H40" r:id="rId122"/>
+    <hyperlink ref="I15" r:id="rId123"/>
+    <hyperlink ref="F33" r:id="rId124"/>
+    <hyperlink ref="H33" r:id="rId125"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId135"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId126"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId136"/>
+  <drawing r:id="rId127"/>
   <tableParts count="1">
-    <tablePart r:id="rId137"/>
+    <tablePart r:id="rId128"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4426,441 +4288,441 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
+    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="52" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-    </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="17">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="17">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="17">
-        <v>3</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="17">
-        <v>4</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="17">
-        <v>5</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="17">
-        <v>6</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="G10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="17">
+      <c r="I10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="16">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="17">
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="16">
         <v>8</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="17">
+      <c r="D12" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="16">
         <v>9</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="16">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="17">
-        <v>10</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="17">
+      <c r="G14" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="16">
         <v>11</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="17">
+      <c r="D15" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="16">
         <v>12</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="17">
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="16">
         <v>13</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="17">
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="16">
         <v>14</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="2:13" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="2:13" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
@@ -4967,118 +4829,124 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>284</v>
+      <c r="B3" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>4602</v>
       </c>
     </row>
   </sheetData>
@@ -5120,238 +4988,238 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+      <c r="B1" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
+      <c r="B3" s="38"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
         <f t="shared" ref="A4:A33" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="B5" s="38"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="B6" s="38"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+      <c r="B7" s="38"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
+      <c r="B11" s="38"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="B13" s="38"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="39"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="B14" s="38"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="39"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="B15" s="38"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="39"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="B16" s="38"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
+      <c r="B17" s="38"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="39"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
+      <c r="B18" s="38"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="39"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
+      <c r="B19" s="38"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="39"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="40">
+      <c r="B20" s="38"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="39"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="39"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
+      <c r="B22" s="38"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="39"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="40">
+      <c r="B23" s="38"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="39"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
+      <c r="B24" s="38"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="39"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="39"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="39"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
+      <c r="B27" s="38"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="39"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="40">
+      <c r="B28" s="38"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="39"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
+      <c r="B29" s="38"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="39"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
+      <c r="B30" s="38"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="39"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="40">
+      <c r="B31" s="38"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="39"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
+      <c r="B32" s="38"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -2478,7 +2478,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2497,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2623,7 +2623,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2632,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="630515"/>
-          <a:ext cx="20641992" cy="93385"/>
+          <a:ext cx="20842017" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2642,7 +2642,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2696,7 +2696,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3025,7 +3025,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4288,7 +4288,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4300,7 +4300,7 @@
     <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -4832,7 +4832,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="283">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -873,6 +873,12 @@
   </si>
   <si>
     <t>Таблица выработки ф-тов</t>
+  </si>
+  <si>
+    <t>Примичания</t>
+  </si>
+  <si>
+    <t>При новом заказе дутьевые глубина 23 мм</t>
   </si>
 </sst>
 </file>
@@ -885,7 +891,7 @@
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1000,19 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1027,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1063,6 +1082,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1099,7 +1129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,6 +1285,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1270,7 +1306,93 @@
     <cellStyle name="Сведения таблицы справа" xfId="5"/>
     <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79961546678060247"/>
+          <bgColor theme="4" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2442,9 +2564,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2478,7 +2600,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2619,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2551,7 +2673,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2623,7 +2745,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2764,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2696,7 +2818,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2749,40 +2871,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:K43" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:K43"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="25" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="22" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="21" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="20" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L43"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="30" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="29" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="28" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="25" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="23" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="21" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Примичания" dataDxfId="0" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="15" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="6" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="16" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="15" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="14" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="13" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="15" name="Паспорт" dataDxfId="12" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="11" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="9" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="7" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="5" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3021,11 +3144,11 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3041,11 +3164,11 @@
     <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="3"/>
       <c r="C1" s="12" t="s">
@@ -3059,12 +3182,13 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="51" t="s">
         <v>23</v>
       </c>
@@ -3073,7 +3197,7 @@
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -3104,8 +3228,11 @@
       <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L4" s="52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <v>1</v>
@@ -3130,8 +3257,11 @@
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L5" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="16">
         <f>C5+1</f>
@@ -3159,8 +3289,9 @@
         <v>221</v>
       </c>
       <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <f t="shared" ref="C7:C40" si="0">C6+1</f>
@@ -3186,8 +3317,9 @@
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="16">
         <f t="shared" si="0"/>
@@ -3213,8 +3345,9 @@
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <f t="shared" si="0"/>
@@ -3234,8 +3367,9 @@
       <c r="I9" s="20"/>
       <c r="J9" s="22"/>
       <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="16">
         <f t="shared" si="0"/>
@@ -3261,8 +3395,9 @@
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <f t="shared" si="0"/>
@@ -3286,8 +3421,9 @@
       <c r="I11" s="20"/>
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="16">
         <f t="shared" si="0"/>
@@ -3311,8 +3447,9 @@
       <c r="I12" s="20"/>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L12" s="53"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f t="shared" si="0"/>
@@ -3338,8 +3475,9 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L13" s="53"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="16">
         <f t="shared" si="0"/>
@@ -3363,8 +3501,9 @@
         <v>14</v>
       </c>
       <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <f t="shared" si="0"/>
@@ -3390,8 +3529,9 @@
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L15" s="53"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="16">
         <f t="shared" si="0"/>
@@ -3417,8 +3557,9 @@
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f t="shared" si="0"/>
@@ -3444,8 +3585,9 @@
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L17" s="53"/>
+    </row>
+    <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="16">
         <f t="shared" si="0"/>
@@ -3471,8 +3613,9 @@
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L18" s="53"/>
+    </row>
+    <row r="19" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="16">
         <f t="shared" si="0"/>
@@ -3498,8 +3641,9 @@
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L19" s="53"/>
+    </row>
+    <row r="20" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="16">
         <f t="shared" si="0"/>
@@ -3525,8 +3669,9 @@
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L20" s="53"/>
+    </row>
+    <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="16">
         <f t="shared" si="0"/>
@@ -3552,8 +3697,9 @@
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L21" s="53"/>
+    </row>
+    <row r="22" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="C22" s="16">
         <f t="shared" si="0"/>
@@ -3579,8 +3725,9 @@
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L22" s="53"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="16">
         <f t="shared" si="0"/>
@@ -3606,8 +3753,9 @@
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="48"/>
-    </row>
-    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L23" s="53"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="16">
         <f t="shared" si="0"/>
@@ -3633,8 +3781,9 @@
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="48"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L24" s="53"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="16">
         <f t="shared" si="0"/>
@@ -3662,8 +3811,9 @@
         <v>223</v>
       </c>
       <c r="K25" s="48"/>
-    </row>
-    <row r="26" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L25" s="53"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="16">
         <f t="shared" si="0"/>
@@ -3687,8 +3837,9 @@
       <c r="K26" s="48" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L26" s="53"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="16">
         <f t="shared" si="0"/>
@@ -3712,8 +3863,9 @@
       <c r="I27" s="36"/>
       <c r="J27" s="31"/>
       <c r="K27" s="48"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="16">
         <f t="shared" si="0"/>
@@ -3739,8 +3891,9 @@
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="48"/>
-    </row>
-    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L28" s="53"/>
+    </row>
+    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="16">
         <f t="shared" si="0"/>
@@ -3766,8 +3919,9 @@
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="48"/>
-    </row>
-    <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L29" s="53"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="16">
         <f t="shared" si="0"/>
@@ -3793,8 +3947,9 @@
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L30" s="53"/>
+    </row>
+    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="16">
         <f t="shared" si="0"/>
@@ -3820,8 +3975,9 @@
         <v>222</v>
       </c>
       <c r="K31" s="48"/>
-    </row>
-    <row r="32" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L31" s="53"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="16">
         <f t="shared" si="0"/>
@@ -3843,6 +3999,7 @@
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="48"/>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
@@ -3868,6 +4025,7 @@
       <c r="I33" s="36"/>
       <c r="J33" s="31"/>
       <c r="K33" s="48"/>
+      <c r="L33" s="53"/>
     </row>
     <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
@@ -3891,6 +4049,7 @@
       <c r="I34" s="36"/>
       <c r="J34" s="31"/>
       <c r="K34" s="48"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
@@ -3916,6 +4075,7 @@
       <c r="I35" s="36"/>
       <c r="J35" s="31"/>
       <c r="K35" s="48"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
@@ -3941,6 +4101,7 @@
       <c r="I36" s="36"/>
       <c r="J36" s="31"/>
       <c r="K36" s="48"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
@@ -3964,6 +4125,7 @@
       <c r="I37" s="36"/>
       <c r="J37" s="31"/>
       <c r="K37" s="48"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
@@ -3987,6 +4149,7 @@
       <c r="I38" s="36"/>
       <c r="J38" s="31"/>
       <c r="K38" s="48"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
@@ -4010,6 +4173,7 @@
       <c r="I39" s="36"/>
       <c r="J39" s="31"/>
       <c r="K39" s="48"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
@@ -4035,6 +4199,7 @@
       <c r="I40" s="36"/>
       <c r="J40" s="31"/>
       <c r="K40" s="48"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -4047,6 +4212,7 @@
       <c r="I41" s="36"/>
       <c r="J41" s="31"/>
       <c r="K41" s="48"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -4059,6 +4225,7 @@
       <c r="I42" s="36"/>
       <c r="J42" s="31"/>
       <c r="K42" s="48"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
@@ -4073,26 +4240,26 @@
       <c r="I43" s="36"/>
       <c r="J43" s="47"/>
       <c r="K43" s="47"/>
-      <c r="L43" s="24"/>
+      <c r="L43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:K43">
-    <cfRule type="expression" dxfId="31" priority="83">
+    <cfRule type="expression" dxfId="36" priority="85">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="84">
+    <cfRule type="expression" dxfId="35" priority="86">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="29" priority="92">
-      <formula>#REF!=1</formula>
+  <conditionalFormatting sqref="L5:L43">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="93">
-      <formula>$L43="да"</formula>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
@@ -4109,7 +4276,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:K4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H18" r:id="rId1"/>
@@ -4252,7 +4419,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="91" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
+          <x14:cfRule type="iconSet" priority="93" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4728,10 +4895,10 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="15" priority="94">
+    <cfRule type="expression" dxfId="20" priority="94">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="95">
+    <cfRule type="expression" dxfId="19" priority="95">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4831,8 +4998,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1888A-2D2A-4518-91D9-3F3BE453265D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,19 @@
     <definedName name="ЗаголовокСтолбца1" localSheetId="1">ИнвентарнаяВедомость4[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
     <definedName name="ЗаголовокСтолбца1">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="284">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -879,12 +887,15 @@
   </si>
   <si>
     <t>При новом заказе дутьевые глубина 23 мм</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Бульбаш Эксра New 0.5 л.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -1004,6 +1015,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,6 +1024,8 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Corbel"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -1283,116 +1298,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Валюта таблицы" xfId="4"/>
+    <cellStyle name="Валюта таблицы" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="10" builtinId="8"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="9" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Отменено" xfId="6"/>
-    <cellStyle name="Сведения таблицы слева" xfId="7"/>
-    <cellStyle name="Сведения таблицы справа" xfId="5"/>
-    <cellStyle name="Столбец с отметкой" xfId="8"/>
+    <cellStyle name="Отменено" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Сведения таблицы слева" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Сведения таблицы справа" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Столбец с отметкой" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.79961546678060247"/>
-          <bgColor theme="4" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1973,6 +1902,50 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79961546678060247"/>
+          <bgColor theme="4" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2563,10 +2536,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
-      <tableStyleElement type="firstColumn" dxfId="37"/>
+    <tableStyle name="Инвентарный список" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2600,7 +2573,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2582,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="630515"/>
-          <a:ext cx="19527567" cy="93385"/>
+          <a:ext cx="19841892" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2619,7 +2592,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2673,7 +2646,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2745,7 +2718,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2737,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2818,7 +2791,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2871,41 +2844,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="30" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="29" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="28" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="26" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="25" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="24" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="23" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="21" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Примичания" dataDxfId="0" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Спецификация по заказу" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Акт приемки" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Примичания" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:M18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:M18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="16" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="15" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="14" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="13" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="15" name="Паспорт" dataDxfId="12" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="11" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="10" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="9" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="8" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="7" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="6" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="5" dataCellStyle="Отменено"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Чертеж изделия" dataDxfId="6" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Чертежи деталей формоеоклекта" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2914,7 +2887,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Inventory List">
+    <a:clrScheme name="Гиперссылка">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2946,10 +2919,10 @@
         <a:srgbClr val="FFCC00"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="859EBF"/>
+        <a:srgbClr val="FF0000"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="5B9EA4"/>
+        <a:srgbClr val="FF6566"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="44 Inventory List">
@@ -3137,7 +3110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3145,10 +3118,10 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3158,9 +3131,9 @@
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
@@ -3189,11 +3162,11 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
@@ -3228,7 +3201,7 @@
       <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="51" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3257,7 +3230,7 @@
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="52" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3289,7 +3262,7 @@
         <v>221</v>
       </c>
       <c r="K6" s="23"/>
-      <c r="L6" s="53"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
@@ -3317,7 +3290,7 @@
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="53"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
@@ -3345,7 +3318,7 @@
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="53"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
@@ -3367,7 +3340,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="22"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="53"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
@@ -3395,7 +3368,7 @@
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="53"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
@@ -3421,7 +3394,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="53"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
@@ -3447,7 +3420,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="53"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
@@ -3475,7 +3448,7 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="53"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
@@ -3501,7 +3474,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="23"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
@@ -3529,7 +3502,7 @@
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="50"/>
-      <c r="L15" s="53"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
@@ -3557,7 +3530,7 @@
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="53"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -3585,7 +3558,7 @@
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="53"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
@@ -3613,7 +3586,7 @@
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="53"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
@@ -3641,7 +3614,7 @@
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="53"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
@@ -3669,7 +3642,7 @@
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="53"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
@@ -3697,7 +3670,7 @@
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="53"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
@@ -3725,7 +3698,7 @@
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="53"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
@@ -3753,7 +3726,7 @@
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="48"/>
-      <c r="L23" s="53"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
@@ -3781,7 +3754,7 @@
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="48"/>
-      <c r="L24" s="53"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
@@ -3811,7 +3784,7 @@
         <v>223</v>
       </c>
       <c r="K25" s="48"/>
-      <c r="L25" s="53"/>
+      <c r="L25" s="52"/>
     </row>
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
@@ -3837,7 +3810,7 @@
       <c r="K26" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="L26" s="53"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
@@ -3863,7 +3836,7 @@
       <c r="I27" s="36"/>
       <c r="J27" s="31"/>
       <c r="K27" s="48"/>
-      <c r="L27" s="53"/>
+      <c r="L27" s="52"/>
     </row>
     <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
@@ -3891,7 +3864,7 @@
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="48"/>
-      <c r="L28" s="53"/>
+      <c r="L28" s="52"/>
     </row>
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
@@ -3919,7 +3892,7 @@
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="48"/>
-      <c r="L29" s="53"/>
+      <c r="L29" s="52"/>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
@@ -3947,7 +3920,7 @@
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="48"/>
-      <c r="L30" s="53"/>
+      <c r="L30" s="52"/>
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
@@ -3975,7 +3948,7 @@
         <v>222</v>
       </c>
       <c r="K31" s="48"/>
-      <c r="L31" s="53"/>
+      <c r="L31" s="52"/>
     </row>
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
@@ -3999,7 +3972,7 @@
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="48"/>
-      <c r="L32" s="53"/>
+      <c r="L32" s="52"/>
     </row>
     <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
@@ -4025,7 +3998,7 @@
       <c r="I33" s="36"/>
       <c r="J33" s="31"/>
       <c r="K33" s="48"/>
-      <c r="L33" s="53"/>
+      <c r="L33" s="52"/>
     </row>
     <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
@@ -4049,7 +4022,7 @@
       <c r="I34" s="36"/>
       <c r="J34" s="31"/>
       <c r="K34" s="48"/>
-      <c r="L34" s="53"/>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
@@ -4075,7 +4048,7 @@
       <c r="I35" s="36"/>
       <c r="J35" s="31"/>
       <c r="K35" s="48"/>
-      <c r="L35" s="53"/>
+      <c r="L35" s="52"/>
     </row>
     <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
@@ -4101,7 +4074,7 @@
       <c r="I36" s="36"/>
       <c r="J36" s="31"/>
       <c r="K36" s="48"/>
-      <c r="L36" s="53"/>
+      <c r="L36" s="52"/>
     </row>
     <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
@@ -4125,7 +4098,7 @@
       <c r="I37" s="36"/>
       <c r="J37" s="31"/>
       <c r="K37" s="48"/>
-      <c r="L37" s="53"/>
+      <c r="L37" s="52"/>
     </row>
     <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
@@ -4149,7 +4122,7 @@
       <c r="I38" s="36"/>
       <c r="J38" s="31"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="53"/>
+      <c r="L38" s="52"/>
     </row>
     <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
@@ -4170,10 +4143,12 @@
       <c r="H39" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="I39" s="36"/>
+      <c r="I39" s="21" t="s">
+        <v>283</v>
+      </c>
       <c r="J39" s="31"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="53"/>
+      <c r="L39" s="52"/>
     </row>
     <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
@@ -4199,7 +4174,7 @@
       <c r="I40" s="36"/>
       <c r="J40" s="31"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="53"/>
+      <c r="L40" s="52"/>
     </row>
     <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -4212,7 +4187,7 @@
       <c r="I41" s="36"/>
       <c r="J41" s="31"/>
       <c r="K41" s="48"/>
-      <c r="L41" s="53"/>
+      <c r="L41" s="52"/>
     </row>
     <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -4225,7 +4200,7 @@
       <c r="I42" s="36"/>
       <c r="J42" s="31"/>
       <c r="K42" s="48"/>
-      <c r="L42" s="53"/>
+      <c r="L42" s="52"/>
     </row>
     <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
@@ -4240,180 +4215,181 @@
       <c r="I43" s="36"/>
       <c r="J43" s="47"/>
       <c r="K43" s="47"/>
-      <c r="L43" s="53"/>
+      <c r="L43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:K43">
-    <cfRule type="expression" dxfId="36" priority="85">
+    <cfRule type="expression" dxfId="32" priority="85">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="86">
+    <cfRule type="expression" dxfId="31" priority="86">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L43">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
-    <hyperlink ref="F18" r:id="rId2"/>
-    <hyperlink ref="I18" r:id="rId3"/>
-    <hyperlink ref="J14" r:id="rId4"/>
-    <hyperlink ref="F5" r:id="rId5"/>
-    <hyperlink ref="F6" r:id="rId6"/>
-    <hyperlink ref="F7" r:id="rId7"/>
-    <hyperlink ref="F8" r:id="rId8"/>
-    <hyperlink ref="F9" r:id="rId9"/>
-    <hyperlink ref="F10" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F11" r:id="rId12"/>
-    <hyperlink ref="F13" r:id="rId13"/>
-    <hyperlink ref="I13" r:id="rId14"/>
-    <hyperlink ref="G13" r:id="rId15"/>
-    <hyperlink ref="H13" r:id="rId16"/>
-    <hyperlink ref="F16" r:id="rId17"/>
-    <hyperlink ref="I16" r:id="rId18"/>
-    <hyperlink ref="G16" r:id="rId19"/>
-    <hyperlink ref="H16" r:id="rId20"/>
-    <hyperlink ref="G7" r:id="rId21"/>
-    <hyperlink ref="H7" r:id="rId22"/>
-    <hyperlink ref="I7" r:id="rId23"/>
-    <hyperlink ref="I6" r:id="rId24"/>
-    <hyperlink ref="G6" r:id="rId25"/>
-    <hyperlink ref="H6" r:id="rId26"/>
-    <hyperlink ref="F17" r:id="rId27"/>
-    <hyperlink ref="I17" r:id="rId28"/>
-    <hyperlink ref="G17" r:id="rId29"/>
-    <hyperlink ref="H17" r:id="rId30"/>
-    <hyperlink ref="F19" r:id="rId31"/>
-    <hyperlink ref="I19" r:id="rId32"/>
-    <hyperlink ref="G19" r:id="rId33"/>
-    <hyperlink ref="H19" r:id="rId34"/>
-    <hyperlink ref="I5" r:id="rId35"/>
-    <hyperlink ref="I20" r:id="rId36"/>
-    <hyperlink ref="F20" r:id="rId37"/>
-    <hyperlink ref="G20" r:id="rId38"/>
-    <hyperlink ref="H20" r:id="rId39"/>
-    <hyperlink ref="G5" r:id="rId40"/>
-    <hyperlink ref="H5" r:id="rId41"/>
-    <hyperlink ref="G21" r:id="rId42"/>
-    <hyperlink ref="H21" r:id="rId43"/>
-    <hyperlink ref="F21" r:id="rId44"/>
-    <hyperlink ref="G22" r:id="rId45"/>
-    <hyperlink ref="H22" r:id="rId46"/>
-    <hyperlink ref="G23" r:id="rId47"/>
-    <hyperlink ref="H23" r:id="rId48"/>
-    <hyperlink ref="G18" r:id="rId49"/>
-    <hyperlink ref="I21" r:id="rId50"/>
-    <hyperlink ref="G24" r:id="rId51"/>
-    <hyperlink ref="H24" r:id="rId52"/>
-    <hyperlink ref="I23" r:id="rId53"/>
-    <hyperlink ref="I22" r:id="rId54"/>
-    <hyperlink ref="G25" r:id="rId55"/>
-    <hyperlink ref="H25" r:id="rId56"/>
-    <hyperlink ref="G26" r:id="rId57"/>
-    <hyperlink ref="H26" r:id="rId58"/>
-    <hyperlink ref="K26" r:id="rId59"/>
-    <hyperlink ref="I24" r:id="rId60"/>
-    <hyperlink ref="G8" r:id="rId61"/>
-    <hyperlink ref="H8" r:id="rId62"/>
-    <hyperlink ref="H27" r:id="rId63"/>
-    <hyperlink ref="G27" r:id="rId64"/>
-    <hyperlink ref="F22" r:id="rId65"/>
-    <hyperlink ref="F23" r:id="rId66"/>
-    <hyperlink ref="F24" r:id="rId67"/>
-    <hyperlink ref="F27" r:id="rId68"/>
-    <hyperlink ref="G28" r:id="rId69"/>
-    <hyperlink ref="H28" r:id="rId70"/>
-    <hyperlink ref="I28" r:id="rId71"/>
-    <hyperlink ref="F28" r:id="rId72"/>
-    <hyperlink ref="G29" r:id="rId73"/>
-    <hyperlink ref="H29" r:id="rId74"/>
-    <hyperlink ref="G30" r:id="rId75"/>
-    <hyperlink ref="G31" r:id="rId76"/>
-    <hyperlink ref="H30" r:id="rId77"/>
-    <hyperlink ref="H31" r:id="rId78"/>
-    <hyperlink ref="F31" r:id="rId79"/>
-    <hyperlink ref="I32" r:id="rId80"/>
-    <hyperlink ref="F32" r:id="rId81"/>
-    <hyperlink ref="I10" r:id="rId82"/>
-    <hyperlink ref="F25" r:id="rId83"/>
-    <hyperlink ref="F30" r:id="rId84"/>
-    <hyperlink ref="H10" r:id="rId85"/>
-    <hyperlink ref="G10" r:id="rId86"/>
-    <hyperlink ref="H15" r:id="rId87"/>
-    <hyperlink ref="G15" r:id="rId88"/>
-    <hyperlink ref="G14" r:id="rId89"/>
-    <hyperlink ref="H14" r:id="rId90"/>
-    <hyperlink ref="F15" r:id="rId91"/>
-    <hyperlink ref="I30" r:id="rId92"/>
-    <hyperlink ref="F43" r:id="rId93"/>
-    <hyperlink ref="G33" r:id="rId94"/>
-    <hyperlink ref="F29" r:id="rId95"/>
-    <hyperlink ref="G34" r:id="rId96"/>
-    <hyperlink ref="H34" r:id="rId97"/>
-    <hyperlink ref="I8" r:id="rId98"/>
-    <hyperlink ref="J6" r:id="rId99"/>
-    <hyperlink ref="J31" r:id="rId100"/>
-    <hyperlink ref="J25" r:id="rId101"/>
-    <hyperlink ref="I25" r:id="rId102"/>
-    <hyperlink ref="F35" r:id="rId103"/>
-    <hyperlink ref="G35" r:id="rId104"/>
-    <hyperlink ref="H35" r:id="rId105"/>
-    <hyperlink ref="G36" r:id="rId106"/>
-    <hyperlink ref="H36" r:id="rId107"/>
-    <hyperlink ref="F36" r:id="rId108"/>
-    <hyperlink ref="G37" r:id="rId109"/>
-    <hyperlink ref="G38" r:id="rId110"/>
-    <hyperlink ref="H37" r:id="rId111"/>
-    <hyperlink ref="H38" r:id="rId112"/>
-    <hyperlink ref="G11" r:id="rId113"/>
-    <hyperlink ref="G12" r:id="rId114"/>
-    <hyperlink ref="H11" r:id="rId115"/>
-    <hyperlink ref="H12" r:id="rId116"/>
-    <hyperlink ref="F39" r:id="rId117"/>
-    <hyperlink ref="H39" r:id="rId118"/>
-    <hyperlink ref="I29" r:id="rId119"/>
-    <hyperlink ref="F40" r:id="rId120"/>
-    <hyperlink ref="G40" r:id="rId121"/>
-    <hyperlink ref="H40" r:id="rId122"/>
-    <hyperlink ref="I15" r:id="rId123"/>
-    <hyperlink ref="F33" r:id="rId124"/>
-    <hyperlink ref="H33" r:id="rId125"/>
+    <hyperlink ref="H18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I5" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G5" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H5" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G23" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G18" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I21" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G24" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H24" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I23" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G25" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H25" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K26" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I24" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H8" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H27" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G27" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F22" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F24" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G28" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F28" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G29" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H29" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G30" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G31" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H30" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H31" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F31" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I32" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F32" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I10" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F25" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F30" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H10" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G10" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H15" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G15" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G14" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H14" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F15" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I30" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F43" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G33" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F29" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G34" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H34" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I8" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J6" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J31" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J25" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I25" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F35" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G35" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H35" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G36" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H36" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F36" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G37" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G38" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H37" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H38" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G11" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G12" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H11" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H12" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F39" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H39" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I29" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F40" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G40" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H40" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I15" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F33" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="H33" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I39" r:id="rId126" xr:uid="{E2BE2773-B928-483C-952C-62CF9BF4ED77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId126"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId127"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId127"/>
+  <drawing r:id="rId128"/>
   <tableParts count="1">
-    <tablePart r:id="rId128"/>
+    <tablePart r:id="rId129"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4444,7 +4420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4455,7 +4431,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4495,11 +4471,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -4895,65 +4871,65 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="20" priority="94">
+    <cfRule type="expression" dxfId="15" priority="94">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="95">
+    <cfRule type="expression" dxfId="14" priority="95">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите &quot;Да&quot;, если позиция была отменена. При вводе варианта &quot;Да&quot; соответствующая строка выделяется светло-серым цветом, а стиль шрифта изменяется на зачеркнутый." sqref="M4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите &quot;Да&quot;, если позиция была отменена. При вводе варианта &quot;Да&quot; соответствующая строка выделяется светло-серым цветом, а стиль шрифта изменяется на зачеркнутый." sqref="M4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="F8" r:id="rId4"/>
-    <hyperlink ref="F9" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="J11" r:id="rId11"/>
-    <hyperlink ref="I10" r:id="rId12"/>
-    <hyperlink ref="G10" r:id="rId13"/>
-    <hyperlink ref="H10" r:id="rId14"/>
-    <hyperlink ref="J10" r:id="rId15"/>
-    <hyperlink ref="H7" r:id="rId16"/>
-    <hyperlink ref="H8" r:id="rId17"/>
-    <hyperlink ref="G7" r:id="rId18"/>
-    <hyperlink ref="G8" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20"/>
-    <hyperlink ref="H9" r:id="rId21"/>
-    <hyperlink ref="F12" r:id="rId22"/>
-    <hyperlink ref="I12" r:id="rId23"/>
-    <hyperlink ref="G12" r:id="rId24"/>
-    <hyperlink ref="H12" r:id="rId25"/>
-    <hyperlink ref="G13" r:id="rId26"/>
-    <hyperlink ref="G14" r:id="rId27"/>
-    <hyperlink ref="G15" r:id="rId28"/>
-    <hyperlink ref="H13" r:id="rId29"/>
-    <hyperlink ref="H14" r:id="rId30"/>
-    <hyperlink ref="H15" r:id="rId31"/>
-    <hyperlink ref="F13" r:id="rId32"/>
-    <hyperlink ref="F14:F15" r:id="rId33" display="Лампада_1_2_3"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G7" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H9" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I12" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="G12" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H12" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G13" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G14" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="G15" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="H13" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="H14" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="H15" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="F13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="F14:F15" r:id="rId33" display="Лампада_1_2_3" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
@@ -4994,12 +4970,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,34 +5094,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A2" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A3" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B10" r:id="rId13"/>
-    <hyperlink ref="A12" r:id="rId14"/>
-    <hyperlink ref="B6" r:id="rId15"/>
-    <hyperlink ref="A14" r:id="rId16"/>
-    <hyperlink ref="A16" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="B15" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A3" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A12" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B6" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A14" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A16" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B15" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист3">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1888A-2D2A-4518-91D9-3F3BE453265D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66695733-5A05-4260-BFD5-0CDA7E1E8425}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="287">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Банка 0,45 л. twist</t>
   </si>
   <si>
-    <t>Паспорт Банка 0,45.xlsx</t>
-  </si>
-  <si>
     <t>Чертеж Банка 0,45 л.</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
     <t>ХХI-КПМ-30-1-500-4</t>
   </si>
   <si>
-    <t>Ф-т тестовый АКВА МЯТАЯ</t>
-  </si>
-  <si>
     <t>Отчет о подготовке Фляга 0.5 л.</t>
   </si>
   <si>
@@ -721,9 +715,6 @@
     <t>Отчет о подготовке Каласы 0.5</t>
   </si>
   <si>
-    <t>ТАБЕЛЬ Участок ремонта форм</t>
-  </si>
-  <si>
     <t>XXI-B-28-2.1-500-16</t>
   </si>
   <si>
@@ -745,9 +736,6 @@
     <t>Калина 0.45 л.</t>
   </si>
   <si>
-    <t>Чертеж ХХI-В-28-2-450-19 (Калина 0.45)</t>
-  </si>
-  <si>
     <t>Чертежи деталей ф-та Калина 0.45</t>
   </si>
   <si>
@@ -880,16 +868,37 @@
     <t>Ф-т Размова 0,5</t>
   </si>
   <si>
+    <t>Примичания</t>
+  </si>
+  <si>
+    <t>При новом заказе дутьевые глубина 23 мм</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Бульбаш Эксра New 0.5 л.</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2-450-19 (Калина 0.45 л.)</t>
+  </si>
+  <si>
     <t>Таблица выработки ф-тов</t>
   </si>
   <si>
-    <t>Примичания</t>
-  </si>
-  <si>
-    <t>При новом заказе дутьевые глубина 23 мм</t>
-  </si>
-  <si>
-    <t>Отчет о подготовке Бульбаш Эксра New 0.5 л.</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Отчет о подготовке в производство Размова 0.5</t>
+  </si>
+  <si>
+    <t>Ф-т АКВА МЯТАЯ</t>
+  </si>
+  <si>
+    <t>Паспорт АКВА МЯТАЯ</t>
+  </si>
+  <si>
+    <t>Паспорт Банка 0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Табель</t>
   </si>
 </sst>
 </file>
@@ -902,12 +911,20 @@
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1113,38 +1130,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,43 +1171,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="9">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,10 +1225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,43 +1237,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1265,46 +1282,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="13" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2727,7 +2747,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="630515"/>
-          <a:ext cx="20842017" cy="93385"/>
+          <a:ext cx="21337317" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -3118,10 +3138,10 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3162,11 +3182,11 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
@@ -3184,13 +3204,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>8</v>
@@ -3202,7 +3222,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="51" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3220,18 +3240,18 @@
         <v>22</v>
       </c>
       <c r="G5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>118</v>
-      </c>
       <c r="I5" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
       <c r="L5" s="52" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3250,16 +3270,16 @@
         <v>43</v>
       </c>
       <c r="G6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="I6" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="52"/>
@@ -3280,13 +3300,13 @@
         <v>46</v>
       </c>
       <c r="G7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="I7" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="23"/>
@@ -3308,13 +3328,13 @@
         <v>48</v>
       </c>
       <c r="G8" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>160</v>
-      </c>
       <c r="I8" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
@@ -3358,13 +3378,13 @@
         <v>54</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
@@ -3386,10 +3406,10 @@
         <v>60</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="22"/>
@@ -3412,10 +3432,10 @@
         <v>59</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="22"/>
@@ -3429,22 +3449,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
@@ -3464,10 +3484,10 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>207</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="22" t="s">
@@ -3483,22 +3503,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>204</v>
-      </c>
       <c r="I15" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="50"/>
@@ -3511,22 +3531,22 @@
         <v>12</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="G16" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="23"/>
@@ -3539,22 +3559,22 @@
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>94</v>
-      </c>
       <c r="F17" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>102</v>
-      </c>
       <c r="I17" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="23"/>
@@ -3573,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>16</v>
@@ -3595,22 +3615,22 @@
         <v>15</v>
       </c>
       <c r="D19" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="30" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>107</v>
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -3623,22 +3643,22 @@
         <v>16</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="F20" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="30" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>113</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -3651,22 +3671,22 @@
         <v>17</v>
       </c>
       <c r="D21" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="F21" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="25" t="s">
+      <c r="H21" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>122</v>
-      </c>
       <c r="I21" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="22"/>
@@ -3679,22 +3699,22 @@
         <v>18</v>
       </c>
       <c r="D22" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="I22" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="22"/>
@@ -3707,22 +3727,22 @@
         <v>19</v>
       </c>
       <c r="D23" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="32" t="s">
+      <c r="H23" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>137</v>
-      </c>
       <c r="I23" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="48"/>
@@ -3735,22 +3755,22 @@
         <v>20</v>
       </c>
       <c r="D24" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="32" t="s">
+      <c r="H24" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="30" t="s">
-        <v>142</v>
-      </c>
       <c r="I24" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="48"/>
@@ -3763,25 +3783,25 @@
         <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="32" t="s">
+      <c r="H25" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="I25" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="52"/>
@@ -3793,22 +3813,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>151</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>152</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>154</v>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="31"/>
       <c r="K26" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L26" s="52"/>
     </row>
@@ -3819,19 +3839,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>162</v>
-      </c>
       <c r="F27" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="31"/>
@@ -3845,22 +3865,22 @@
         <v>24</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="F28" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="32" t="s">
+      <c r="H28" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="I28" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>177</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="48"/>
@@ -3873,22 +3893,22 @@
         <v>25</v>
       </c>
       <c r="D29" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="F29" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="32" t="s">
+      <c r="H29" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>182</v>
-      </c>
       <c r="I29" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="48"/>
@@ -3901,22 +3921,22 @@
         <v>26</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="F30" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>185</v>
-      </c>
       <c r="H30" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="48"/>
@@ -3929,23 +3949,23 @@
         <v>27</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>188</v>
-      </c>
       <c r="H31" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="52"/>
@@ -3957,18 +3977,18 @@
         <v>28</v>
       </c>
       <c r="D32" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>193</v>
-      </c>
       <c r="F32" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="30"/>
       <c r="I32" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="48"/>
@@ -3981,21 +4001,23 @@
         <v>29</v>
       </c>
       <c r="D33" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>214</v>
-      </c>
       <c r="F33" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="I33" s="36"/>
+        <v>275</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>282</v>
+      </c>
       <c r="J33" s="31"/>
       <c r="K33" s="48"/>
       <c r="L33" s="52"/>
@@ -4007,17 +4029,19 @@
         <v>30</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="32" t="s">
-        <v>217</v>
-      </c>
       <c r="H34" s="30" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="31"/>
@@ -4031,19 +4055,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="H35" s="30" t="s">
         <v>229</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>232</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="31"/>
@@ -4057,21 +4081,23 @@
         <v>32</v>
       </c>
       <c r="D36" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>237</v>
-      </c>
       <c r="G36" s="32" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="I36" s="36"/>
+        <v>232</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>279</v>
+      </c>
       <c r="J36" s="31"/>
       <c r="K36" s="48"/>
       <c r="L36" s="52"/>
@@ -4083,17 +4109,17 @@
         <v>33</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="31"/>
@@ -4107,17 +4133,17 @@
         <v>34</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="31"/>
@@ -4131,20 +4157,20 @@
         <v>35</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J39" s="31"/>
       <c r="K39" s="48"/>
@@ -4156,20 +4182,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>274</v>
+      <c r="D40" s="53" t="s">
+        <v>270</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="31"/>
@@ -4208,7 +4234,7 @@
       <c r="D43" s="43"/>
       <c r="E43" s="44"/>
       <c r="F43" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G43" s="45"/>
       <c r="H43" s="46"/>
@@ -4359,7 +4385,7 @@
     <hyperlink ref="F35" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="G35" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="H35" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="G36" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G36" r:id="rId106" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="H36" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
     <hyperlink ref="F36" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
     <hyperlink ref="G37" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
@@ -4380,16 +4406,19 @@
     <hyperlink ref="F33" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="H33" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
     <hyperlink ref="I39" r:id="rId126" xr:uid="{E2BE2773-B928-483C-952C-62CF9BF4ED77}"/>
+    <hyperlink ref="I36" r:id="rId127" xr:uid="{1A5302DA-FFAF-4E0F-886E-B13A9E1B8E9B}"/>
+    <hyperlink ref="I33" r:id="rId128" xr:uid="{6DAC876B-AA60-4BF1-9ABC-74EEFDA744E0}"/>
+    <hyperlink ref="F34" r:id="rId129" xr:uid="{D8F38B50-D616-42EB-B42D-07FBBE28DFA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId127"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId130"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId128"/>
+  <drawing r:id="rId131"/>
   <tableParts count="1">
-    <tablePart r:id="rId129"/>
+    <tablePart r:id="rId132"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4428,10 +4457,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4439,8 +4468,8 @@
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -4471,11 +4500,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -4574,10 +4603,10 @@
         <v>32</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
@@ -4600,10 +4629,10 @@
         <v>32</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
@@ -4626,10 +4655,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
@@ -4646,28 +4675,28 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="I10" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <v>7</v>
@@ -4679,19 +4708,19 @@
         <v>64</v>
       </c>
       <c r="F11" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
@@ -4703,47 +4732,47 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="H12" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>243</v>
-      </c>
       <c r="I12" s="21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -4751,25 +4780,25 @@
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="16">
         <v>10</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
@@ -4777,25 +4806,25 @@
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <v>11</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -4975,7 +5004,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4986,10 +5015,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,15 +5026,15 @@
         <v>62</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5015,7 +5044,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5023,68 +5052,68 @@
         <v>61</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
@@ -5097,24 +5126,24 @@
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="A3" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="A12" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B6" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="A14" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="A16" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B15" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A3" r:id="rId10" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A12" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A14" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B15" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B4" r:id="rId21" xr:uid="{0CB3F431-B8D5-40C8-8114-6B80AA983B0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5138,7 +5167,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66695733-5A05-4260-BFD5-0CDA7E1E8425}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A79DE-8CD4-4F33-97CA-B0282A17FA48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="288">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Табель</t>
+  </si>
+  <si>
+    <t>Паспорт XXI-КПМ-26-4-500-10 Айс Куб</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,23 +1312,38 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2602,7 +2620,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="630515"/>
-          <a:ext cx="19841892" cy="93385"/>
+          <a:ext cx="20051442" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2866,6 +2884,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
   <autoFilter ref="B4:L43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B5:L43">
+    <sortCondition ref="E4:E43"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
@@ -3141,7 +3162,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3151,7 +3172,7 @@
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
@@ -3182,11 +3203,11 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
@@ -3221,7 +3242,7 @@
       <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="49" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3231,331 +3252,331 @@
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="J5" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" s="23"/>
-      <c r="L5" s="52" t="s">
-        <v>277</v>
-      </c>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="16">
         <f>C5+1</f>
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>41</v>
+      <c r="D6" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="52"/>
+        <v>283</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16">
-        <f t="shared" ref="C7:C40" si="0">C6+1</f>
+        <f>C6+1</f>
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>45</v>
+      <c r="D7" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="52"/>
+        <v>138</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="16">
-        <f t="shared" si="0"/>
+        <f>C7+1</f>
         <v>4</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>42</v>
+      <c r="D8" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="52"/>
+        <v>164</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="16">
-        <f t="shared" si="0"/>
+        <f>C8+1</f>
         <v>5</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>50</v>
+      <c r="D9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="52"/>
+        <v>167</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="16">
-        <f t="shared" si="0"/>
+        <f>C9+1</f>
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>53</v>
+      <c r="D10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>183</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="52"/>
+        <v>209</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="16">
-        <f t="shared" si="0"/>
+        <f>C10+1</f>
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>56</v>
+      <c r="D11" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>271</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="52"/>
+        <v>273</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="16">
-        <f t="shared" si="0"/>
+        <f>C11+1</f>
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="I12" s="20"/>
+        <v>198</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
-        <f t="shared" si="0"/>
+        <f>C12+1</f>
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="16">
-        <f t="shared" si="0"/>
+        <f>C13+1</f>
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="25" t="s">
-        <v>205</v>
-      </c>
+      <c r="D14" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="25"/>
       <c r="H14" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="52"/>
+        <v>256</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="16">
-        <f t="shared" si="0"/>
+        <f>C14+1</f>
         <v>11</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>208</v>
+      <c r="D15" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>203</v>
+        <v>170</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="52"/>
+        <v>143</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="16">
-        <f t="shared" si="0"/>
+        <f>C15+1</f>
         <v>12</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="52"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
-        <f t="shared" si="0"/>
+        <f>C16+1</f>
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3578,147 +3599,151 @@
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="52"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="16">
-        <f t="shared" si="0"/>
+        <f>C17+1</f>
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>4</v>
+      <c r="D18" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>104</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="52"/>
+        <v>106</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="16">
-        <f t="shared" si="0"/>
+        <f>C18+1</f>
         <v>15</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>103</v>
+      <c r="D19" s="52" t="s">
+        <v>146</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="52"/>
+        <v>224</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="48"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C20:C40" si="0">C19+1</f>
         <v>16</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>111</v>
+      <c r="D20" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="52"/>
+        <v>248</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="50" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="52"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="J22" s="37"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="52"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
@@ -3727,26 +3752,26 @@
         <v>19</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="48"/>
-      <c r="L23" s="52"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
@@ -3755,56 +3780,52 @@
         <v>20</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>167</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F24" s="40"/>
       <c r="G24" s="32" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>155</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I24" s="36"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="52"/>
+      <c r="K24" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>146</v>
+      <c r="D25" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="J25" s="48" t="s">
-        <v>221</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="J25" s="31"/>
       <c r="K25" s="48"/>
-      <c r="L25" s="52"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
@@ -3813,50 +3834,44 @@
         <v>22</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" s="36"/>
+        <v>192</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="21" t="s">
+        <v>193</v>
+      </c>
       <c r="J26" s="31"/>
-      <c r="K26" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="L26" s="52"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>161</v>
+      <c r="D27" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>50</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="52"/>
+        <v>51</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
@@ -3865,54 +3880,54 @@
         <v>24</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="48"/>
-      <c r="L28" s="52"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>179</v>
+      <c r="D29" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="J29" s="48"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
@@ -3921,26 +3936,24 @@
         <v>26</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>209</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I30" s="36"/>
       <c r="J30" s="31"/>
       <c r="K30" s="48"/>
-      <c r="L30" s="52"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
@@ -3949,158 +3962,164 @@
         <v>27</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="48" t="s">
-        <v>220</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="31"/>
       <c r="K31" s="48"/>
-      <c r="L31" s="52"/>
+      <c r="L31" s="50"/>
     </row>
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>192</v>
+      <c r="D32" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>78</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30"/>
+        <v>79</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="I32" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="52"/>
+        <v>80</v>
+      </c>
+      <c r="J32" s="48"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>213</v>
+      <c r="D33" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>41</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="52"/>
+        <v>88</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="59"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>215</v>
+      <c r="D34" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>42</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="52"/>
+        <v>159</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>226</v>
+      <c r="D35" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="52"/>
+        <v>251</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D36" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>231</v>
+      <c r="D36" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>58</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="52"/>
+        <v>252</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
@@ -4109,46 +4128,54 @@
         <v>33</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="F37" s="40"/>
+        <v>186</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>190</v>
+      </c>
       <c r="G37" s="32" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="I37" s="36"/>
-      <c r="J37" s="31"/>
+      <c r="J37" s="48" t="s">
+        <v>220</v>
+      </c>
       <c r="K37" s="48"/>
-      <c r="L37" s="52"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="16">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="52"/>
+      <c r="D38" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" s="48"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
@@ -4157,24 +4184,22 @@
         <v>35</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="G39" s="32"/>
+        <v>242</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="32" t="s">
+        <v>244</v>
+      </c>
       <c r="H39" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>278</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I39" s="36"/>
       <c r="J39" s="31"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="52"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
@@ -4182,25 +4207,23 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D40" s="53" t="s">
-        <v>270</v>
+      <c r="D40" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>272</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F40" s="40"/>
       <c r="G40" s="32" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="31"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="52"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -4213,7 +4236,7 @@
       <c r="I41" s="36"/>
       <c r="J41" s="31"/>
       <c r="K41" s="48"/>
-      <c r="L41" s="52"/>
+      <c r="L41" s="50"/>
     </row>
     <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -4226,7 +4249,7 @@
       <c r="I42" s="36"/>
       <c r="J42" s="31"/>
       <c r="K42" s="48"/>
-      <c r="L42" s="52"/>
+      <c r="L42" s="50"/>
     </row>
     <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
@@ -4241,7 +4264,7 @@
       <c r="I43" s="36"/>
       <c r="J43" s="47"/>
       <c r="K43" s="47"/>
-      <c r="L43" s="52"/>
+      <c r="L43" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4280,145 +4303,146 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="F17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="I17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="H17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I5" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G5" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H5" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G23" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G18" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I21" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G24" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H24" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I23" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G25" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H25" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K26" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I24" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H8" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H27" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G27" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F22" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F24" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G28" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F28" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G29" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H29" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G30" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G31" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H30" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H31" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F31" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I32" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F32" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I10" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F25" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F30" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H10" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G10" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H15" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G15" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G14" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H14" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F15" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I30" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H7" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G9" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H9" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I25" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G19" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H19" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G24" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H24" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K24" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G8" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F25" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F9" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F8" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G23" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H23" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I23" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F23" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G31" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H31" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G10" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H10" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H37" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F37" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I26" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F26" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F19" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G12" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H38" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G38" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G5" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H5" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F38" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I10" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="F43" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="G33" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F29" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="G34" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H34" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="I8" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J6" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J31" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J25" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I25" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F35" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G35" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H35" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="G36" r:id="rId106" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H36" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F36" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="G37" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="G38" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H37" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H38" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G11" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="G12" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H11" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H12" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F39" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H39" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I29" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F40" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G40" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="H40" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="I15" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F33" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="H33" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="I39" r:id="rId126" xr:uid="{E2BE2773-B928-483C-952C-62CF9BF4ED77}"/>
-    <hyperlink ref="I36" r:id="rId127" xr:uid="{1A5302DA-FFAF-4E0F-886E-B13A9E1B8E9B}"/>
-    <hyperlink ref="I33" r:id="rId128" xr:uid="{6DAC876B-AA60-4BF1-9ABC-74EEFDA744E0}"/>
-    <hyperlink ref="F34" r:id="rId129" xr:uid="{D8F38B50-D616-42EB-B42D-07FBBE28DFA3}"/>
+    <hyperlink ref="G28" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F31" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G6" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H6" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I34" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J33" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J37" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J19" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I19" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F30" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G30" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H30" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G21" r:id="rId106" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H21" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F21" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G39" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G40" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H39" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H40" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G35" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G36" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H35" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H36" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F14" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H14" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I31" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F11" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G11" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H11" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I38" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F28" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="H28" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I14" r:id="rId126" xr:uid="{E2BE2773-B928-483C-952C-62CF9BF4ED77}"/>
+    <hyperlink ref="I21" r:id="rId127" xr:uid="{1A5302DA-FFAF-4E0F-886E-B13A9E1B8E9B}"/>
+    <hyperlink ref="I28" r:id="rId128" xr:uid="{6DAC876B-AA60-4BF1-9ABC-74EEFDA744E0}"/>
+    <hyperlink ref="F6" r:id="rId129" xr:uid="{D8F38B50-D616-42EB-B42D-07FBBE28DFA3}"/>
+    <hyperlink ref="F5" r:id="rId130" xr:uid="{4D432838-DAE3-4324-8673-3AD3C959DD8D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId130"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId131"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId131"/>
+  <drawing r:id="rId132"/>
   <tableParts count="1">
-    <tablePart r:id="rId132"/>
+    <tablePart r:id="rId133"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4457,10 +4481,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4500,11 +4524,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -5004,7 +5028,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A79DE-8CD4-4F33-97CA-B0282A17FA48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A633A-9043-4A19-948A-22AE36919DF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="291">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Чертеж Крис1а</t>
   </si>
   <si>
-    <t>Чертежи деталей ф-та Крис1а</t>
-  </si>
-  <si>
     <t>Карты замеров Крис1а</t>
   </si>
   <si>
@@ -902,6 +899,18 @@
   </si>
   <si>
     <t>Паспорт XXI-КПМ-26-4-500-10 Айс Куб</t>
+  </si>
+  <si>
+    <t>Уехали</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Сябры 0,5 л.</t>
+  </si>
+  <si>
+    <t>Формокомплекты\Заявки на изготовление\Шапка.xlsx</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Франкония МСА 0.5 л.</t>
   </si>
 </sst>
 </file>
@@ -914,7 +923,7 @@
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,8 +1057,14 @@
       <charset val="204"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,6 +1093,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.89996032593768116"/>
         <bgColor theme="6" tint="0.79961546678060247"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1164,7 +1185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,32 +1339,71 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2620,7 +2680,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="630515"/>
-          <a:ext cx="20051442" cy="93385"/>
+          <a:ext cx="20194317" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2882,8 +2942,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L43" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L44" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B5:L43">
     <sortCondition ref="E4:E43"/>
   </sortState>
@@ -3156,13 +3216,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3176,7 +3236,7 @@
     <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" customWidth="1"/>
@@ -3203,11 +3263,11 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
@@ -3225,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>5</v>
@@ -3243,7 +3303,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3258,13 +3318,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G5" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>206</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="22" t="s">
@@ -3276,23 +3336,23 @@
     <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
       <c r="C6" s="16">
-        <f>C5+1</f>
+        <f t="shared" ref="C6:C19" si="0">C5+1</f>
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>216</v>
-      </c>
       <c r="H6" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
@@ -3302,7 +3362,7 @@
     <row r="7" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="16">
-        <f>C6+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="34" t="s">
@@ -3330,23 +3390,23 @@
     <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="16">
-        <f>C7+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>161</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
@@ -3356,7 +3416,7 @@
     <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="16">
-        <f>C8+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="34" t="s">
@@ -3366,7 +3426,7 @@
         <v>142</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>140</v>
@@ -3375,7 +3435,7 @@
         <v>141</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="22"/>
@@ -3384,26 +3444,26 @@
     <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="16">
-        <f>C9+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>184</v>
-      </c>
       <c r="H10" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="22"/>
@@ -3412,23 +3472,23 @@
     <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="16">
-        <f>C10+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="F11" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="G11" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>273</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="37"/>
@@ -3438,7 +3498,7 @@
     <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="16">
-        <f>C11+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -3451,13 +3511,13 @@
         <v>54</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="23"/>
@@ -3466,7 +3526,7 @@
     <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
-        <f>C12+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -3476,7 +3536,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>137</v>
@@ -3494,24 +3554,24 @@
     <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="16">
-        <f>C13+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="F14" s="25" t="s">
         <v>254</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>255</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="22"/>
@@ -3520,7 +3580,7 @@
     <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="16">
-        <f>C14+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" s="34" t="s">
@@ -3530,12 +3590,12 @@
         <v>134</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>136</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -3548,7 +3608,7 @@
     <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="16">
-        <f>C15+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -3576,7 +3636,7 @@
     <row r="17" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
-        <f>C16+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3604,7 +3664,7 @@
     <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="16">
-        <f>C17+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -3632,17 +3692,17 @@
     <row r="19" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="16">
-        <f>C18+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="51" t="s">
         <v>146</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>147</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>148</v>
@@ -3651,10 +3711,10 @@
         <v>149</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="50"/>
@@ -3662,13 +3722,13 @@
     <row r="20" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="16">
-        <f t="shared" ref="C20:C40" si="0">C19+1</f>
+        <f t="shared" ref="C20:C40" si="1">C19+1</f>
         <v>16</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="32" t="s">
@@ -3681,37 +3741,37 @@
         <v>117</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J20" s="48"/>
-      <c r="K20" s="59"/>
+      <c r="K20" s="58"/>
       <c r="L20" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D21" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="F21" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>232</v>
-      </c>
       <c r="I21" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="22"/>
@@ -3720,7 +3780,7 @@
     <row r="22" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -3748,26 +3808,26 @@
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D23" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="32" t="s">
+      <c r="H23" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="I23" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>176</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="48"/>
@@ -3776,7 +3836,7 @@
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D24" s="28" t="s">
@@ -3790,29 +3850,29 @@
         <v>152</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="31"/>
       <c r="K24" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L24" s="50"/>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="C25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>130</v>
       </c>
       <c r="E25" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>168</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>169</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>131</v>
@@ -3830,22 +3890,22 @@
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>192</v>
-      </c>
       <c r="F26" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="30"/>
       <c r="I26" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="48"/>
@@ -3854,48 +3914,48 @@
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="58"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="20"/>
       <c r="J27" s="48"/>
-      <c r="K27" s="59"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="50"/>
     </row>
     <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>213</v>
-      </c>
       <c r="F28" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="48"/>
@@ -3904,13 +3964,13 @@
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="53" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="32" t="s">
@@ -3926,31 +3986,33 @@
         <v>87</v>
       </c>
       <c r="J29" s="48"/>
-      <c r="K29" s="59"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="50"/>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="F30" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="G30" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="H30" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="H30" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="I30" s="36"/>
+      <c r="I30" s="21" t="s">
+        <v>288</v>
+      </c>
       <c r="J30" s="31"/>
       <c r="K30" s="48"/>
       <c r="L30" s="50"/>
@@ -3958,26 +4020,26 @@
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="32" t="s">
+      <c r="H31" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>181</v>
-      </c>
       <c r="I31" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J31" s="31"/>
       <c r="K31" s="48"/>
@@ -3986,13 +4048,13 @@
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="53" t="s">
         <v>78</v>
       </c>
       <c r="F32" s="32" t="s">
@@ -4008,19 +4070,19 @@
         <v>80</v>
       </c>
       <c r="J32" s="48"/>
-      <c r="K32" s="59"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="50"/>
     </row>
     <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="53" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="32" t="s">
@@ -4036,115 +4098,117 @@
         <v>88</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="K33" s="59"/>
+        <v>218</v>
+      </c>
+      <c r="K33" s="58"/>
       <c r="L33" s="50"/>
     </row>
     <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="53" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="G34" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H34" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="I34" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J34" s="48"/>
-      <c r="K34" s="59"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="50"/>
     </row>
     <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="53" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="I35" s="20"/>
+        <v>250</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>290</v>
+      </c>
       <c r="J35" s="48"/>
-      <c r="K35" s="59"/>
+      <c r="K35" s="58"/>
       <c r="L35" s="50"/>
     </row>
     <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="60" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="48"/>
-      <c r="K36" s="59"/>
+      <c r="K36" s="58"/>
       <c r="L36" s="50"/>
     </row>
     <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D37" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="F37" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F37" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>187</v>
-      </c>
       <c r="H37" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="50"/>
@@ -4152,49 +4216,49 @@
     <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="55" t="s">
-        <v>203</v>
-      </c>
       <c r="I38" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J38" s="48"/>
-      <c r="K38" s="55"/>
+      <c r="K38" s="54"/>
       <c r="L38" s="50"/>
     </row>
     <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D39" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>242</v>
       </c>
       <c r="F39" s="40"/>
       <c r="G39" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="31"/>
@@ -4204,21 +4268,21 @@
     <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="31"/>
@@ -4257,7 +4321,7 @@
       <c r="D43" s="43"/>
       <c r="E43" s="44"/>
       <c r="F43" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G43" s="45"/>
       <c r="H43" s="46"/>
@@ -4266,11 +4330,28 @@
       <c r="K43" s="47"/>
       <c r="L43" s="50"/>
     </row>
+    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:K43">
+  <conditionalFormatting sqref="C5:K44">
     <cfRule type="expression" dxfId="32" priority="85">
       <formula>$B5=1</formula>
     </cfRule>
@@ -4278,7 +4359,7 @@
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L43">
+  <conditionalFormatting sqref="L5:L44">
     <cfRule type="expression" dxfId="30" priority="1">
       <formula>$B5=1</formula>
     </cfRule>
@@ -4360,7 +4441,7 @@
     <hyperlink ref="G19" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="H19" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="G24" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H24" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H24" r:id="rId58" display="Чертежи деталей ф-та Крис1а" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="K24" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="I9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="G34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
@@ -4433,16 +4514,19 @@
     <hyperlink ref="I28" r:id="rId128" xr:uid="{6DAC876B-AA60-4BF1-9ABC-74EEFDA744E0}"/>
     <hyperlink ref="F6" r:id="rId129" xr:uid="{D8F38B50-D616-42EB-B42D-07FBBE28DFA3}"/>
     <hyperlink ref="F5" r:id="rId130" xr:uid="{4D432838-DAE3-4324-8673-3AD3C959DD8D}"/>
+    <hyperlink ref="I30" r:id="rId131" xr:uid="{A8D0557D-CFB0-4E4B-B9F1-0630F77C897F}"/>
+    <hyperlink ref="J44" r:id="rId132" xr:uid="{134082C3-56FE-417E-B6D1-44D6895B69A4}"/>
+    <hyperlink ref="I35" r:id="rId133" xr:uid="{64984F45-8D25-43B4-B4B8-1E22F98A441B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId131"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId134"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId132"/>
+  <drawing r:id="rId135"/>
   <tableParts count="1">
-    <tablePart r:id="rId133"/>
+    <tablePart r:id="rId136"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4464,7 +4548,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B43</xm:sqref>
+          <xm:sqref>B5:B44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4484,7 +4568,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4524,11 +4608,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -4627,10 +4711,10 @@
         <v>32</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
@@ -4653,10 +4737,10 @@
         <v>32</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
@@ -4679,10 +4763,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>223</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
@@ -4732,7 +4816,7 @@
         <v>64</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>65</v>
@@ -4756,22 +4840,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>237</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
@@ -4784,19 +4868,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -4810,19 +4894,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
@@ -4836,19 +4920,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -5028,7 +5112,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5050,7 +5134,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5058,17 +5142,17 @@
         <v>98</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5117,7 +5201,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5137,7 +5221,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A633A-9043-4A19-948A-22AE36919DF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
     <definedName name="ЗаголовокСтолбца1" localSheetId="1">ИнвентарнаяВедомость4[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
     <definedName name="ЗаголовокСтолбца1">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -916,14 +910,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,17 +1401,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Валюта таблицы" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Валюта таблицы" xfId="4"/>
     <cellStyle name="Гиперссылка" xfId="10" builtinId="8"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="9" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Отменено" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Сведения таблицы слева" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Сведения таблицы справа" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Столбец с отметкой" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Отменено" xfId="6"/>
+    <cellStyle name="Сведения таблицы слева" xfId="7"/>
+    <cellStyle name="Сведения таблицы справа" xfId="5"/>
+    <cellStyle name="Столбец с отметкой" xfId="8"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1443,7 +1437,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1488,7 +1482,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1533,7 +1527,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1563,7 +1557,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1608,7 +1602,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1653,7 +1647,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1698,7 +1692,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1743,7 +1737,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1784,7 +1778,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1829,7 +1823,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1874,7 +1868,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1919,7 +1913,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1943,7 +1937,7 @@
           <bgColor rgb="FFE6E8EA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1968,7 +1962,7 @@
           <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color theme="0"/>
@@ -2023,7 +2017,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2068,7 +2062,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2113,7 +2107,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2158,7 +2152,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2203,7 +2197,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2248,7 +2242,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2293,7 +2287,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2334,7 +2328,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2379,7 +2373,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2424,7 +2418,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2469,7 +2463,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2493,7 +2487,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2518,7 +2512,7 @@
           <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color theme="0"/>
@@ -2634,7 +2628,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Инвентарный список" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Инвентарный список" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="35"/>
       <tableStyleElement type="headerRow" dxfId="34"/>
       <tableStyleElement type="firstColumn" dxfId="33"/>
@@ -2671,7 +2665,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2684,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2744,7 +2738,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2816,7 +2810,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2829,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2889,7 +2883,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2942,44 +2936,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L44" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L44" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L44"/>
   <sortState ref="B5:L43">
     <sortCondition ref="E4:E43"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Спецификация по заказу" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Акт приемки" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Примичания" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Примичания" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:M18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:M18"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Чертеж изделия" dataDxfId="6" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Чертежи деталей формоеоклекта" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="15" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="5" name="Чертеж изделия" dataDxfId="6" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3211,21 +3205,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
@@ -3242,7 +3236,7 @@
     <col min="13" max="13" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="3"/>
       <c r="C1" s="12" t="s">
@@ -3258,11 +3252,11 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="12" customHeight="1">
       <c r="I2" s="1"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="12" customHeight="1">
       <c r="C3" s="72" t="s">
         <v>23</v>
       </c>
@@ -3271,7 +3265,7 @@
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="15.75">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3300,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <v>1</v>
@@ -3333,7 +3327,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="50"/>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B6" s="27"/>
       <c r="C6" s="16">
         <f t="shared" ref="C6:C19" si="0">C5+1</f>
@@ -3359,7 +3353,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="50"/>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B7" s="33"/>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
@@ -3387,7 +3381,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="50"/>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B8" s="27"/>
       <c r="C8" s="16">
         <f t="shared" si="0"/>
@@ -3413,7 +3407,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="50"/>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B9" s="27"/>
       <c r="C9" s="16">
         <f t="shared" si="0"/>
@@ -3441,7 +3435,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="50"/>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B10" s="27"/>
       <c r="C10" s="16">
         <f t="shared" si="0"/>
@@ -3469,7 +3463,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="50"/>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B11" s="27"/>
       <c r="C11" s="16">
         <f t="shared" si="0"/>
@@ -3495,7 +3489,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="50"/>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B12" s="10"/>
       <c r="C12" s="16">
         <f t="shared" si="0"/>
@@ -3523,7 +3517,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="50"/>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f t="shared" si="0"/>
@@ -3551,7 +3545,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="50"/>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B14" s="27"/>
       <c r="C14" s="16">
         <f t="shared" si="0"/>
@@ -3577,7 +3571,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="50"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B15" s="27"/>
       <c r="C15" s="16">
         <f t="shared" si="0"/>
@@ -3605,7 +3599,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="50"/>
     </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="15">
       <c r="B16" s="10"/>
       <c r="C16" s="16">
         <f t="shared" si="0"/>
@@ -3633,7 +3627,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="50"/>
     </row>
-    <row r="17" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" s="9" customFormat="1" ht="15">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f t="shared" si="0"/>
@@ -3661,7 +3655,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="50"/>
     </row>
-    <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="9" customFormat="1" ht="15">
       <c r="B18" s="27"/>
       <c r="C18" s="16">
         <f t="shared" si="0"/>
@@ -3689,7 +3683,7 @@
       <c r="K18" s="37"/>
       <c r="L18" s="50"/>
     </row>
-    <row r="19" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" s="9" customFormat="1" ht="15">
       <c r="B19" s="27"/>
       <c r="C19" s="16">
         <f t="shared" si="0"/>
@@ -3719,7 +3713,7 @@
       <c r="K19" s="48"/>
       <c r="L19" s="50"/>
     </row>
-    <row r="20" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="9" customFormat="1" ht="15">
       <c r="B20" s="10"/>
       <c r="C20" s="16">
         <f t="shared" ref="C20:C40" si="1">C19+1</f>
@@ -3749,7 +3743,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" s="9" customFormat="1" ht="15">
       <c r="B21" s="27"/>
       <c r="C21" s="16">
         <f t="shared" si="1"/>
@@ -3777,7 +3771,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="50"/>
     </row>
-    <row r="22" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" s="9" customFormat="1" ht="15">
       <c r="B22" s="27"/>
       <c r="C22" s="16">
         <f t="shared" si="1"/>
@@ -3805,7 +3799,7 @@
       <c r="K22" s="37"/>
       <c r="L22" s="50"/>
     </row>
-    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="27"/>
       <c r="C23" s="16">
         <f t="shared" si="1"/>
@@ -3833,7 +3827,7 @@
       <c r="K23" s="48"/>
       <c r="L23" s="50"/>
     </row>
-    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="27"/>
       <c r="C24" s="16">
         <f t="shared" si="1"/>
@@ -3859,7 +3853,7 @@
       </c>
       <c r="L24" s="50"/>
     </row>
-    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="33"/>
       <c r="C25" s="16">
         <f t="shared" si="1"/>
@@ -3887,7 +3881,7 @@
       <c r="K25" s="48"/>
       <c r="L25" s="50"/>
     </row>
-    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="27"/>
       <c r="C26" s="16">
         <f t="shared" si="1"/>
@@ -3911,7 +3905,7 @@
       <c r="K26" s="48"/>
       <c r="L26" s="50"/>
     </row>
-    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="10"/>
       <c r="C27" s="16">
         <f t="shared" si="1"/>
@@ -3933,7 +3927,7 @@
       <c r="K27" s="58"/>
       <c r="L27" s="50"/>
     </row>
-    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="27"/>
       <c r="C28" s="16">
         <f t="shared" si="1"/>
@@ -3961,7 +3955,7 @@
       <c r="K28" s="48"/>
       <c r="L28" s="50"/>
     </row>
-    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="10"/>
       <c r="C29" s="16">
         <f t="shared" si="1"/>
@@ -3989,7 +3983,7 @@
       <c r="K29" s="58"/>
       <c r="L29" s="50"/>
     </row>
-    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="27"/>
       <c r="C30" s="16">
         <f t="shared" si="1"/>
@@ -4017,7 +4011,7 @@
       <c r="K30" s="48"/>
       <c r="L30" s="50"/>
     </row>
-    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="27"/>
       <c r="C31" s="16">
         <f t="shared" si="1"/>
@@ -4045,7 +4039,7 @@
       <c r="K31" s="48"/>
       <c r="L31" s="50"/>
     </row>
-    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="10"/>
       <c r="C32" s="16">
         <f t="shared" si="1"/>
@@ -4073,7 +4067,7 @@
       <c r="K32" s="58"/>
       <c r="L32" s="50"/>
     </row>
-    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="10"/>
       <c r="C33" s="16">
         <f t="shared" si="1"/>
@@ -4103,7 +4097,7 @@
       <c r="K33" s="58"/>
       <c r="L33" s="50"/>
     </row>
-    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="10"/>
       <c r="C34" s="16">
         <f t="shared" si="1"/>
@@ -4131,7 +4125,7 @@
       <c r="K34" s="58"/>
       <c r="L34" s="50"/>
     </row>
-    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="10"/>
       <c r="C35" s="16">
         <f t="shared" si="1"/>
@@ -4159,7 +4153,7 @@
       <c r="K35" s="58"/>
       <c r="L35" s="50"/>
     </row>
-    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="10"/>
       <c r="C36" s="16">
         <f t="shared" si="1"/>
@@ -4185,7 +4179,7 @@
       <c r="K36" s="58"/>
       <c r="L36" s="50"/>
     </row>
-    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="27"/>
       <c r="C37" s="16">
         <f t="shared" si="1"/>
@@ -4213,7 +4207,7 @@
       <c r="K37" s="48"/>
       <c r="L37" s="50"/>
     </row>
-    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="10"/>
       <c r="C38" s="16">
         <f t="shared" si="1"/>
@@ -4241,7 +4235,7 @@
       <c r="K38" s="54"/>
       <c r="L38" s="50"/>
     </row>
-    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="27"/>
       <c r="C39" s="16">
         <f t="shared" si="1"/>
@@ -4265,7 +4259,7 @@
       <c r="K39" s="48"/>
       <c r="L39" s="50"/>
     </row>
-    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="27"/>
       <c r="C40" s="16">
         <f t="shared" si="1"/>
@@ -4289,7 +4283,7 @@
       <c r="K40" s="48"/>
       <c r="L40" s="50"/>
     </row>
-    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="27"/>
       <c r="C41" s="16"/>
       <c r="D41" s="28"/>
@@ -4302,7 +4296,7 @@
       <c r="K41" s="48"/>
       <c r="L41" s="50"/>
     </row>
-    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="27"/>
       <c r="C42" s="16"/>
       <c r="D42" s="28"/>
@@ -4315,7 +4309,7 @@
       <c r="K42" s="48"/>
       <c r="L42" s="50"/>
     </row>
-    <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
       <c r="D43" s="43"/>
@@ -4330,7 +4324,7 @@
       <c r="K43" s="47"/>
       <c r="L43" s="50"/>
     </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="30" customHeight="1">
       <c r="B44" s="63"/>
       <c r="C44" s="64"/>
       <c r="D44" s="71" t="s">
@@ -4368,155 +4362,155 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H7" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G9" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H9" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I25" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G19" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H19" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G24" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H24" r:id="rId58" display="Чертежи деталей ф-та Крис1а" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K24" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G8" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F25" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F9" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F8" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G23" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H23" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I23" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F23" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G31" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H31" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G10" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H10" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H37" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F37" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I26" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F26" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F19" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G12" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H38" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G38" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G5" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H5" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F38" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I10" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F43" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="G28" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F31" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="G6" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H6" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="I34" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J33" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J37" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J19" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I19" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F30" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G30" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H30" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="G21" r:id="rId106" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H21" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F21" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="G39" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="G40" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H39" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H40" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G35" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="G36" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H35" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H36" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F14" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H14" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I31" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F11" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G11" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="H11" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="I38" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F28" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="H28" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="I14" r:id="rId126" xr:uid="{E2BE2773-B928-483C-952C-62CF9BF4ED77}"/>
-    <hyperlink ref="I21" r:id="rId127" xr:uid="{1A5302DA-FFAF-4E0F-886E-B13A9E1B8E9B}"/>
-    <hyperlink ref="I28" r:id="rId128" xr:uid="{6DAC876B-AA60-4BF1-9ABC-74EEFDA744E0}"/>
-    <hyperlink ref="F6" r:id="rId129" xr:uid="{D8F38B50-D616-42EB-B42D-07FBBE28DFA3}"/>
-    <hyperlink ref="F5" r:id="rId130" xr:uid="{4D432838-DAE3-4324-8673-3AD3C959DD8D}"/>
-    <hyperlink ref="I30" r:id="rId131" xr:uid="{A8D0557D-CFB0-4E4B-B9F1-0630F77C897F}"/>
-    <hyperlink ref="J44" r:id="rId132" xr:uid="{134082C3-56FE-417E-B6D1-44D6895B69A4}"/>
-    <hyperlink ref="I35" r:id="rId133" xr:uid="{64984F45-8D25-43B4-B4B8-1E22F98A441B}"/>
+    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="F20" r:id="rId5"/>
+    <hyperlink ref="F33" r:id="rId6"/>
+    <hyperlink ref="F29" r:id="rId7"/>
+    <hyperlink ref="F34" r:id="rId8"/>
+    <hyperlink ref="F27" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F36" r:id="rId11"/>
+    <hyperlink ref="F35" r:id="rId12"/>
+    <hyperlink ref="F16" r:id="rId13"/>
+    <hyperlink ref="I16" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="H16" r:id="rId16"/>
+    <hyperlink ref="F32" r:id="rId17"/>
+    <hyperlink ref="I32" r:id="rId18"/>
+    <hyperlink ref="G32" r:id="rId19"/>
+    <hyperlink ref="H32" r:id="rId20"/>
+    <hyperlink ref="G29" r:id="rId21"/>
+    <hyperlink ref="H29" r:id="rId22"/>
+    <hyperlink ref="I29" r:id="rId23"/>
+    <hyperlink ref="I33" r:id="rId24"/>
+    <hyperlink ref="G33" r:id="rId25"/>
+    <hyperlink ref="H33" r:id="rId26"/>
+    <hyperlink ref="F17" r:id="rId27"/>
+    <hyperlink ref="I17" r:id="rId28"/>
+    <hyperlink ref="G17" r:id="rId29"/>
+    <hyperlink ref="H17" r:id="rId30"/>
+    <hyperlink ref="F18" r:id="rId31"/>
+    <hyperlink ref="I18" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="H18" r:id="rId34"/>
+    <hyperlink ref="I20" r:id="rId35"/>
+    <hyperlink ref="I22" r:id="rId36"/>
+    <hyperlink ref="F22" r:id="rId37"/>
+    <hyperlink ref="G22" r:id="rId38"/>
+    <hyperlink ref="H22" r:id="rId39"/>
+    <hyperlink ref="G20" r:id="rId40"/>
+    <hyperlink ref="H20" r:id="rId41"/>
+    <hyperlink ref="G7" r:id="rId42"/>
+    <hyperlink ref="H7" r:id="rId43"/>
+    <hyperlink ref="F7" r:id="rId44"/>
+    <hyperlink ref="G25" r:id="rId45"/>
+    <hyperlink ref="H25" r:id="rId46"/>
+    <hyperlink ref="G15" r:id="rId47"/>
+    <hyperlink ref="H15" r:id="rId48"/>
+    <hyperlink ref="G13" r:id="rId49"/>
+    <hyperlink ref="I7" r:id="rId50"/>
+    <hyperlink ref="G9" r:id="rId51"/>
+    <hyperlink ref="H9" r:id="rId52"/>
+    <hyperlink ref="I15" r:id="rId53"/>
+    <hyperlink ref="I25" r:id="rId54"/>
+    <hyperlink ref="G19" r:id="rId55"/>
+    <hyperlink ref="H19" r:id="rId56"/>
+    <hyperlink ref="G24" r:id="rId57"/>
+    <hyperlink ref="H24" r:id="rId58" display="Чертежи деталей ф-та Крис1а"/>
+    <hyperlink ref="K24" r:id="rId59"/>
+    <hyperlink ref="I9" r:id="rId60"/>
+    <hyperlink ref="G34" r:id="rId61"/>
+    <hyperlink ref="H34" r:id="rId62"/>
+    <hyperlink ref="H8" r:id="rId63"/>
+    <hyperlink ref="G8" r:id="rId64"/>
+    <hyperlink ref="F25" r:id="rId65"/>
+    <hyperlink ref="F15" r:id="rId66"/>
+    <hyperlink ref="F9" r:id="rId67"/>
+    <hyperlink ref="F8" r:id="rId68"/>
+    <hyperlink ref="G23" r:id="rId69"/>
+    <hyperlink ref="H23" r:id="rId70"/>
+    <hyperlink ref="I23" r:id="rId71"/>
+    <hyperlink ref="F23" r:id="rId72"/>
+    <hyperlink ref="G31" r:id="rId73"/>
+    <hyperlink ref="H31" r:id="rId74"/>
+    <hyperlink ref="G10" r:id="rId75"/>
+    <hyperlink ref="G37" r:id="rId76"/>
+    <hyperlink ref="H10" r:id="rId77"/>
+    <hyperlink ref="H37" r:id="rId78"/>
+    <hyperlink ref="F37" r:id="rId79"/>
+    <hyperlink ref="I26" r:id="rId80"/>
+    <hyperlink ref="F26" r:id="rId81"/>
+    <hyperlink ref="I12" r:id="rId82"/>
+    <hyperlink ref="F19" r:id="rId83"/>
+    <hyperlink ref="F10" r:id="rId84"/>
+    <hyperlink ref="H12" r:id="rId85"/>
+    <hyperlink ref="G12" r:id="rId86"/>
+    <hyperlink ref="H38" r:id="rId87"/>
+    <hyperlink ref="G38" r:id="rId88"/>
+    <hyperlink ref="G5" r:id="rId89"/>
+    <hyperlink ref="H5" r:id="rId90"/>
+    <hyperlink ref="F38" r:id="rId91"/>
+    <hyperlink ref="I10" r:id="rId92"/>
+    <hyperlink ref="F43" r:id="rId93"/>
+    <hyperlink ref="G28" r:id="rId94"/>
+    <hyperlink ref="F31" r:id="rId95"/>
+    <hyperlink ref="G6" r:id="rId96"/>
+    <hyperlink ref="H6" r:id="rId97"/>
+    <hyperlink ref="I34" r:id="rId98"/>
+    <hyperlink ref="J33" r:id="rId99"/>
+    <hyperlink ref="J37" r:id="rId100"/>
+    <hyperlink ref="J19" r:id="rId101"/>
+    <hyperlink ref="I19" r:id="rId102"/>
+    <hyperlink ref="F30" r:id="rId103"/>
+    <hyperlink ref="G30" r:id="rId104"/>
+    <hyperlink ref="H30" r:id="rId105"/>
+    <hyperlink ref="G21" r:id="rId106" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)"/>
+    <hyperlink ref="H21" r:id="rId107"/>
+    <hyperlink ref="F21" r:id="rId108"/>
+    <hyperlink ref="G39" r:id="rId109"/>
+    <hyperlink ref="G40" r:id="rId110"/>
+    <hyperlink ref="H39" r:id="rId111"/>
+    <hyperlink ref="H40" r:id="rId112"/>
+    <hyperlink ref="G35" r:id="rId113"/>
+    <hyperlink ref="G36" r:id="rId114"/>
+    <hyperlink ref="H35" r:id="rId115"/>
+    <hyperlink ref="H36" r:id="rId116"/>
+    <hyperlink ref="F14" r:id="rId117"/>
+    <hyperlink ref="H14" r:id="rId118"/>
+    <hyperlink ref="I31" r:id="rId119"/>
+    <hyperlink ref="F11" r:id="rId120"/>
+    <hyperlink ref="G11" r:id="rId121"/>
+    <hyperlink ref="H11" r:id="rId122"/>
+    <hyperlink ref="I38" r:id="rId123"/>
+    <hyperlink ref="F28" r:id="rId124"/>
+    <hyperlink ref="H28" r:id="rId125"/>
+    <hyperlink ref="I14" r:id="rId126"/>
+    <hyperlink ref="I21" r:id="rId127"/>
+    <hyperlink ref="I28" r:id="rId128"/>
+    <hyperlink ref="F6" r:id="rId129"/>
+    <hyperlink ref="F5" r:id="rId130"/>
+    <hyperlink ref="I30" r:id="rId131"/>
+    <hyperlink ref="J44" r:id="rId132"/>
+    <hyperlink ref="I35" r:id="rId133"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
@@ -4557,21 +4551,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1">
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
@@ -4589,7 +4583,7 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="49.5" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="3"/>
       <c r="C1" s="12" t="s">
@@ -4606,15 +4600,15 @@
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="12" customHeight="1"/>
+    <row r="3" spans="1:13" ht="12" customHeight="1">
       <c r="C3" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -4652,7 +4646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <v>1</v>
@@ -4674,7 +4668,7 @@
       <c r="L5" s="23"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B6" s="10"/>
       <c r="C6" s="16">
         <v>2</v>
@@ -4696,7 +4690,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <v>3</v>
@@ -4722,7 +4716,7 @@
       <c r="L7" s="23"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B8" s="10"/>
       <c r="C8" s="16">
         <v>4</v>
@@ -4748,7 +4742,7 @@
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <v>5</v>
@@ -4774,7 +4768,7 @@
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B10" s="10"/>
       <c r="C10" s="16">
         <v>6</v>
@@ -4804,7 +4798,7 @@
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <v>7</v>
@@ -4834,7 +4828,7 @@
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B12" s="10"/>
       <c r="C12" s="16">
         <v>8</v>
@@ -4862,7 +4856,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <v>9</v>
@@ -4888,7 +4882,7 @@
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B14" s="10"/>
       <c r="C14" s="16">
         <v>10</v>
@@ -4914,7 +4908,7 @@
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <v>11</v>
@@ -4940,7 +4934,7 @@
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="B16" s="10"/>
       <c r="C16" s="16">
         <v>12</v>
@@ -4956,7 +4950,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" s="9" customFormat="1" ht="15">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <v>13</v>
@@ -4972,7 +4966,7 @@
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="9" customFormat="1" ht="15">
       <c r="B18" s="10"/>
       <c r="C18" s="16">
         <v>14</v>
@@ -4988,7 +4982,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" s="9" customFormat="1" ht="15">
       <c r="B19" s="10"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
@@ -5002,7 +4996,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:13" ht="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
@@ -5016,57 +5010,57 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите &quot;Да&quot;, если позиция была отменена. При вводе варианта &quot;Да&quot; соответствующая строка выделяется светло-серым цветом, а стиль шрифта изменяется на зачеркнутый." sqref="M4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите &quot;Да&quot;, если позиция была отменена. При вводе варианта &quot;Да&quot; соответствующая строка выделяется светло-серым цветом, а стиль шрифта изменяется на зачеркнутый." sqref="M4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="I10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="J10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H7" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H8" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="G7" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G8" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H9" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="F12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="I12" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="G12" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H12" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="G13" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="G14" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="G15" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="H13" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="H14" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="H15" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="F13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="F14:F15" r:id="rId33" display="Лампада_1_2_3" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="J11" r:id="rId11"/>
+    <hyperlink ref="I10" r:id="rId12"/>
+    <hyperlink ref="G10" r:id="rId13"/>
+    <hyperlink ref="H10" r:id="rId14"/>
+    <hyperlink ref="J10" r:id="rId15"/>
+    <hyperlink ref="H7" r:id="rId16"/>
+    <hyperlink ref="H8" r:id="rId17"/>
+    <hyperlink ref="G7" r:id="rId18"/>
+    <hyperlink ref="G8" r:id="rId19"/>
+    <hyperlink ref="G9" r:id="rId20"/>
+    <hyperlink ref="H9" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22"/>
+    <hyperlink ref="I12" r:id="rId23"/>
+    <hyperlink ref="G12" r:id="rId24"/>
+    <hyperlink ref="H12" r:id="rId25"/>
+    <hyperlink ref="G13" r:id="rId26"/>
+    <hyperlink ref="G14" r:id="rId27"/>
+    <hyperlink ref="G15" r:id="rId28"/>
+    <hyperlink ref="H13" r:id="rId29"/>
+    <hyperlink ref="H14" r:id="rId30"/>
+    <hyperlink ref="H15" r:id="rId31"/>
+    <hyperlink ref="F13" r:id="rId32"/>
+    <hyperlink ref="F14:F15" r:id="rId33" display="Лампада_1_2_3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
@@ -5107,21 +5101,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="26" t="s">
         <v>94</v>
       </c>
@@ -5129,7 +5123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
@@ -5137,7 +5131,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -5145,17 +5139,17 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>61</v>
       </c>
@@ -5163,7 +5157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
         <v>86</v>
       </c>
@@ -5171,7 +5165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
         <v>97</v>
       </c>
@@ -5179,86 +5173,86 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3">
       <c r="C130">
         <v>4602</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="A3" r:id="rId10" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="A12" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B6" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="A14" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B15" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="B4" r:id="rId21" xr:uid="{0CB3F431-B8D5-40C8-8114-6B80AA983B0D}"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A3" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="A12" r:id="rId13"/>
+    <hyperlink ref="B6" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="B15" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="B4" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист3">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5268,9 +5262,9 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
@@ -5278,223 +5272,223 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="39">
         <v>1</v>
       </c>
       <c r="B2" s="38"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="39">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="39">
         <f t="shared" ref="A4:A33" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="38"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="39">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="39">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="39">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="38"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="38"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="38"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="38"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="39">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="39">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="39">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="39">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="39">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="39">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="38"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="38"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="39">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="38"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="39">
         <f t="shared" si="0"/>
         <v>32</v>

--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F8EF7-D582-4008-BA20-BC32052E7D2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Изделия.Бутылки" sheetId="1" r:id="rId1"/>
     <sheet name="Изделия.Банки" sheetId="3" r:id="rId2"/>
     <sheet name="Различные документы" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="СИЗы" sheetId="6" r:id="rId4"/>
+    <sheet name="СИЗы Костюмы" sheetId="7" r:id="rId5"/>
+    <sheet name="СИЗы Ботинки" sheetId="9" r:id="rId6"/>
+    <sheet name="Номера форм" sheetId="4" r:id="rId7"/>
+    <sheet name="Вставки" sheetId="5" r:id="rId8"/>
+    <sheet name="Машины работников" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="valHighlight" localSheetId="1">IFERROR(IF(Изделия.Банки!$F$1="да", TRUE, FALSE),FALSE)</definedName>
@@ -18,9 +29,16 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Изделия.Банки!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Изделия.Бутылки!$1:$4</definedName>
     <definedName name="ЗаголовокСтолбца1" localSheetId="1">ИнвентарнаяВедомость4[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
+    <definedName name="ЗаголовокСтолбца1" localSheetId="8">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
+    <definedName name="ЗаголовокСтолбца1" localSheetId="5">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
+    <definedName name="ЗаголовокСтолбца1" localSheetId="4">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
     <definedName name="ЗаголовокСтолбца1">ИнвентарнаяВедомость[[#Headers],[Отмеченные товары, которых нужно заказать повторно]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Машины работников'!$A$1:$E$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">СИЗы!$A$1:$J$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'СИЗы Ботинки'!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'СИЗы Костюмы'!$A$1:$G$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="398">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -100,9 +118,6 @@
     <t>Калина 0,35 л.</t>
   </si>
   <si>
-    <t>Паспорт Калина 0,35 л. Часть 1</t>
-  </si>
-  <si>
     <t>Бутылки</t>
   </si>
   <si>
@@ -163,18 +178,12 @@
     <t>Фляга 0,5 л.</t>
   </si>
   <si>
-    <t>Паспорт Фляга  0,2 л.</t>
-  </si>
-  <si>
     <t>XXI-КПМ-30-1-700</t>
   </si>
   <si>
     <t>Сваяк 0,7 л.</t>
   </si>
   <si>
-    <t>Паспорт Сваяк  0,7 л.</t>
-  </si>
-  <si>
     <t>XIII-В-28-2-500-4</t>
   </si>
   <si>
@@ -217,12 +226,6 @@
     <t>Паспорт Франкония 0,5 л.</t>
   </si>
   <si>
-    <t>Заявки на мат. ценности</t>
-  </si>
-  <si>
-    <t>Z:\Гавриленко А.Д</t>
-  </si>
-  <si>
     <t>III-2-82-450-1</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
     <t>Отчет о подготовке в производство Фляга 0.2 л.</t>
   </si>
   <si>
-    <t>Чертеж Фляга 0.2 л.</t>
-  </si>
-  <si>
     <t>Ф-т XIII-В-28-2-200-3 (Фляга 0.2 л.)</t>
   </si>
   <si>
@@ -361,9 +361,6 @@
     <t>Чертежи деталей Иван Купала</t>
   </si>
   <si>
-    <t>Заявки на изготовление</t>
-  </si>
-  <si>
     <t>XXI-В-28-2-500-28</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>Чертежи деталей ф-та Аквадив 0,35 л</t>
   </si>
   <si>
-    <t>Письма</t>
-  </si>
-  <si>
     <t>Заявки на отгрузку</t>
   </si>
   <si>
@@ -412,15 +406,9 @@
     <t>Обучение</t>
   </si>
   <si>
-    <t>Паспорт Аквадив 0.35 л.</t>
-  </si>
-  <si>
     <t>Сделано</t>
   </si>
   <si>
-    <t>Мат. отчет</t>
-  </si>
-  <si>
     <t>Документация</t>
   </si>
   <si>
@@ -463,9 +451,6 @@
     <t>Байрон 0.5 л.</t>
   </si>
   <si>
-    <t>Отчет о подготовке Ведьма 0.5 л.</t>
-  </si>
-  <si>
     <t>Отчет о подготовке Круглая 0.2 л.</t>
   </si>
   <si>
@@ -493,9 +478,6 @@
     <t>Чертеж Крис1а</t>
   </si>
   <si>
-    <t>Карты замеров Крис1а</t>
-  </si>
-  <si>
     <t>Отчет о подготовке Байрон</t>
   </si>
   <si>
@@ -505,9 +487,6 @@
     <t>Чертежи деталей ф-та Банка 1 л. twist</t>
   </si>
   <si>
-    <t>Чертеж Фляга 0,5</t>
-  </si>
-  <si>
     <t>Ф-т контрольный (Придвинье, Фляга)</t>
   </si>
   <si>
@@ -541,9 +520,6 @@
     <t>Круглая 0.2 л. от 03.10.2019</t>
   </si>
   <si>
-    <t>Ведьма 0.5 л. от 03.10.2019</t>
-  </si>
-  <si>
     <t>Баден 0.7 от 25.10.2019</t>
   </si>
   <si>
@@ -631,9 +607,6 @@
     <t>Бутылка ХХI-П-25-500-1(Беларуская калекцыя)</t>
   </si>
   <si>
-    <t>Брест колоски от 13.11.2019</t>
-  </si>
-  <si>
     <t>Тех. регламент восстановления деталей формокомплектов</t>
   </si>
   <si>
@@ -652,9 +625,6 @@
     <t>Ф-т ХХI-КПМ-26-4-500-10 Ice cube</t>
   </si>
   <si>
-    <t>Штофф от 18.11.2019</t>
-  </si>
-  <si>
     <t>Штофф Земляк</t>
   </si>
   <si>
@@ -751,9 +721,6 @@
     <t>Ф-т Контрольный</t>
   </si>
   <si>
-    <t>Расчет капель по машинам (УРФ) 2020</t>
-  </si>
-  <si>
     <t>XXI-КПМ-26-2-700-17</t>
   </si>
   <si>
@@ -763,9 +730,6 @@
     <t>XXI-КПМ-26-2-1000-18</t>
   </si>
   <si>
-    <t>XXI-КПМ-26-2-700-17 Экстра New</t>
-  </si>
-  <si>
     <t>XXI-КПМ-26-2-1000-18 Экстра New</t>
   </si>
   <si>
@@ -799,9 +763,6 @@
     <t>Паспорт Бульбаш 0.5 от 23.01.2020</t>
   </si>
   <si>
-    <t>Ф-т ХХI-КПМ-24-1-500-16(Экстра new)</t>
-  </si>
-  <si>
     <t>БК-СХ-60-200-19067-Л1</t>
   </si>
   <si>
@@ -832,9 +793,6 @@
     <t>V-GPI-630-200 Тоник</t>
   </si>
   <si>
-    <t>Отчет по выпуску продукции на формокомплектах 2020 год</t>
-  </si>
-  <si>
     <t>ПЕРЕЧЕНЬ СРЕДСТВ ИЗМЕРЕНИЙ</t>
   </si>
   <si>
@@ -871,9 +829,6 @@
     <t>XXI-В-28-2-450-19 (Калина 0.45 л.)</t>
   </si>
   <si>
-    <t>Таблица выработки ф-тов</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -883,46 +838,502 @@
     <t>Ф-т АКВА МЯТАЯ</t>
   </si>
   <si>
-    <t>Паспорт АКВА МЯТАЯ</t>
-  </si>
-  <si>
     <t>Паспорт Банка 0.45</t>
   </si>
   <si>
+    <t>Паспорт XXI-КПМ-26-4-500-10 Айс Куб</t>
+  </si>
+  <si>
+    <t>Уехали</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Франкония МСА 0.5 л.</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-26-2-1000-18 (Экстра New) от 02.07.2020</t>
+  </si>
+  <si>
+    <t>Банка 1.5 л. twist</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-26-2-700-17 (Экстра New) от 02.07.2020</t>
+  </si>
+  <si>
+    <t>Банка III-2-82-1500-1</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-26-3-500</t>
+  </si>
+  <si>
+    <t>Новые каласы</t>
+  </si>
+  <si>
+    <t>Каласы  0,5 л.</t>
+  </si>
+  <si>
+    <t>Формокомплекты\Заявки на изготовление\Шапка чугунный поддон.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шапка бронзовый поддон.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аквадив 0,35</t>
+  </si>
+  <si>
+    <t>Лампада-4</t>
+  </si>
+  <si>
+    <t>Лампада 4</t>
+  </si>
+  <si>
+    <t>БК-CX-60-170-19249-Л4</t>
+  </si>
+  <si>
+    <t>Лампада_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Паспорт Брест Колоски</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Паспорт Ведьма</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке Ice Cube</t>
+  </si>
+  <si>
+    <t>Отчет о подготовке XXI-КПМ-26-2-700-17 (Бульбаш Эксра New 0.7 л.)</t>
+  </si>
+  <si>
+    <t>Доработки</t>
+  </si>
+  <si>
+    <t>Паспорт Калина 0,35 л. Часть 2</t>
+  </si>
+  <si>
+    <t>Банка 0,5 л. CКО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Письма</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-22В-500-20</t>
+  </si>
+  <si>
+    <t>Чистая формула</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Таблица выработки ф-тов</t>
+  </si>
+  <si>
+    <t>Калина 0,5 л.</t>
+  </si>
+  <si>
+    <t>Венчик</t>
+  </si>
+  <si>
+    <t>Количество, шт.</t>
+  </si>
+  <si>
+    <t>Изделие</t>
+  </si>
+  <si>
+    <t>В-28-2</t>
+  </si>
+  <si>
+    <t>В-28-2 PCI</t>
+  </si>
+  <si>
+    <t>В-30-4</t>
+  </si>
+  <si>
+    <t>В-30-4 PCI</t>
+  </si>
+  <si>
+    <t>В-28-1</t>
+  </si>
+  <si>
+    <t>В-28-1 PCI</t>
+  </si>
+  <si>
+    <t>КПМ-30-1</t>
+  </si>
+  <si>
+    <t>КПМ-30-1 PCI</t>
+  </si>
+  <si>
+    <t>Заготовки PCI</t>
+  </si>
+  <si>
+    <t>Заготовки</t>
+  </si>
+  <si>
+    <t>Тоник</t>
+  </si>
+  <si>
+    <t>Тоник PCI</t>
+  </si>
+  <si>
+    <t>КПМ-26-3</t>
+  </si>
+  <si>
+    <t>КПМ-26-3 PCI</t>
+  </si>
+  <si>
+    <t>КПМ-26-4</t>
+  </si>
+  <si>
+    <t>КПМ-26-4 PCI</t>
+  </si>
+  <si>
+    <t>П-25</t>
+  </si>
+  <si>
+    <t>П-25 PCI</t>
+  </si>
+  <si>
+    <t>КПМ-24-1</t>
+  </si>
+  <si>
+    <t>КПМ-24-1 PCI</t>
+  </si>
+  <si>
+    <t>КПА-30 PCI</t>
+  </si>
+  <si>
+    <t>КПА-30</t>
+  </si>
+  <si>
+    <t>КПМ-26-2</t>
+  </si>
+  <si>
+    <t>КПМ-26-2 PCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Матотчет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \Гавриленко А.Д</t>
+  </si>
+  <si>
+    <t>Документация\Охрана труда\Размеры СИЗ.docx</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>размер костюма</t>
+  </si>
+  <si>
+    <t>рост</t>
+  </si>
+  <si>
+    <t>размер обуви</t>
+  </si>
+  <si>
+    <t>размер куртки</t>
+  </si>
+  <si>
+    <t>подпись</t>
+  </si>
+  <si>
+    <t>Стрелков Д.В.</t>
+  </si>
+  <si>
+    <t>48-50</t>
+  </si>
+  <si>
+    <t>Шитов С.Н.</t>
+  </si>
+  <si>
+    <t>54-56</t>
+  </si>
+  <si>
+    <t>50-52</t>
+  </si>
+  <si>
+    <t>Яригин С.А.</t>
+  </si>
+  <si>
+    <t>52-54</t>
+  </si>
+  <si>
+    <t>Добкин В.В.</t>
+  </si>
+  <si>
+    <t>Мироненко А.В.</t>
+  </si>
+  <si>
+    <t>Кореньков В.В.</t>
+  </si>
+  <si>
+    <t>58-60</t>
+  </si>
+  <si>
+    <t>Василюк П.О.</t>
+  </si>
+  <si>
+    <t>Филиппов Н.А.</t>
+  </si>
+  <si>
+    <t>Ермаков Ю.М.</t>
+  </si>
+  <si>
+    <t>Балюк А.И.</t>
+  </si>
+  <si>
+    <t>Гавриленко А.Д.</t>
+  </si>
+  <si>
+    <t>Скорко С.В.</t>
+  </si>
+  <si>
+    <t>Парфенков А.А.</t>
+  </si>
+  <si>
+    <t>Участок ремонта форм</t>
+  </si>
+  <si>
+    <t>куртка</t>
+  </si>
+  <si>
+    <t>костюм</t>
+  </si>
+  <si>
+    <t>ботинки</t>
+  </si>
+  <si>
+    <t>Размеры и время выдачи Спецодежды</t>
+  </si>
+  <si>
+    <t>Спецодежда</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t>Начальник УРФ</t>
+  </si>
+  <si>
+    <t>А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>брюки</t>
+  </si>
+  <si>
+    <t>комбинезон</t>
+  </si>
+  <si>
+    <t>Банка 1,5 л..xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отчет о подготовке Сябры</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Заявки</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2.1а -700-21</t>
+  </si>
+  <si>
+    <t>Фирменная 3</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2.1а-700-21 (Фирменная-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фляга 0,2 л.</t>
+  </si>
+  <si>
+    <t>Углубление в ручную черновых форм по плечикам</t>
+  </si>
+  <si>
+    <t>черновые по плечам</t>
+  </si>
+  <si>
+    <t>Доработка черновых и чистовых форм часть у себя, часть на Агрокомплекте</t>
+  </si>
+  <si>
+    <t>Расчет капель по машинам</t>
+  </si>
+  <si>
+    <t>Отчет по выпуску продукции на формокомплектах 2021 год</t>
+  </si>
+  <si>
+    <t>Машины работников</t>
+  </si>
+  <si>
+    <t>марка машины</t>
+  </si>
+  <si>
+    <t>гос. номер</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-25-500-11</t>
+  </si>
+  <si>
+    <t>Овал 0,5 л.</t>
+  </si>
+  <si>
+    <t>Овал 0,5 л. от 01.04.2021.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Табель</t>
   </si>
   <si>
-    <t>Паспорт XXI-КПМ-26-4-500-10 Айс Куб</t>
-  </si>
-  <si>
-    <t>Уехали</t>
-  </si>
-  <si>
-    <t>Отчет о подготовке Сябры 0,5 л.</t>
-  </si>
-  <si>
-    <t>Формокомплекты\Заявки на изготовление\Шапка.xlsx</t>
-  </si>
-  <si>
-    <t>Отчет о подготовке Франкония МСА 0.5 л.</t>
+    <t xml:space="preserve"> Заявки на изготовление</t>
+  </si>
+  <si>
+    <t>Бутылка XXI-КПМ-25-500-11 (Овал)</t>
+  </si>
+  <si>
+    <t>Ф-т XXI-КПМ-25-500-11 (Овал)</t>
+  </si>
+  <si>
+    <t>XXI-В-30-4б-500-14 (Батькова 0.5 л.)</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-25-500-12</t>
+  </si>
+  <si>
+    <t>Овал 0,7 л.</t>
+  </si>
+  <si>
+    <t>Паспорт Овал 0,7 л..xlsx</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-25-700-12 (Овал)</t>
+  </si>
+  <si>
+    <t>Ф-т XXI-KNM-25-700-12</t>
+  </si>
+  <si>
+    <t>Суднеко В.В.</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-27-500-22</t>
+  </si>
+  <si>
+    <t>Белалко</t>
+  </si>
+  <si>
+    <t>Белалко от 24.05.2021</t>
+  </si>
+  <si>
+    <t>Бутылка XXI-КПМ-27-500-22 (Белалко)</t>
+  </si>
+  <si>
+    <t>Ф-т контрольный XXI-KПM-27-500-22(Белалко)</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-22Д-500</t>
+  </si>
+  <si>
+    <t>Сябры New</t>
+  </si>
+  <si>
+    <t>Сябры Новые</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-22Д-500-Сябры NEW</t>
+  </si>
+  <si>
+    <t>Ф-т Сябры New</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Повторный заказ&quot;;&quot;₽&quot;;&quot;₽&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1055,6 +1466,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1096,7 +1553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1143,43 +1600,226 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,43 +1829,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="9">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,10 +1883,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,43 +1895,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="10" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="10" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="19" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1300,120 +1940,318 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="13" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="22" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="23" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="26" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="26" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Валюта таблицы" xfId="4"/>
+    <cellStyle name="Валюта таблицы" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="10" builtinId="8"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="9" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Отменено" xfId="6"/>
-    <cellStyle name="Сведения таблицы слева" xfId="7"/>
-    <cellStyle name="Сведения таблицы справа" xfId="5"/>
-    <cellStyle name="Столбец с отметкой" xfId="8"/>
+    <cellStyle name="Отменено" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Сведения таблицы слева" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Сведения таблицы справа" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Столбец с отметкой" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -1437,7 +2275,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1482,7 +2320,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1527,7 +2365,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1557,7 +2395,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1602,7 +2440,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1647,7 +2485,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1692,7 +2530,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1737,7 +2575,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1778,7 +2616,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1823,7 +2661,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1868,7 +2706,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1913,7 +2751,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1937,7 +2775,7 @@
           <bgColor rgb="FFE6E8EA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1962,7 +2800,7 @@
           <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color theme="0"/>
@@ -1973,6 +2811,27 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2017,7 +2876,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2062,7 +2921,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2107,7 +2966,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2152,7 +3011,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2197,7 +3056,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2242,7 +3101,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2287,7 +3146,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2328,7 +3187,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2373,7 +3232,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2418,7 +3277,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2463,7 +3322,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2487,7 +3346,7 @@
           <bgColor theme="4" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2512,7 +3371,7 @@
           <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color theme="0"/>
@@ -2628,10 +3487,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Инвентарный список" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
+    <tableStyle name="Инвентарный список" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="firstColumn" dxfId="35"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2665,7 +3524,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +3533,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="630515"/>
-          <a:ext cx="20194317" cy="93385"/>
+          <a:ext cx="24956817" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -2684,7 +3543,7 @@
           <xdr:cNvPr id="16" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2738,7 +3597,7 @@
           <xdr:cNvPr id="17" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2810,7 +3669,7 @@
         <xdr:cNvPr id="2" name="Граница заголовка" descr="Граница заголовка">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +3688,7 @@
           <xdr:cNvPr id="3" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2883,7 +3742,7 @@
           <xdr:cNvPr id="4" name="Форма границы заголовка">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2936,44 +3795,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L44" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L44"/>
-  <sortState ref="B5:L43">
-    <sortCondition ref="E4:E43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L53" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B5:L53">
+    <sortCondition ref="E4:E53"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="26" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="24" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="23" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="7" name="Паспорт, Акт приемки" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="21" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формокомплекта" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="17" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Примичания" dataDxfId="16" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="28" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="№ п/п" dataDxfId="27" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Тип" dataDxfId="26" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Название" dataDxfId="25" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Паспорт, Акт приемки" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Чертеж изделия" dataDxfId="23" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Чертежи деталей формокомплекта" dataDxfId="22" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Отчет о подготовке в производство" dataDxfId="21" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Спецификация по заказу" dataDxfId="20" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Доработки" dataDxfId="19" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Примичания" dataDxfId="18" dataCellStyle="Сведения таблицы справа"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:M18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ИнвентарнаяВедомость4" displayName="ИнвентарнаяВедомость4" ref="B4:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:M18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
-    <tableColumn id="2" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="3" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="4" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
-    <tableColumn id="15" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="5" name="Чертеж изделия" dataDxfId="6" dataCellStyle="Валюта таблицы"/>
-    <tableColumn id="6" name="Чертежи деталей формоеоклекта" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="8" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="9" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="10" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="12" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
-    <tableColumn id="11" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="11" dataCellStyle="Столбец с отметкой"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="№ п/п" dataDxfId="10" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Тип" dataDxfId="9" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Название" dataDxfId="8" dataCellStyle="Сведения таблицы слева"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Паспорт" dataDxfId="7" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Чертеж изделия" dataDxfId="6" dataCellStyle="Валюта таблицы"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Чертежи деталей формоеоклекта" dataDxfId="5" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Отчет о подготовке в производство" dataDxfId="4" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Маркировка деталей для производства изделий" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Спецификация по заказу" dataDxfId="2" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Акт приемки" dataDxfId="1" dataCellStyle="Сведения таблицы справа"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Справка о присвоении ресурса" dataDxfId="0" dataCellStyle="Отменено"/>
   </tableColumns>
   <tableStyleInfo name="Инвентарный список" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3205,38 +4064,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49.5" customHeight="1">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="3"/>
       <c r="C1" s="12" t="s">
@@ -3252,20 +4111,20 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="C3" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="15.75">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -3279,13 +4138,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>8</v>
@@ -3294,13 +4153,13 @@
         <v>15</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <v>1</v>
@@ -3312,212 +4171,216 @@
         <v>13</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" s="20"/>
+        <v>190</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>282</v>
+      </c>
       <c r="J5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="110"/>
       <c r="L5" s="50"/>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
       <c r="C6" s="16">
-        <f t="shared" ref="C6:C19" si="0">C5+1</f>
+        <f t="shared" ref="C6:C29" si="0">C5+1</f>
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="50"/>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="22"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="50"/>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>160</v>
+      <c r="D8" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>147</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="50"/>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E9" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>154</v>
-      </c>
       <c r="J9" s="37"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="112"/>
       <c r="L9" s="50"/>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E10" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>196</v>
-      </c>
       <c r="G10" s="25" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="J10" s="37"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="112"/>
       <c r="L10" s="50"/>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="36"/>
+        <v>252</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>381</v>
+      </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="22"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="50"/>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="50"/>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <f t="shared" si="0"/>
@@ -3530,10 +4393,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>16</v>
@@ -3542,181 +4405,184 @@
         <v>18</v>
       </c>
       <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="110"/>
       <c r="L13" s="50"/>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="21" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="J14" s="37"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="112"/>
       <c r="L14" s="50"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="J15" s="37"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="112"/>
       <c r="L15" s="50"/>
     </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="I16" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="110"/>
       <c r="L16" s="50"/>
     </row>
-    <row r="17" spans="2:12" s="9" customFormat="1" ht="15">
+    <row r="17" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>99</v>
-      </c>
       <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="50"/>
     </row>
-    <row r="18" spans="2:12" s="9" customFormat="1" ht="15">
+    <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="110"/>
       <c r="L18" s="50"/>
     </row>
-    <row r="19" spans="2:12" s="9" customFormat="1" ht="15">
+    <row r="19" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="48"/>
+        <v>204</v>
+      </c>
+      <c r="K19" s="109"/>
       <c r="L19" s="50"/>
     </row>
-    <row r="20" spans="2:12" s="9" customFormat="1" ht="15">
+    <row r="20" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="16">
-        <f t="shared" ref="C20:C40" si="1">C19+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D20" s="51" t="s">
@@ -3726,801 +4592,1023 @@
         <v>21</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J20" s="48"/>
-      <c r="K20" s="58"/>
+      <c r="K20" s="111" t="s">
+        <v>366</v>
+      </c>
       <c r="L20" s="50" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="9" customFormat="1" ht="15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="J21" s="37"/>
-      <c r="K21" s="22"/>
+      <c r="K21" s="112"/>
       <c r="L21" s="50"/>
     </row>
-    <row r="22" spans="2:12" s="9" customFormat="1" ht="15">
+    <row r="22" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>110</v>
+      <c r="D22" s="83" t="s">
+        <v>103</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="110"/>
       <c r="L22" s="50"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="48"/>
+        <v>161</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" s="109"/>
       <c r="L23" s="50"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="32" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="48" t="s">
-        <v>153</v>
-      </c>
+      <c r="K24" s="109"/>
       <c r="L24" s="50"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="C25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J25" s="31"/>
-      <c r="K25" s="48"/>
+      <c r="K25" s="109"/>
       <c r="L25" s="50"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="30"/>
       <c r="I26" s="21" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J26" s="31"/>
-      <c r="K26" s="48"/>
+      <c r="K26" s="109"/>
       <c r="L26" s="50"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G27" s="55"/>
       <c r="H27" s="57"/>
       <c r="I27" s="20"/>
       <c r="J27" s="48"/>
-      <c r="K27" s="58"/>
+      <c r="K27" s="111"/>
       <c r="L27" s="50"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>212</v>
+      <c r="D28" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>271</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>281</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="48"/>
+      <c r="K28" s="109"/>
       <c r="L28" s="50"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
       <c r="C29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>45</v>
+        <v>374</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>375</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>46</v>
+        <v>376</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="58"/>
+        <v>380</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="109"/>
       <c r="L29" s="50"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
-      <c r="C30" s="16">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>225</v>
+      <c r="C30" s="16"/>
+      <c r="D30" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="116" t="s">
+        <v>383</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>226</v>
+        <v>384</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>227</v>
+        <v>385</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>288</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I30" s="36"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="48"/>
+      <c r="K30" s="109"/>
       <c r="L30" s="50"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="16">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" ref="C31:C45" si="1">C30+1</f>
+        <v>1</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J31" s="31"/>
-      <c r="K31" s="48"/>
+      <c r="K31" s="109"/>
       <c r="L31" s="50"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="16">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E32" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="H32" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="30" t="s">
+      <c r="I32" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>80</v>
-      </c>
       <c r="J32" s="48"/>
-      <c r="K32" s="58"/>
+      <c r="K32" s="111"/>
       <c r="L32" s="50"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
-      <c r="B33" s="10"/>
+    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
       <c r="C33" s="16">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="K33" s="58"/>
+        <v>359</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="109"/>
       <c r="L33" s="50"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
-      <c r="B34" s="10"/>
+    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
       <c r="C34" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="58"/>
+        <v>246</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="109"/>
       <c r="L34" s="50"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="16">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="J35" s="48"/>
-      <c r="K35" s="58"/>
+      <c r="K35" s="111"/>
       <c r="L35" s="50"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
-      <c r="B36" s="10"/>
+    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
       <c r="C36" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>362</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="58"/>
+        <v>363</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="109"/>
       <c r="L36" s="50"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
-      <c r="B37" s="27"/>
+    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
       <c r="C37" s="16">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>185</v>
+        <v>7</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>40</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="36"/>
+        <v>84</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="J37" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="K37" s="48"/>
+        <v>202</v>
+      </c>
+      <c r="K37" s="111"/>
       <c r="L37" s="50"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D38" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="J38" s="48"/>
-      <c r="K38" s="54"/>
+      <c r="K38" s="111"/>
       <c r="L38" s="50"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
-      <c r="B39" s="27"/>
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
       <c r="C39" s="16">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="G39" s="32" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="48"/>
+        <v>232</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="111"/>
       <c r="L39" s="50"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
-      <c r="B40" s="27"/>
+    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
       <c r="C40" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F40" s="40"/>
+        <v>10</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>56</v>
+      </c>
       <c r="G40" s="32" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="48"/>
+        <v>233</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="111"/>
       <c r="L40" s="50"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="40"/>
+      <c r="C41" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>289</v>
+      </c>
       <c r="G41" s="32"/>
       <c r="H41" s="30"/>
       <c r="I41" s="36"/>
       <c r="J41" s="31"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="109"/>
       <c r="L41" s="50"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="30"/>
+      <c r="C42" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D42" s="114" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>174</v>
+      </c>
       <c r="I42" s="36"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="48"/>
+      <c r="J42" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="109" t="s">
+        <v>365</v>
+      </c>
       <c r="L42" s="50"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
+    <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="113"/>
       <c r="L43" s="50"/>
     </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
+    <row r="44" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="27"/>
+      <c r="C44" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="50"/>
+    </row>
+    <row r="45" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="27"/>
+      <c r="C45" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I45" s="36"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" s="50"/>
+    </row>
+    <row r="46" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="27"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="E46" s="120" t="s">
+        <v>389</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="I46" s="36"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="50"/>
+    </row>
+    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="137" t="s">
+        <v>393</v>
+      </c>
+      <c r="E47" s="138" t="s">
+        <v>394</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="I47" s="36"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="50"/>
+    </row>
+    <row r="48" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="27"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="50"/>
+    </row>
+    <row r="49" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="27"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="50"/>
+    </row>
+    <row r="50" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="27"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="50"/>
+    </row>
+    <row r="51" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="50"/>
+    </row>
+    <row r="52" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="K52" s="68"/>
+      <c r="L52" s="69"/>
+    </row>
+    <row r="53" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="K53" s="80"/>
+      <c r="L53" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:K44">
-    <cfRule type="expression" dxfId="32" priority="85">
+  <conditionalFormatting sqref="C5:K53">
+    <cfRule type="expression" dxfId="34" priority="85">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="86">
+    <cfRule type="expression" dxfId="33" priority="86">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L44">
-    <cfRule type="expression" dxfId="30" priority="1">
+  <conditionalFormatting sqref="L5:L53">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
-    <hyperlink ref="I13" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="F20" r:id="rId5"/>
-    <hyperlink ref="F33" r:id="rId6"/>
-    <hyperlink ref="F29" r:id="rId7"/>
-    <hyperlink ref="F34" r:id="rId8"/>
-    <hyperlink ref="F27" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F36" r:id="rId11"/>
-    <hyperlink ref="F35" r:id="rId12"/>
-    <hyperlink ref="F16" r:id="rId13"/>
-    <hyperlink ref="I16" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="H16" r:id="rId16"/>
-    <hyperlink ref="F32" r:id="rId17"/>
-    <hyperlink ref="I32" r:id="rId18"/>
-    <hyperlink ref="G32" r:id="rId19"/>
-    <hyperlink ref="H32" r:id="rId20"/>
-    <hyperlink ref="G29" r:id="rId21"/>
-    <hyperlink ref="H29" r:id="rId22"/>
-    <hyperlink ref="I29" r:id="rId23"/>
-    <hyperlink ref="I33" r:id="rId24"/>
-    <hyperlink ref="G33" r:id="rId25"/>
-    <hyperlink ref="H33" r:id="rId26"/>
-    <hyperlink ref="F17" r:id="rId27"/>
-    <hyperlink ref="I17" r:id="rId28"/>
-    <hyperlink ref="G17" r:id="rId29"/>
-    <hyperlink ref="H17" r:id="rId30"/>
-    <hyperlink ref="F18" r:id="rId31"/>
-    <hyperlink ref="I18" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="H18" r:id="rId34"/>
-    <hyperlink ref="I20" r:id="rId35"/>
-    <hyperlink ref="I22" r:id="rId36"/>
-    <hyperlink ref="F22" r:id="rId37"/>
-    <hyperlink ref="G22" r:id="rId38"/>
-    <hyperlink ref="H22" r:id="rId39"/>
-    <hyperlink ref="G20" r:id="rId40"/>
-    <hyperlink ref="H20" r:id="rId41"/>
-    <hyperlink ref="G7" r:id="rId42"/>
-    <hyperlink ref="H7" r:id="rId43"/>
-    <hyperlink ref="F7" r:id="rId44"/>
-    <hyperlink ref="G25" r:id="rId45"/>
-    <hyperlink ref="H25" r:id="rId46"/>
-    <hyperlink ref="G15" r:id="rId47"/>
-    <hyperlink ref="H15" r:id="rId48"/>
-    <hyperlink ref="G13" r:id="rId49"/>
-    <hyperlink ref="I7" r:id="rId50"/>
-    <hyperlink ref="G9" r:id="rId51"/>
-    <hyperlink ref="H9" r:id="rId52"/>
-    <hyperlink ref="I15" r:id="rId53"/>
-    <hyperlink ref="I25" r:id="rId54"/>
-    <hyperlink ref="G19" r:id="rId55"/>
-    <hyperlink ref="H19" r:id="rId56"/>
-    <hyperlink ref="G24" r:id="rId57"/>
-    <hyperlink ref="H24" r:id="rId58" display="Чертежи деталей ф-та Крис1а"/>
-    <hyperlink ref="K24" r:id="rId59"/>
-    <hyperlink ref="I9" r:id="rId60"/>
-    <hyperlink ref="G34" r:id="rId61"/>
-    <hyperlink ref="H34" r:id="rId62"/>
-    <hyperlink ref="H8" r:id="rId63"/>
-    <hyperlink ref="G8" r:id="rId64"/>
-    <hyperlink ref="F25" r:id="rId65"/>
-    <hyperlink ref="F15" r:id="rId66"/>
-    <hyperlink ref="F9" r:id="rId67"/>
-    <hyperlink ref="F8" r:id="rId68"/>
-    <hyperlink ref="G23" r:id="rId69"/>
-    <hyperlink ref="H23" r:id="rId70"/>
-    <hyperlink ref="I23" r:id="rId71"/>
-    <hyperlink ref="F23" r:id="rId72"/>
-    <hyperlink ref="G31" r:id="rId73"/>
-    <hyperlink ref="H31" r:id="rId74"/>
-    <hyperlink ref="G10" r:id="rId75"/>
-    <hyperlink ref="G37" r:id="rId76"/>
-    <hyperlink ref="H10" r:id="rId77"/>
-    <hyperlink ref="H37" r:id="rId78"/>
-    <hyperlink ref="F37" r:id="rId79"/>
-    <hyperlink ref="I26" r:id="rId80"/>
-    <hyperlink ref="F26" r:id="rId81"/>
-    <hyperlink ref="I12" r:id="rId82"/>
-    <hyperlink ref="F19" r:id="rId83"/>
-    <hyperlink ref="F10" r:id="rId84"/>
-    <hyperlink ref="H12" r:id="rId85"/>
-    <hyperlink ref="G12" r:id="rId86"/>
-    <hyperlink ref="H38" r:id="rId87"/>
-    <hyperlink ref="G38" r:id="rId88"/>
-    <hyperlink ref="G5" r:id="rId89"/>
-    <hyperlink ref="H5" r:id="rId90"/>
-    <hyperlink ref="F38" r:id="rId91"/>
-    <hyperlink ref="I10" r:id="rId92"/>
-    <hyperlink ref="F43" r:id="rId93"/>
-    <hyperlink ref="G28" r:id="rId94"/>
-    <hyperlink ref="F31" r:id="rId95"/>
-    <hyperlink ref="G6" r:id="rId96"/>
-    <hyperlink ref="H6" r:id="rId97"/>
-    <hyperlink ref="I34" r:id="rId98"/>
-    <hyperlink ref="J33" r:id="rId99"/>
-    <hyperlink ref="J37" r:id="rId100"/>
-    <hyperlink ref="J19" r:id="rId101"/>
-    <hyperlink ref="I19" r:id="rId102"/>
-    <hyperlink ref="F30" r:id="rId103"/>
-    <hyperlink ref="G30" r:id="rId104"/>
-    <hyperlink ref="H30" r:id="rId105"/>
-    <hyperlink ref="G21" r:id="rId106" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)"/>
-    <hyperlink ref="H21" r:id="rId107"/>
-    <hyperlink ref="F21" r:id="rId108"/>
-    <hyperlink ref="G39" r:id="rId109"/>
-    <hyperlink ref="G40" r:id="rId110"/>
-    <hyperlink ref="H39" r:id="rId111"/>
-    <hyperlink ref="H40" r:id="rId112"/>
-    <hyperlink ref="G35" r:id="rId113"/>
-    <hyperlink ref="G36" r:id="rId114"/>
-    <hyperlink ref="H35" r:id="rId115"/>
-    <hyperlink ref="H36" r:id="rId116"/>
-    <hyperlink ref="F14" r:id="rId117"/>
-    <hyperlink ref="H14" r:id="rId118"/>
-    <hyperlink ref="I31" r:id="rId119"/>
-    <hyperlink ref="F11" r:id="rId120"/>
-    <hyperlink ref="G11" r:id="rId121"/>
-    <hyperlink ref="H11" r:id="rId122"/>
-    <hyperlink ref="I38" r:id="rId123"/>
-    <hyperlink ref="F28" r:id="rId124"/>
-    <hyperlink ref="H28" r:id="rId125"/>
-    <hyperlink ref="I14" r:id="rId126"/>
-    <hyperlink ref="I21" r:id="rId127"/>
-    <hyperlink ref="I28" r:id="rId128"/>
-    <hyperlink ref="F6" r:id="rId129"/>
-    <hyperlink ref="F5" r:id="rId130"/>
-    <hyperlink ref="I30" r:id="rId131"/>
-    <hyperlink ref="J44" r:id="rId132"/>
-    <hyperlink ref="I35" r:id="rId133"/>
+    <hyperlink ref="H13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F32" r:id="rId6" display="Паспорт Сваяк  0,7 л." xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F38" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F40" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I35" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G37" r:id="rId24" display="Чертеж Фляга 0.2 л." xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F17" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G7" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G9" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I25" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G24" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H24" r:id="rId56" display="Чертежи деталей ф-та Крис1а" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G38" r:id="rId58" display="Чертеж Фляга 0,5" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H38" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H8" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F25" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F15" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F8" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H23" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I23" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F23" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G34" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G10" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G42" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H10" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H42" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I26" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F26" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I12" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F19" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F10" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G43" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G5" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H5" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I10" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F51" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F34" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G6" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H6" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I38" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J37" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J42" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J19" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I19" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F33" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G33" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H33" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G21" r:id="rId102" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H21" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F21" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G44" r:id="rId105" display="XXI-КПМ-26-2-700-17 Экстра New" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G45" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H44" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H45" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G39" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G40" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H39" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H40" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F14" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H14" r:id="rId114" display="Ф-т ХХI-КПМ-24-1-500-16(Экстра new)" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I34" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F11" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G11" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H11" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I43" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F31" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="H31" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I14" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="I21" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="I31" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F6" r:id="rId125" display="Паспорт АКВА МЯТАЯ" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F5" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="I33" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J52" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="I39" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F45" r:id="rId130" xr:uid="{29DDD85A-5A17-4815-A4B9-185F8E3E2600}"/>
+    <hyperlink ref="F44" r:id="rId131" xr:uid="{968BE179-9682-4DBA-AF61-EE77005C6AE9}"/>
+    <hyperlink ref="F43" r:id="rId132" xr:uid="{363F7E3A-F08E-47C8-9150-9DFF74211C48}"/>
+    <hyperlink ref="F13" r:id="rId133" xr:uid="{2F5982A0-A7A7-4BC7-B470-66C3AEC98208}"/>
+    <hyperlink ref="F7" r:id="rId134" xr:uid="{3CF57684-E0A9-47F4-A998-0EEAC7E59C44}"/>
+    <hyperlink ref="F28" r:id="rId135" xr:uid="{E09E823B-1AF7-4AA6-8F6B-12EA07E8A0BD}"/>
+    <hyperlink ref="J53" r:id="rId136" xr:uid="{20EB6B71-B9B6-48BC-B842-D860A4168A00}"/>
+    <hyperlink ref="I5" r:id="rId137" xr:uid="{AD0C3E2F-2ADF-48C1-9A1F-152D35D75CFA}"/>
+    <hyperlink ref="I44" r:id="rId138" xr:uid="{1FC95A0E-DBC4-4ED0-B03D-DE5BE44ED219}"/>
+    <hyperlink ref="F41" r:id="rId139" xr:uid="{FF426B31-241E-4FD8-904D-DB86AD6FE76C}"/>
+    <hyperlink ref="J23" r:id="rId140" xr:uid="{DB55AC21-0CE8-416A-AC8C-F628ABDB7071}"/>
+    <hyperlink ref="F36" r:id="rId141" xr:uid="{61A35A2D-5F9B-4810-8AF1-00E244D07ADB}"/>
+    <hyperlink ref="F29" r:id="rId142" xr:uid="{3C611C2F-AC74-4C4E-981D-AF127C82AEC6}"/>
+    <hyperlink ref="G29" r:id="rId143" xr:uid="{B80A898B-B929-4F51-A83E-274F23E1EEFD}"/>
+    <hyperlink ref="H29" r:id="rId144" xr:uid="{C57254FA-02E4-4290-A661-C689D8A628B2}"/>
+    <hyperlink ref="I11" r:id="rId145" xr:uid="{6888D52A-5677-4D85-9E0C-99A8723F1003}"/>
+    <hyperlink ref="F30" r:id="rId146" xr:uid="{B6038B95-FBFD-42B0-A84F-7848522B86D5}"/>
+    <hyperlink ref="G30" r:id="rId147" xr:uid="{7166BE2B-4DE6-4335-8166-BB90037CF818}"/>
+    <hyperlink ref="H30" r:id="rId148" xr:uid="{D949BB34-122C-44F6-8143-47ABBFBAAFE3}"/>
+    <hyperlink ref="F46" r:id="rId149" xr:uid="{4BBB2141-AC65-40DA-ADDA-36609C5B3088}"/>
+    <hyperlink ref="G46" r:id="rId150" xr:uid="{21EDD610-EB49-4E36-B401-CA3D82FB0B39}"/>
+    <hyperlink ref="H46" r:id="rId151" xr:uid="{2521A2B2-9297-4668-A9DB-296119D5E530}"/>
+    <hyperlink ref="F47" r:id="rId152" xr:uid="{891AFD67-1955-47EA-BD4A-700096038F78}"/>
+    <hyperlink ref="G47" r:id="rId153" xr:uid="{0703F59C-792D-4BB2-B460-1633D3769249}"/>
+    <hyperlink ref="H47" r:id="rId154" xr:uid="{C4EC045A-2503-4BD2-B0B3-6F5C3A852AD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId134"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId155"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId135"/>
+  <drawing r:id="rId156"/>
   <tableParts count="1">
-    <tablePart r:id="rId136"/>
+    <tablePart r:id="rId157"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4542,7 +5630,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B44</xm:sqref>
+          <xm:sqref>B5:B53</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4551,21 +5639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
@@ -4583,7 +5671,7 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="49.5" customHeight="1">
+    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="3"/>
       <c r="C1" s="12" t="s">
@@ -4600,15 +5688,15 @@
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1"/>
-    <row r="3" spans="1:13" ht="12" customHeight="1">
-      <c r="C3" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-    </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25">
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+    </row>
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -4646,41 +5734,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="25" t="s">
+        <v>269</v>
+      </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="21" t="s">
+        <v>267</v>
+      </c>
       <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="22" t="s">
+        <v>358</v>
+      </c>
       <c r="L5" s="23"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="16">
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
@@ -4690,25 +5784,25 @@
       <c r="L6" s="23"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="16">
         <v>3</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" s="25" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
@@ -4716,25 +5810,25 @@
       <c r="L7" s="23"/>
       <c r="M7" s="24"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="16">
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
@@ -4742,139 +5836,141 @@
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <v>5</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="25" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="20"/>
+        <v>206</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>286</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="16">
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>39</v>
-      </c>
       <c r="G10" s="25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="16">
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="16">
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>259</v>
+      <c r="D13" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>240</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -4882,25 +5978,25 @@
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="16">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>260</v>
+      <c r="D14" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>241</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
@@ -4908,25 +6004,25 @@
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="16">
         <v>11</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>261</v>
+      <c r="D15" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>242</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -4934,23 +6030,31 @@
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" ht="15">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="16">
         <v>12</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="D16" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>279</v>
+      </c>
       <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="21" t="s">
+        <v>277</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="2:13" s="9" customFormat="1" ht="15">
+    <row r="17" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <v>13</v>
@@ -4966,7 +6070,7 @@
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="2:13" s="9" customFormat="1" ht="15">
+    <row r="18" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="16">
         <v>14</v>
@@ -4982,7 +6086,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="2:13" s="9" customFormat="1" ht="15">
+    <row r="19" spans="2:13" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
@@ -4996,87 +6100,107 @@
       <c r="L19" s="23"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="15"/>
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="106" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:M19">
-    <cfRule type="expression" dxfId="15" priority="94">
+    <cfRule type="expression" dxfId="17" priority="96">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="95">
+    <cfRule type="expression" dxfId="16" priority="97">
       <formula>$M5="да"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>$B21=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>#REF!="да"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите &quot;Да&quot;, если позиция была отменена. При вводе варианта &quot;Да&quot; соответствующая строка выделяется светло-серым цветом, а стиль шрифта изменяется на зачеркнутый." sqref="M4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите &quot;Да&quot;, если позиция была отменена. При вводе варианта &quot;Да&quot; соответствующая строка выделяется светло-серым цветом, а стиль шрифта изменяется на зачеркнутый." sqref="M4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="K4:L4" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество дней, необходимое для повторного заказа каждой позиции, в этом столбце." sqref="J4" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите уровень минимального запаса для каждой позиции в этом столбце." sqref="I4" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Стоимость каждой позиции автоматически рассчитывается в этом столбце." sqref="F4" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите количество в наличии в этом столбце." sqref="H4" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите цену за единицу в этом столбце." sqref="G4" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите описание позиции в этом столбце." sqref="E4" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название позиции в этом столбце." sqref="D4" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите инвентарный номер в этом столбце." sqref="C4" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Отметка в этом столбце указывает на позиции в инвентарном списке, которые можно заказывать повторно. Отметки отображаются, только если в списке ячейки H1 выбран вариант &quot;Да&quot; и позиция отвечает критериям для повторного заказа." sqref="B4:B17" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Позиции для повторного заказа будут выделены, только если выбрать &quot;Да&quot;." prompt="Выделите позиции для повторного заказа. При выборе пункта &quot;Да&quot; в раскрывающемся списке ячейки H1 справа строки выделяются, а столбец B таблицы инвентарного списка помечается. Это означает, что позиции в нем можно заказывать повторно." sqref="G1:H1" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="На этом листе можно отслеживать позиции инвентарного списка, а также выделять и помечать позиции для повторного заказа. Позиции, которые больше не используются, зачеркнуты, а в столбце «Больше не используется» они отмечены текстом «да»." sqref="A1" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Выберите вариант в раскрывающемся списке. Выберите &quot;ПОВТОРИТЬ&quot; и нажмите &quot;Да&quot; или &quot;Нет&quot;, либо выберите &quot;ОТМЕНА&quot; и нажмите клавиши ALT+СТРЕЛКА ВНИЗ для перемещения по списку." prompt="Чтобы выделять позиции для повторного заказа, нажмите ALT+СТРЕЛКА ВНИЗ, выберите &quot;Да&quot; и нажмите ВВОД. После этого в столбце B появляется отметка, а соответствующая строка в таблице &quot;Инвентарный список&quot; выделяется. При выборе варианта &quot;Нет&quot; они удаляются." sqref="F1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>"Да, Нет"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="F8" r:id="rId4"/>
-    <hyperlink ref="F9" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="J11" r:id="rId11"/>
-    <hyperlink ref="I10" r:id="rId12"/>
-    <hyperlink ref="G10" r:id="rId13"/>
-    <hyperlink ref="H10" r:id="rId14"/>
-    <hyperlink ref="J10" r:id="rId15"/>
-    <hyperlink ref="H7" r:id="rId16"/>
-    <hyperlink ref="H8" r:id="rId17"/>
-    <hyperlink ref="G7" r:id="rId18"/>
-    <hyperlink ref="G8" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20"/>
-    <hyperlink ref="H9" r:id="rId21"/>
-    <hyperlink ref="F12" r:id="rId22"/>
-    <hyperlink ref="I12" r:id="rId23"/>
-    <hyperlink ref="G12" r:id="rId24"/>
-    <hyperlink ref="H12" r:id="rId25"/>
-    <hyperlink ref="G13" r:id="rId26"/>
-    <hyperlink ref="G14" r:id="rId27"/>
-    <hyperlink ref="G15" r:id="rId28"/>
-    <hyperlink ref="H13" r:id="rId29"/>
-    <hyperlink ref="H14" r:id="rId30"/>
-    <hyperlink ref="H15" r:id="rId31"/>
-    <hyperlink ref="F13" r:id="rId32"/>
-    <hyperlink ref="F14:F15" r:id="rId33" display="Лампада_1_2_3"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G7" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H9" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I12" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="G12" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H12" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G13" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G14" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="G15" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="H13" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="H14" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="H15" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="F13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="F14:F15" r:id="rId33" display="Лампада_1_2_3" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I5" r:id="rId34" xr:uid="{3F91CFE9-C1D2-429A-A86F-69508D78118A}"/>
+    <hyperlink ref="G5" r:id="rId35" xr:uid="{8925FA0E-4E7C-4A13-B9BF-C1949837A628}"/>
+    <hyperlink ref="H16" r:id="rId36" xr:uid="{101C2D1B-26A1-4C53-84F6-1A9C65422752}"/>
+    <hyperlink ref="F16" r:id="rId37" xr:uid="{74CD55BA-93FF-4703-BA1B-BCFD448206ED}"/>
+    <hyperlink ref="I9" r:id="rId38" xr:uid="{DFF948CB-97D2-4483-992C-8DFA7BB2BBCD}"/>
+    <hyperlink ref="K5" r:id="rId39" xr:uid="{9DEDDAA4-E5AA-4FA4-8C5E-4617A094C1EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId40"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId35"/>
+  <drawing r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{561C4505-E950-481D-98A7-05806BE99429}">
+          <x14:cfRule type="iconSet" priority="8" id="{561C4505-E950-481D-98A7-05806BE99429}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5101,158 +6225,2892 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>4602</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
-    <hyperlink ref="A12" r:id="rId13"/>
-    <hyperlink ref="B6" r:id="rId14"/>
-    <hyperlink ref="A14" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A20" r:id="rId18"/>
-    <hyperlink ref="B15" r:id="rId19"/>
-    <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="B4" r:id="rId21"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A3" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B15" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B4" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="A6" r:id="rId21" xr:uid="{0CFCAE0C-C917-42AC-9196-A07BCA9CB6FF}"/>
+    <hyperlink ref="A26" r:id="rId22" xr:uid="{8B487F0A-FCD8-48E0-8ACB-81B978E4658E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D309AA-5F76-480D-AE63-424F2E1D36E7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="85"/>
+    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="85" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="85"/>
+    <col min="7" max="7" width="15" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="85" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="85" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="97"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="98"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="122">
+        <v>1</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="128">
+        <v>175</v>
+      </c>
+      <c r="E6" s="128">
+        <v>43</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="93">
+        <v>43819</v>
+      </c>
+      <c r="I6" s="102"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="123"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" s="94">
+        <v>43914</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H8" s="95">
+        <v>43971</v>
+      </c>
+      <c r="I8" s="104"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="92"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="122">
+        <v>2</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="128">
+        <v>176</v>
+      </c>
+      <c r="E10" s="128">
+        <v>42</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="93">
+        <v>43790</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="123"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H11" s="94">
+        <v>43927</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J11" s="126"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="124"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="95">
+        <v>43983</v>
+      </c>
+      <c r="I12" s="104"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="92"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="122">
+        <v>3</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="128">
+        <v>190</v>
+      </c>
+      <c r="E14" s="128">
+        <v>44</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="93">
+        <v>43784</v>
+      </c>
+      <c r="I14" s="102"/>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="123"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H15" s="94">
+        <v>43915</v>
+      </c>
+      <c r="I15" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J15" s="126"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="124"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H16" s="95">
+        <v>43984</v>
+      </c>
+      <c r="I16" s="104"/>
+      <c r="J16" s="127"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="90"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="92"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="122">
+        <v>4</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="128">
+        <v>178</v>
+      </c>
+      <c r="E18" s="128">
+        <v>41</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H18" s="93">
+        <v>43788</v>
+      </c>
+      <c r="I18" s="102"/>
+      <c r="J18" s="125"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="123"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H19" s="94">
+        <v>44083</v>
+      </c>
+      <c r="I19" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="124"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="95">
+        <v>43970</v>
+      </c>
+      <c r="I20" s="104"/>
+      <c r="J20" s="127"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="92"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="122">
+        <v>5</v>
+      </c>
+      <c r="B22" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="128">
+        <v>180</v>
+      </c>
+      <c r="E22" s="128">
+        <v>45</v>
+      </c>
+      <c r="F22" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="93">
+        <v>43789</v>
+      </c>
+      <c r="I22" s="102"/>
+      <c r="J22" s="125"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="123"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H23" s="94">
+        <v>43914</v>
+      </c>
+      <c r="I23" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="J23" s="126"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="124"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H24" s="95">
+        <v>43998</v>
+      </c>
+      <c r="I24" s="104"/>
+      <c r="J24" s="127"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="122">
+        <v>6</v>
+      </c>
+      <c r="B26" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="128">
+        <v>176</v>
+      </c>
+      <c r="E26" s="128">
+        <v>41</v>
+      </c>
+      <c r="F26" s="131" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="93">
+        <v>43790</v>
+      </c>
+      <c r="I26" s="102"/>
+      <c r="J26" s="125"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="123"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H27" s="94">
+        <v>43914</v>
+      </c>
+      <c r="I27" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J27" s="126"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H28" s="95">
+        <v>43971</v>
+      </c>
+      <c r="I28" s="104"/>
+      <c r="J28" s="127"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="90"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="92"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="122">
+        <v>7</v>
+      </c>
+      <c r="B30" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="128">
+        <v>170</v>
+      </c>
+      <c r="E30" s="128">
+        <v>41</v>
+      </c>
+      <c r="F30" s="131" t="s">
+        <v>339</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" s="93">
+        <v>43790</v>
+      </c>
+      <c r="I30" s="102"/>
+      <c r="J30" s="125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="123"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="94">
+        <v>43927</v>
+      </c>
+      <c r="I31" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="J31" s="126"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="124"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="95">
+        <v>43983</v>
+      </c>
+      <c r="I32" s="104"/>
+      <c r="J32" s="127"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="90"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="92"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="122">
+        <v>8</v>
+      </c>
+      <c r="B34" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34" s="128">
+        <v>185</v>
+      </c>
+      <c r="E34" s="128">
+        <v>43</v>
+      </c>
+      <c r="F34" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H34" s="93">
+        <v>43784</v>
+      </c>
+      <c r="I34" s="102"/>
+      <c r="J34" s="125"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="123"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H35" s="94">
+        <v>43917</v>
+      </c>
+      <c r="I35" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J35" s="126"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="124"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H36" s="95">
+        <v>43984</v>
+      </c>
+      <c r="I36" s="104"/>
+      <c r="J36" s="127"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="92"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="122">
+        <v>9</v>
+      </c>
+      <c r="B38" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D38" s="128">
+        <v>176</v>
+      </c>
+      <c r="E38" s="128">
+        <v>41</v>
+      </c>
+      <c r="F38" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H38" s="93">
+        <v>43784</v>
+      </c>
+      <c r="I38" s="102"/>
+      <c r="J38" s="125"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="123"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H39" s="94">
+        <v>43914</v>
+      </c>
+      <c r="I39" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" s="126"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="124"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H40" s="95">
+        <v>43971</v>
+      </c>
+      <c r="I40" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="127"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="90"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="92"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="122">
+        <v>10</v>
+      </c>
+      <c r="B42" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="C42" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="128">
+        <v>180</v>
+      </c>
+      <c r="E42" s="128">
+        <v>45</v>
+      </c>
+      <c r="F42" s="131" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" s="93">
+        <v>43794</v>
+      </c>
+      <c r="I42" s="102"/>
+      <c r="J42" s="125"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="123"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H43" s="94">
+        <v>43923</v>
+      </c>
+      <c r="I43" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" s="126"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H44" s="95">
+        <v>43971</v>
+      </c>
+      <c r="I44" s="104"/>
+      <c r="J44" s="127"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="90"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="92"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="122">
+        <v>11</v>
+      </c>
+      <c r="B46" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="128">
+        <v>176</v>
+      </c>
+      <c r="E46" s="128">
+        <v>41</v>
+      </c>
+      <c r="F46" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H46" s="93">
+        <v>43784</v>
+      </c>
+      <c r="I46" s="102"/>
+      <c r="J46" s="125"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="123"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H47" s="94">
+        <v>44166</v>
+      </c>
+      <c r="I47" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" s="126"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="124"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" s="95">
+        <v>43851</v>
+      </c>
+      <c r="I48" s="104"/>
+      <c r="J48" s="127"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="90"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="92"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="122">
+        <v>12</v>
+      </c>
+      <c r="B50" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="128">
+        <v>180</v>
+      </c>
+      <c r="E50" s="128">
+        <v>43</v>
+      </c>
+      <c r="F50" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H50" s="93">
+        <v>43784</v>
+      </c>
+      <c r="I50" s="102"/>
+      <c r="J50" s="125"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="123"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H51" s="94">
+        <v>43914</v>
+      </c>
+      <c r="I51" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51" s="126"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="124"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H52" s="95">
+        <v>43970</v>
+      </c>
+      <c r="I52" s="104"/>
+      <c r="J52" s="127"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="90"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="92"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="122">
+        <v>13</v>
+      </c>
+      <c r="B54" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" s="128">
+        <v>174</v>
+      </c>
+      <c r="E54" s="128">
+        <v>42</v>
+      </c>
+      <c r="F54" s="131" t="s">
+        <v>333</v>
+      </c>
+      <c r="G54" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H54" s="93">
+        <v>43788</v>
+      </c>
+      <c r="I54" s="102"/>
+      <c r="J54" s="125"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="123"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H55" s="94">
+        <v>43998</v>
+      </c>
+      <c r="I55" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J55" s="126"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="124"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H56" s="95">
+        <v>44004</v>
+      </c>
+      <c r="I56" s="104"/>
+      <c r="J56" s="127"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="90"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="92"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="122">
+        <v>14</v>
+      </c>
+      <c r="B58" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="128">
+        <v>176</v>
+      </c>
+      <c r="E58" s="128">
+        <v>43</v>
+      </c>
+      <c r="F58" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="G58" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H58" s="93">
+        <v>43788</v>
+      </c>
+      <c r="I58" s="102"/>
+      <c r="J58" s="125"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="123"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H59" s="94">
+        <v>43915</v>
+      </c>
+      <c r="I59" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J59" s="126"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="124"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="H60" s="95">
+        <v>43984</v>
+      </c>
+      <c r="I60" s="104"/>
+      <c r="J60" s="127"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" s="85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B6:B60">
+    <sortCondition ref="B6"/>
+  </sortState>
+  <mergeCells count="100">
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="J10:J12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC12770-7EF3-44E9-8050-8B56FED3EDC1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="85"/>
+    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="85"/>
+    <col min="5" max="5" width="15" style="85" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="85" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="99"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="99"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="100"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="122">
+        <v>1</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="128">
+        <v>175</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="125"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="123"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="126"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="127"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="122">
+        <v>2</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="128">
+        <v>176</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="125"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="123"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="126"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="124"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="127"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="122">
+        <v>3</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="128">
+        <v>190</v>
+      </c>
+      <c r="E12" s="89"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="125"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G13" s="126"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="124"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="127"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="122">
+        <v>4</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="128">
+        <v>178</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="125"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="123"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" s="126"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="124"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="127"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="122">
+        <v>5</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="128">
+        <v>180</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="125"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="123"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="G19" s="126"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="124"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="127"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="122">
+        <v>6</v>
+      </c>
+      <c r="B21" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="128">
+        <v>176</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="125"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="123"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="126"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="124"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="127"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="122">
+        <v>7</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="128">
+        <v>170</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="123"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="G25" s="126"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="124"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="127"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122">
+        <v>8</v>
+      </c>
+      <c r="B27" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="128">
+        <v>185</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="125"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="123"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="126"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="124"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="127"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="122">
+        <v>9</v>
+      </c>
+      <c r="B30" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="128">
+        <v>176</v>
+      </c>
+      <c r="E30" s="89"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="125"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="123"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G31" s="126"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="124"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="127"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="122">
+        <v>10</v>
+      </c>
+      <c r="B33" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="128">
+        <v>180</v>
+      </c>
+      <c r="E33" s="89"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="125"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="123"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G34" s="126"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="124"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="127"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="122">
+        <v>11</v>
+      </c>
+      <c r="B36" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="128">
+        <v>176</v>
+      </c>
+      <c r="E36" s="89"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="125"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="123"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="G37" s="126"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="124"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="127"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="122">
+        <v>12</v>
+      </c>
+      <c r="B39" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="128">
+        <v>180</v>
+      </c>
+      <c r="E39" s="89"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="125"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="123"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F40" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G40" s="126"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="124"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="127"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="122">
+        <v>13</v>
+      </c>
+      <c r="B42" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="128">
+        <v>174</v>
+      </c>
+      <c r="E42" s="89"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="125"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="123"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F43" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" s="126"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="127"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="122">
+        <v>14</v>
+      </c>
+      <c r="B45" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="128">
+        <v>176</v>
+      </c>
+      <c r="E45" s="89"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="125"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="123"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F46" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" s="126"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="124"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="127"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE78ED7B-D0A7-4961-9D8A-9E7ED54FB810}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="85"/>
+    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="85"/>
+    <col min="6" max="6" width="15" style="85" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="85" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="117"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="118"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="122">
+        <v>1</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="128">
+        <v>43</v>
+      </c>
+      <c r="E6" s="128">
+        <v>175</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="125"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="123"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="103"/>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="127"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="122">
+        <v>2</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="128">
+        <v>42</v>
+      </c>
+      <c r="E9" s="128">
+        <v>176</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="125"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="123"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="103"/>
+      <c r="H10" s="126"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="124"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="127"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="122">
+        <v>3</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="128">
+        <v>44</v>
+      </c>
+      <c r="E12" s="128">
+        <v>190</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="125"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G13" s="103"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="124"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="127"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="122">
+        <v>4</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="128">
+        <v>41</v>
+      </c>
+      <c r="E15" s="128">
+        <v>178</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="125"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="123"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="103"/>
+      <c r="H16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="124"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="127"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="122">
+        <v>5</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="128">
+        <v>45</v>
+      </c>
+      <c r="E18" s="128">
+        <v>180</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="125"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="123"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" s="103"/>
+      <c r="H19" s="126"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="124"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="127"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="122">
+        <v>6</v>
+      </c>
+      <c r="B21" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="128">
+        <v>41</v>
+      </c>
+      <c r="E21" s="128">
+        <v>176</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="125"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="123"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G22" s="103"/>
+      <c r="H22" s="126"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="124"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="127"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="122">
+        <v>7</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="128">
+        <v>41</v>
+      </c>
+      <c r="E24" s="128">
+        <v>170</v>
+      </c>
+      <c r="F24" s="89"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="123"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="103"/>
+      <c r="H25" s="126"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="124"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="127"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122">
+        <v>8</v>
+      </c>
+      <c r="B27" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="128">
+        <v>43</v>
+      </c>
+      <c r="E27" s="128">
+        <v>185</v>
+      </c>
+      <c r="F27" s="89"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="125"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="123"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="103"/>
+      <c r="H28" s="126"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="124"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="127"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="122">
+        <v>9</v>
+      </c>
+      <c r="B30" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="128">
+        <v>41</v>
+      </c>
+      <c r="E30" s="128">
+        <v>176</v>
+      </c>
+      <c r="F30" s="89"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="125"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="123"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" s="103"/>
+      <c r="H31" s="126"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="124"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="127"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="122">
+        <v>10</v>
+      </c>
+      <c r="B33" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="128">
+        <v>45</v>
+      </c>
+      <c r="E33" s="128">
+        <v>180</v>
+      </c>
+      <c r="F33" s="89"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="125"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="123"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G34" s="103"/>
+      <c r="H34" s="126"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="124"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="127"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="122">
+        <v>11</v>
+      </c>
+      <c r="B36" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="128">
+        <v>41</v>
+      </c>
+      <c r="E36" s="128">
+        <v>176</v>
+      </c>
+      <c r="F36" s="89"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="125"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="123"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" s="103"/>
+      <c r="H37" s="126"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="124"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="127"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="122">
+        <v>12</v>
+      </c>
+      <c r="B39" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="128">
+        <v>43</v>
+      </c>
+      <c r="E39" s="128">
+        <v>180</v>
+      </c>
+      <c r="F39" s="89"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="125"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="123"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" s="103"/>
+      <c r="H40" s="126"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="124"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="127"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="122">
+        <v>13</v>
+      </c>
+      <c r="B42" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="128">
+        <v>42</v>
+      </c>
+      <c r="E42" s="128">
+        <v>174</v>
+      </c>
+      <c r="F42" s="89"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="125"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="123"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" s="103"/>
+      <c r="H43" s="126"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="127"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="122">
+        <v>14</v>
+      </c>
+      <c r="B45" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="128">
+        <v>43</v>
+      </c>
+      <c r="E45" s="128">
+        <v>176</v>
+      </c>
+      <c r="F45" s="89"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="125"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="123"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" s="103"/>
+      <c r="H46" s="126"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="124"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="127"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="D42:D44"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист3">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5262,233 +9120,233 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>1</v>
       </c>
       <c r="B2" s="38"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <f t="shared" ref="A4:A33" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="38"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="38"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="38"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="38"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="38"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="38"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="38"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="38"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="38"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="38"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="38"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="38"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5499,4 +9357,572 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19278EA-A15E-49D9-87C7-C768E0424EF0}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584EDC5A-690B-4AC6-825A-4248E0388815}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="A33:XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="85"/>
+    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
+    <col min="3" max="3" width="24" style="85" customWidth="1"/>
+    <col min="4" max="4" width="18" style="85" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="85" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="135" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122">
+        <v>1</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="125"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="123"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="126"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="127"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="122">
+        <v>2</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="125"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="123"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="126"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="124"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="127"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="122">
+        <v>5</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="125"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="126"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="124"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="127"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="122">
+        <v>7</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="125"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="123"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="124"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="127"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="122">
+        <v>8</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="125"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="126"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="124"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="127"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="122">
+        <v>9</v>
+      </c>
+      <c r="B21" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="125"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="123"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="126"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="124"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="127"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="122">
+        <v>10</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="125"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="123"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="126"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="124"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="127"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="122">
+        <v>12</v>
+      </c>
+      <c r="B27" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="125"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="123"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="126"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="124"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="127"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="122">
+        <v>13</v>
+      </c>
+      <c r="B30" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="125"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="123"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="126"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="124"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="127"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/work.xlsx
+++ b/Участок ремонта форм/work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F8EF7-D582-4008-BA20-BC32052E7D2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974DFF25-52F4-4D2B-A2E4-114C3A2EFFE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="394">
   <si>
     <t>Отмеченные товары, которых нужно заказать повторно</t>
   </si>
@@ -268,24 +268,6 @@
     <t>Чертежи деталей Банки 0,16 л. ABC</t>
   </si>
   <si>
-    <t>XXI-B-28-2.1б -700</t>
-  </si>
-  <si>
-    <t>Фирменная 2</t>
-  </si>
-  <si>
-    <t>Паспорт Фирменная 2  0,7 л.</t>
-  </si>
-  <si>
-    <t>Отчет о подготовке Кристалл Фирменная 2, 0.7 л.</t>
-  </si>
-  <si>
-    <t>Чертеж изделия Кристалл Фирменная 2, 0.7 л.</t>
-  </si>
-  <si>
-    <t>Чертежи деталей Ф-т 0,7 Фирменная 2</t>
-  </si>
-  <si>
     <t>Чертеж Сваяк 0.7 л.</t>
   </si>
   <si>
@@ -1244,6 +1226,12 @@
   </si>
   <si>
     <t>Ф-т Сябры New</t>
+  </si>
+  <si>
+    <t>XXI-B-30-4A-500-22</t>
+  </si>
+  <si>
+    <t>Штофф Кристалл</t>
   </si>
 </sst>
 </file>
@@ -2069,9 +2057,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2177,10 +2162,19 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2230,12 +2224,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2251,7 +2239,7 @@
     <cellStyle name="Сведения таблицы справа" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Столбец с отметкой" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -3406,27 +3394,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -3488,9 +3455,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Инвентарный список" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
-      <tableStyleElement type="firstColumn" dxfId="35"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3795,10 +3762,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L53" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" dataCellStyle="Сведения таблицы справа">
-  <autoFilter ref="B4:L53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B5:L53">
-    <sortCondition ref="E4:E53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ИнвентарнаяВедомость" displayName="ИнвентарнаяВедомость" ref="B4:L52" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" dataCellStyle="Сведения таблицы справа">
+  <autoFilter ref="B4:L52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B5:L52">
+    <sortCondition ref="E4:E52"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Отмеченные товары, которых нужно заказать повторно" dataDxfId="28" dataCellStyle="Столбец с отметкой"/>
@@ -4069,13 +4036,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4116,11 +4083,11 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
       <c r="I3" s="1"/>
       <c r="J3"/>
     </row>
@@ -4138,13 +4105,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>8</v>
@@ -4153,10 +4120,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4171,47 +4138,47 @@
         <v>13</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="109"/>
       <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
       <c r="C6" s="16">
-        <f t="shared" ref="C6:C29" si="0">C5+1</f>
+        <f t="shared" ref="C6:C12" si="0">C5+1</f>
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="112"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4221,25 +4188,25 @@
         <v>3</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="112"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4249,23 +4216,23 @@
         <v>4</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
-      <c r="K8" s="112"/>
+      <c r="K8" s="111"/>
       <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4275,25 +4242,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J9" s="37"/>
-      <c r="K9" s="112"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4303,25 +4270,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="I10" s="21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J10" s="37"/>
-      <c r="K10" s="112"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4331,25 +4298,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="112"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4368,958 +4335,958 @@
         <v>51</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="110"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C13:C14" si="1">C12+1</f>
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="120" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="21" t="s">
+      <c r="F14" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="50"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="112"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C15:C30" si="2">C14+1</f>
         <v>11</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>125</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G15" s="25"/>
       <c r="H15" s="56" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J15" s="37"/>
-      <c r="K15" s="112"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" s="10"/>
+        <v>253</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>64</v>
+      <c r="D16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="110"/>
+        <v>253</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="50"/>
     </row>
     <row r="17" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="50"/>
-    </row>
-    <row r="18" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="110"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="109"/>
       <c r="L18" s="50"/>
     </row>
     <row r="19" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>135</v>
+      <c r="D19" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="K19" s="109"/>
+        <v>94</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="110"/>
       <c r="L19" s="50"/>
     </row>
     <row r="20" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="108"/>
+      <c r="L20" s="50"/>
+    </row>
+    <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="16">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="111" t="s">
-        <v>366</v>
-      </c>
-      <c r="L20" s="50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="16">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>214</v>
-      </c>
       <c r="F21" s="25" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="50"/>
+        <v>223</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="109" t="s">
+        <v>360</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="2:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D22" s="83" t="s">
-        <v>103</v>
+      <c r="D22" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="J22" s="37"/>
-      <c r="K22" s="110"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="50"/>
     </row>
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>157</v>
+      <c r="D23" s="121" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="K23" s="109"/>
+        <v>99</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="110"/>
       <c r="L23" s="50"/>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="40"/>
+        <v>152</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>156</v>
+      </c>
       <c r="G24" s="32" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="109"/>
+        <v>154</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="K24" s="108"/>
       <c r="L24" s="50"/>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F25" s="40"/>
       <c r="G25" s="32" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>133</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="I25" s="36"/>
       <c r="J25" s="31"/>
-      <c r="K25" s="109"/>
+      <c r="K25" s="108"/>
       <c r="L25" s="50"/>
     </row>
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30"/>
+        <v>149</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="I26" s="21" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="J26" s="31"/>
-      <c r="K26" s="109"/>
+      <c r="K26" s="108"/>
       <c r="L26" s="50"/>
     </row>
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="50"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="16">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="50"/>
-    </row>
-    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="16">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="109"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="110"/>
       <c r="L28" s="50"/>
     </row>
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D29" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="E29" s="115" t="s">
-        <v>375</v>
+      <c r="D29" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>265</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>380</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="36"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="109"/>
+      <c r="K29" s="108"/>
       <c r="L29" s="50"/>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
-      <c r="C30" s="16"/>
+      <c r="C30" s="16">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
       <c r="D30" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="E30" s="116" t="s">
-        <v>383</v>
+        <v>368</v>
+      </c>
+      <c r="E30" s="114" t="s">
+        <v>369</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="31"/>
-      <c r="K30" s="109"/>
+      <c r="K30" s="108"/>
       <c r="L30" s="50"/>
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="16">
-        <f t="shared" ref="C31:C45" si="1">C30+1</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>196</v>
+        <f t="shared" ref="C31:C37" si="3">C30+1</f>
+        <v>27</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31" s="115" t="s">
+        <v>377</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>194</v>
+        <v>378</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="H31" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="16">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="50"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D32" s="51" t="s">
+      <c r="J32" s="31"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="16">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E33" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="50"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>209</v>
-      </c>
       <c r="F33" s="32" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="109"/>
+        <v>76</v>
+      </c>
+      <c r="J33" s="48"/>
+      <c r="K33" s="110"/>
       <c r="L33" s="50"/>
     </row>
     <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="J34" s="31"/>
-      <c r="K34" s="109"/>
+      <c r="K34" s="108"/>
       <c r="L34" s="50"/>
     </row>
     <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>73</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>387</v>
+      </c>
+      <c r="E35" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="111"/>
+        <v>391</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="108"/>
       <c r="L35" s="50"/>
     </row>
     <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
       <c r="C36" s="16">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>362</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="J36" s="31"/>
-      <c r="K36" s="109"/>
+      <c r="K36" s="108"/>
       <c r="L36" s="50"/>
     </row>
     <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="16">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="K37" s="111"/>
+        <v>357</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="108"/>
       <c r="L37" s="50"/>
     </row>
     <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" ref="C38:C46" si="4">C37+1</f>
+        <v>34</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="111"/>
+        <v>77</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" s="110"/>
       <c r="L38" s="50"/>
     </row>
     <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="16">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>41</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="J39" s="48"/>
-      <c r="K39" s="111"/>
+      <c r="K39" s="110"/>
       <c r="L39" s="50"/>
     </row>
     <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="16">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="D40" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="48"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="16">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E41" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F41" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="50"/>
-    </row>
-    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="16">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="E41" s="82" t="s">
-        <v>289</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="109"/>
+      <c r="G41" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="110"/>
       <c r="L41" s="50"/>
     </row>
     <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D42" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>171</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>283</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>174</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="K42" s="109" t="s">
-        <v>365</v>
-      </c>
+      <c r="J42" s="31"/>
+      <c r="K42" s="108"/>
       <c r="L42" s="50"/>
     </row>
     <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="16">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>191</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="113"/>
+        <v>169</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="36"/>
+      <c r="J43" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="K43" s="108" t="s">
+        <v>359</v>
+      </c>
       <c r="L43" s="50"/>
     </row>
     <row r="44" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="16">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>224</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>185</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>227</v>
+        <v>185</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>181</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="109"/>
+        <v>247</v>
+      </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="112"/>
       <c r="L44" s="50"/>
     </row>
     <row r="45" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="16">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="I45" s="36"/>
+        <v>221</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>277</v>
+      </c>
       <c r="J45" s="31"/>
-      <c r="K45" s="109" t="s">
-        <v>367</v>
-      </c>
+      <c r="K45" s="108"/>
       <c r="L45" s="50"/>
     </row>
     <row r="46" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="119" t="s">
-        <v>388</v>
-      </c>
-      <c r="E46" s="120" t="s">
-        <v>389</v>
+      <c r="C46" s="16">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>391</v>
+        <v>220</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>392</v>
+        <v>222</v>
       </c>
       <c r="I46" s="36"/>
       <c r="J46" s="31"/>
-      <c r="K46" s="109"/>
+      <c r="K46" s="108" t="s">
+        <v>361</v>
+      </c>
       <c r="L46" s="50"/>
     </row>
     <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="137" t="s">
+      <c r="D47" s="118" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="119" t="s">
         <v>393</v>
       </c>
-      <c r="E47" s="138" t="s">
-        <v>394</v>
-      </c>
       <c r="F47" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>397</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="36"/>
       <c r="J47" s="31"/>
-      <c r="K47" s="109"/>
+      <c r="K47" s="108"/>
       <c r="L47" s="50"/>
     </row>
     <row r="48" spans="2:12" ht="15" x14ac:dyDescent="0.25">
@@ -5332,7 +5299,7 @@
       <c r="H48" s="30"/>
       <c r="I48" s="36"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="109"/>
+      <c r="K48" s="108"/>
       <c r="L48" s="50"/>
     </row>
     <row r="49" spans="2:12" ht="15" x14ac:dyDescent="0.25">
@@ -5340,91 +5307,70 @@
       <c r="C49" s="16"/>
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="32"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="32"/>
       <c r="H49" s="30"/>
       <c r="I49" s="36"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="109"/>
+      <c r="K49" s="108"/>
       <c r="L49" s="50"/>
     </row>
     <row r="50" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="30"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="31"/>
+      <c r="J50" s="47"/>
       <c r="K50" s="109"/>
       <c r="L50" s="50"/>
     </row>
-    <row r="51" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="50"/>
+    <row r="51" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="K51" s="68"/>
+      <c r="L51" s="69"/>
     </row>
     <row r="52" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
       <c r="J52" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
-    </row>
-    <row r="53" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="73"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="K53" s="80"/>
-      <c r="L53" s="81"/>
+        <v>268</v>
+      </c>
+      <c r="K52" s="80"/>
+      <c r="L52" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:K53">
-    <cfRule type="expression" dxfId="34" priority="85">
+  <conditionalFormatting sqref="C5:L52">
+    <cfRule type="expression" dxfId="32" priority="85">
       <formula>$B5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="86">
-      <formula>#REF!="да"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L53">
-    <cfRule type="expression" dxfId="32" priority="1">
-      <formula>$B5=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="31" priority="86">
       <formula>#REF!="да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5445,176 +5391,173 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Укажите, сколько единиц каждой позиции заказано повторно." sqref="J4:L4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F32" r:id="rId6" display="Паспорт Сваяк  0,7 л." xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F38" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F33" r:id="rId6" display="Паспорт Сваяк  0,7 л." xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F40" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I35" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G37" r:id="rId24" display="Чертеж Фляга 0.2 л." xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F17" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G7" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G9" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I25" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G24" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H24" r:id="rId56" display="Чертежи деталей ф-та Крис1а" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G38" r:id="rId58" display="Чертеж Фляга 0,5" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H38" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H8" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F25" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F15" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F8" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H23" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I23" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F23" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G34" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G10" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G42" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H10" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H42" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I26" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F26" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I12" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F19" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F10" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G43" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G5" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H5" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="I10" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F51" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="G31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F34" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="G6" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H6" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="I38" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J37" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J42" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J19" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I19" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F33" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="G33" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H33" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="G21" r:id="rId102" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H21" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F21" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="G44" r:id="rId105" display="XXI-КПМ-26-2-700-17 Экстра New" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="G45" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H44" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H45" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="G39" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="G40" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H39" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H40" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F14" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H14" r:id="rId114" display="Ф-т ХХI-КПМ-24-1-500-16(Экстра new)" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I34" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F11" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G11" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="H11" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="I43" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F31" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="H31" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="I14" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="I21" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="I31" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="F6" r:id="rId125" display="Паспорт АКВА МЯТАЯ" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F5" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="I33" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="J52" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="I39" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="F45" r:id="rId130" xr:uid="{29DDD85A-5A17-4815-A4B9-185F8E3E2600}"/>
-    <hyperlink ref="F44" r:id="rId131" xr:uid="{968BE179-9682-4DBA-AF61-EE77005C6AE9}"/>
-    <hyperlink ref="F43" r:id="rId132" xr:uid="{363F7E3A-F08E-47C8-9150-9DFF74211C48}"/>
-    <hyperlink ref="F13" r:id="rId133" xr:uid="{2F5982A0-A7A7-4BC7-B470-66C3AEC98208}"/>
-    <hyperlink ref="F7" r:id="rId134" xr:uid="{3CF57684-E0A9-47F4-A998-0EEAC7E59C44}"/>
-    <hyperlink ref="F28" r:id="rId135" xr:uid="{E09E823B-1AF7-4AA6-8F6B-12EA07E8A0BD}"/>
-    <hyperlink ref="J53" r:id="rId136" xr:uid="{20EB6B71-B9B6-48BC-B842-D860A4168A00}"/>
-    <hyperlink ref="I5" r:id="rId137" xr:uid="{AD0C3E2F-2ADF-48C1-9A1F-152D35D75CFA}"/>
-    <hyperlink ref="I44" r:id="rId138" xr:uid="{1FC95A0E-DBC4-4ED0-B03D-DE5BE44ED219}"/>
-    <hyperlink ref="F41" r:id="rId139" xr:uid="{FF426B31-241E-4FD8-904D-DB86AD6FE76C}"/>
-    <hyperlink ref="J23" r:id="rId140" xr:uid="{DB55AC21-0CE8-416A-AC8C-F628ABDB7071}"/>
-    <hyperlink ref="F36" r:id="rId141" xr:uid="{61A35A2D-5F9B-4810-8AF1-00E244D07ADB}"/>
-    <hyperlink ref="F29" r:id="rId142" xr:uid="{3C611C2F-AC74-4C4E-981D-AF127C82AEC6}"/>
-    <hyperlink ref="G29" r:id="rId143" xr:uid="{B80A898B-B929-4F51-A83E-274F23E1EEFD}"/>
-    <hyperlink ref="H29" r:id="rId144" xr:uid="{C57254FA-02E4-4290-A661-C689D8A628B2}"/>
-    <hyperlink ref="I11" r:id="rId145" xr:uid="{6888D52A-5677-4D85-9E0C-99A8723F1003}"/>
-    <hyperlink ref="F30" r:id="rId146" xr:uid="{B6038B95-FBFD-42B0-A84F-7848522B86D5}"/>
-    <hyperlink ref="G30" r:id="rId147" xr:uid="{7166BE2B-4DE6-4335-8166-BB90037CF818}"/>
-    <hyperlink ref="H30" r:id="rId148" xr:uid="{D949BB34-122C-44F6-8143-47ABBFBAAFE3}"/>
-    <hyperlink ref="F46" r:id="rId149" xr:uid="{4BBB2141-AC65-40DA-ADDA-36609C5B3088}"/>
-    <hyperlink ref="G46" r:id="rId150" xr:uid="{21EDD610-EB49-4E36-B401-CA3D82FB0B39}"/>
-    <hyperlink ref="H46" r:id="rId151" xr:uid="{2521A2B2-9297-4668-A9DB-296119D5E530}"/>
-    <hyperlink ref="F47" r:id="rId152" xr:uid="{891AFD67-1955-47EA-BD4A-700096038F78}"/>
-    <hyperlink ref="G47" r:id="rId153" xr:uid="{0703F59C-792D-4BB2-B460-1633D3769249}"/>
-    <hyperlink ref="H47" r:id="rId154" xr:uid="{C4EC045A-2503-4BD2-B0B3-6F5C3A852AD8}"/>
+    <hyperlink ref="F41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F40" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I38" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G38" r:id="rId20" display="Чертеж Фляга 0.2 л." xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H38" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I23" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F23" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G23" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G7" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H7" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G26" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H26" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G16" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H16" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G14" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G9" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H9" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I16" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G20" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H20" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G25" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H25" r:id="rId52" display="Чертежи деталей ф-та Крис1а" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I9" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G39" r:id="rId54" display="Чертеж Фляга 0,5" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H39" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H8" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G8" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F16" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F8" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H24" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I24" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F24" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G43" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H10" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H43" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I27" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F27" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I12" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F20" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F10" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H12" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G12" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H44" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G5" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H5" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F50" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G32" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F36" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G6" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H6" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I39" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J38" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J43" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J20" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I20" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F34" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G34" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H34" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G22" r:id="rId98" display="Чертеж ХХI-В-28-2-450-19 (Калина 0.45)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H22" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F22" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G45" r:id="rId101" display="XXI-КПМ-26-2-700-17 Экстра New" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G46" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H45" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H46" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G40" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G41" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H40" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H41" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F15" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H15" r:id="rId110" display="Ф-т ХХI-КПМ-24-1-500-16(Экстра new)" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I36" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F11" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G11" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H11" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I44" r:id="rId115" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F32" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="H32" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I15" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="I22" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="I32" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F6" r:id="rId121" display="Паспорт АКВА МЯТАЯ" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F5" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="I34" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J51" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="I40" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F46" r:id="rId126" xr:uid="{29DDD85A-5A17-4815-A4B9-185F8E3E2600}"/>
+    <hyperlink ref="F45" r:id="rId127" xr:uid="{968BE179-9682-4DBA-AF61-EE77005C6AE9}"/>
+    <hyperlink ref="F44" r:id="rId128" xr:uid="{363F7E3A-F08E-47C8-9150-9DFF74211C48}"/>
+    <hyperlink ref="F14" r:id="rId129" xr:uid="{2F5982A0-A7A7-4BC7-B470-66C3AEC98208}"/>
+    <hyperlink ref="F7" r:id="rId130" xr:uid="{3CF57684-E0A9-47F4-A998-0EEAC7E59C44}"/>
+    <hyperlink ref="F29" r:id="rId131" xr:uid="{E09E823B-1AF7-4AA6-8F6B-12EA07E8A0BD}"/>
+    <hyperlink ref="J52" r:id="rId132" xr:uid="{20EB6B71-B9B6-48BC-B842-D860A4168A00}"/>
+    <hyperlink ref="I5" r:id="rId133" xr:uid="{AD0C3E2F-2ADF-48C1-9A1F-152D35D75CFA}"/>
+    <hyperlink ref="I45" r:id="rId134" xr:uid="{1FC95A0E-DBC4-4ED0-B03D-DE5BE44ED219}"/>
+    <hyperlink ref="F42" r:id="rId135" xr:uid="{FF426B31-241E-4FD8-904D-DB86AD6FE76C}"/>
+    <hyperlink ref="J24" r:id="rId136" xr:uid="{DB55AC21-0CE8-416A-AC8C-F628ABDB7071}"/>
+    <hyperlink ref="F37" r:id="rId137" xr:uid="{61A35A2D-5F9B-4810-8AF1-00E244D07ADB}"/>
+    <hyperlink ref="F30" r:id="rId138" xr:uid="{3C611C2F-AC74-4C4E-981D-AF127C82AEC6}"/>
+    <hyperlink ref="G30" r:id="rId139" xr:uid="{B80A898B-B929-4F51-A83E-274F23E1EEFD}"/>
+    <hyperlink ref="H30" r:id="rId140" xr:uid="{C57254FA-02E4-4290-A661-C689D8A628B2}"/>
+    <hyperlink ref="I11" r:id="rId141" xr:uid="{6888D52A-5677-4D85-9E0C-99A8723F1003}"/>
+    <hyperlink ref="F31" r:id="rId142" xr:uid="{B6038B95-FBFD-42B0-A84F-7848522B86D5}"/>
+    <hyperlink ref="G31" r:id="rId143" xr:uid="{7166BE2B-4DE6-4335-8166-BB90037CF818}"/>
+    <hyperlink ref="H31" r:id="rId144" xr:uid="{D949BB34-122C-44F6-8143-47ABBFBAAFE3}"/>
+    <hyperlink ref="F13" r:id="rId145" xr:uid="{4BBB2141-AC65-40DA-ADDA-36609C5B3088}"/>
+    <hyperlink ref="G13" r:id="rId146" xr:uid="{21EDD610-EB49-4E36-B401-CA3D82FB0B39}"/>
+    <hyperlink ref="H13" r:id="rId147" xr:uid="{2521A2B2-9297-4668-A9DB-296119D5E530}"/>
+    <hyperlink ref="F35" r:id="rId148" xr:uid="{891AFD67-1955-47EA-BD4A-700096038F78}"/>
+    <hyperlink ref="G35" r:id="rId149" xr:uid="{0703F59C-792D-4BB2-B460-1633D3769249}"/>
+    <hyperlink ref="H35" r:id="rId150" xr:uid="{C4EC045A-2503-4BD2-B0B3-6F5C3A852AD8}"/>
+    <hyperlink ref="F47" r:id="rId151" xr:uid="{20E56D10-1B64-497F-80FE-E62C28FF3970}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId155"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId152"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId156"/>
+  <drawing r:id="rId153"/>
   <tableParts count="1">
-    <tablePart r:id="rId157"/>
+    <tablePart r:id="rId154"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="93" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
+          <x14:cfRule type="iconSet" priority="106" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5630,7 +5573,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B5:B53</xm:sqref>
+          <xm:sqref>B5:B52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5650,7 +5593,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5690,11 +5633,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -5749,15 +5692,15 @@
         <v>26</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="22" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="24"/>
@@ -5799,10 +5742,10 @@
         <v>31</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
@@ -5825,10 +5768,10 @@
         <v>31</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
@@ -5851,13 +5794,13 @@
         <v>36</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
@@ -5888,7 +5831,7 @@
         <v>69</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
@@ -5906,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>60</v>
@@ -5930,22 +5873,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
@@ -5957,20 +5900,20 @@
       <c r="C13" s="16">
         <v>9</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="E13" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -5983,20 +5926,20 @@
       <c r="C14" s="16">
         <v>10</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
@@ -6009,20 +5952,20 @@
       <c r="C15" s="16">
         <v>11</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="E15" s="108" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -6035,18 +5978,18 @@
       <c r="C16" s="16">
         <v>12</v>
       </c>
-      <c r="D16" s="107" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="108" t="s">
-        <v>276</v>
+      <c r="D16" s="106" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>270</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
@@ -6102,8 +6045,8 @@
     </row>
     <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="106" t="s">
-        <v>264</v>
+      <c r="D21" s="105" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -6230,7 +6173,7 @@
   <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6241,110 +6184,110 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -6352,12 +6295,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
@@ -6408,1116 +6351,1116 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="85"/>
-    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="85" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="85"/>
-    <col min="7" max="7" width="15" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="85" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="85" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="9.140625" style="84"/>
+    <col min="2" max="2" width="19.5703125" style="84" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="84" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="84"/>
+    <col min="7" max="7" width="15" style="84" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="84" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="84" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="134" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="97"/>
+      <c r="B1" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="98"/>
+      <c r="B3" s="137" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="87" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="124">
+        <v>1</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="130">
+        <v>175</v>
+      </c>
+      <c r="E6" s="130">
+        <v>43</v>
+      </c>
+      <c r="F6" s="133" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="92">
+        <v>43819</v>
+      </c>
+      <c r="I6" s="101"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="125"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="93">
+        <v>43914</v>
+      </c>
+      <c r="I7" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="126"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" s="94">
+        <v>43971</v>
+      </c>
+      <c r="I8" s="103"/>
+      <c r="J8" s="129"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="89"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="91"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="124">
+        <v>2</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="130">
+        <v>176</v>
+      </c>
+      <c r="E10" s="130">
+        <v>42</v>
+      </c>
+      <c r="F10" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H10" s="92">
+        <v>43790</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="125"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="93">
+        <v>43927</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="126"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="94">
+        <v>43983</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="89"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="91"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="124">
+        <v>3</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="130">
+        <v>190</v>
+      </c>
+      <c r="E14" s="130">
+        <v>44</v>
+      </c>
+      <c r="F14" s="133" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="92">
+        <v>43784</v>
+      </c>
+      <c r="I14" s="101"/>
+      <c r="J14" s="127"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="125"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H15" s="93">
+        <v>43915</v>
+      </c>
+      <c r="I15" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J15" s="128"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="126"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" s="94">
+        <v>43984</v>
+      </c>
+      <c r="I16" s="103"/>
+      <c r="J16" s="129"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="89"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="91"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="124">
+        <v>4</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="130">
+        <v>178</v>
+      </c>
+      <c r="E18" s="130">
+        <v>41</v>
+      </c>
+      <c r="F18" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="92">
+        <v>43788</v>
+      </c>
+      <c r="I18" s="101"/>
+      <c r="J18" s="127"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="125"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H19" s="93">
+        <v>44083</v>
+      </c>
+      <c r="I19" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J19" s="128"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="126"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H20" s="94">
+        <v>43970</v>
+      </c>
+      <c r="I20" s="103"/>
+      <c r="J20" s="129"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="89"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="91"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="124">
+        <v>5</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="130">
+        <v>180</v>
+      </c>
+      <c r="E22" s="130">
+        <v>45</v>
+      </c>
+      <c r="F22" s="133" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="92">
+        <v>43789</v>
+      </c>
+      <c r="I22" s="101"/>
+      <c r="J22" s="127"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="125"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H23" s="93">
+        <v>43914</v>
+      </c>
+      <c r="I23" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="J23" s="128"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="126"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="94">
+        <v>43998</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="J24" s="129"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="89"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="91"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="124">
+        <v>6</v>
+      </c>
+      <c r="B26" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="130">
+        <v>176</v>
+      </c>
+      <c r="E26" s="130">
+        <v>41</v>
+      </c>
+      <c r="F26" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H26" s="92">
+        <v>43790</v>
+      </c>
+      <c r="I26" s="101"/>
+      <c r="J26" s="127"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="125"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H27" s="93">
+        <v>43914</v>
+      </c>
+      <c r="I27" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J27" s="128"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="126"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="94">
+        <v>43971</v>
+      </c>
+      <c r="I28" s="103"/>
+      <c r="J28" s="129"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="89"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="91"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124">
+        <v>7</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="130">
+        <v>170</v>
+      </c>
+      <c r="E30" s="130">
+        <v>41</v>
+      </c>
+      <c r="F30" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H30" s="92">
+        <v>43790</v>
+      </c>
+      <c r="I30" s="101"/>
+      <c r="J30" s="127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="125"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H31" s="93">
+        <v>43927</v>
+      </c>
+      <c r="I31" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="J31" s="128"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="126"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H32" s="94">
+        <v>43983</v>
+      </c>
+      <c r="I32" s="103"/>
+      <c r="J32" s="129"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="89"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="91"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="124">
+        <v>8</v>
+      </c>
+      <c r="B34" s="130" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="130">
+        <v>185</v>
+      </c>
+      <c r="E34" s="130">
+        <v>43</v>
+      </c>
+      <c r="F34" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H34" s="92">
+        <v>43784</v>
+      </c>
+      <c r="I34" s="101"/>
+      <c r="J34" s="127"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="125"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H35" s="93">
+        <v>43917</v>
+      </c>
+      <c r="I35" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J35" s="128"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="126"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H36" s="94">
+        <v>43984</v>
+      </c>
+      <c r="I36" s="103"/>
+      <c r="J36" s="129"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="89"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="91"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="124">
+        <v>9</v>
+      </c>
+      <c r="B38" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="130">
+        <v>176</v>
+      </c>
+      <c r="E38" s="130">
+        <v>41</v>
+      </c>
+      <c r="F38" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" s="92">
+        <v>43784</v>
+      </c>
+      <c r="I38" s="101"/>
+      <c r="J38" s="127"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="125"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H39" s="93">
+        <v>43914</v>
+      </c>
+      <c r="I39" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J39" s="128"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="126"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H40" s="94">
+        <v>43971</v>
+      </c>
+      <c r="I40" s="103" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="129"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="89"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="91"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="124">
+        <v>10</v>
+      </c>
+      <c r="B42" s="130" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="130">
+        <v>180</v>
+      </c>
+      <c r="E42" s="130">
+        <v>45</v>
+      </c>
+      <c r="F42" s="133" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H42" s="92">
+        <v>43794</v>
+      </c>
+      <c r="I42" s="101"/>
+      <c r="J42" s="127"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="125"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H43" s="93">
+        <v>43923</v>
+      </c>
+      <c r="I43" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J43" s="128"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="126"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H44" s="94">
+        <v>43971</v>
+      </c>
+      <c r="I44" s="103"/>
+      <c r="J44" s="129"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="89"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="91"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="124">
+        <v>11</v>
+      </c>
+      <c r="B46" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C46" s="130" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D46" s="130">
+        <v>176</v>
+      </c>
+      <c r="E46" s="130">
+        <v>41</v>
+      </c>
+      <c r="F46" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H46" s="92">
+        <v>43784</v>
+      </c>
+      <c r="I46" s="101"/>
+      <c r="J46" s="127"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="125"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H47" s="93">
+        <v>44166</v>
+      </c>
+      <c r="I47" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" s="128"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="126"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H48" s="94">
+        <v>43851</v>
+      </c>
+      <c r="I48" s="103"/>
+      <c r="J48" s="129"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="89"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="91"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="124">
+        <v>12</v>
+      </c>
+      <c r="B50" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="C50" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D50" s="130">
+        <v>180</v>
+      </c>
+      <c r="E50" s="130">
+        <v>43</v>
+      </c>
+      <c r="F50" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H50" s="92">
+        <v>43784</v>
+      </c>
+      <c r="I50" s="101"/>
+      <c r="J50" s="127"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="125"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H51" s="93">
+        <v>43914</v>
+      </c>
+      <c r="I51" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" s="128"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="126"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" s="94">
+        <v>43970</v>
+      </c>
+      <c r="I52" s="103"/>
+      <c r="J52" s="129"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="89"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="91"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="124">
+        <v>13</v>
+      </c>
+      <c r="B54" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="C54" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="D54" s="130">
+        <v>174</v>
+      </c>
+      <c r="E54" s="130">
+        <v>42</v>
+      </c>
+      <c r="F54" s="133" t="s">
         <v>327</v>
       </c>
-      <c r="G5" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>353</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87" t="s">
+      <c r="G54" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H54" s="92">
+        <v>43788</v>
+      </c>
+      <c r="I54" s="101"/>
+      <c r="J54" s="127"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="125"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="H55" s="93">
+        <v>43998</v>
+      </c>
+      <c r="I55" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J55" s="128"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="126"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" s="94">
+        <v>44004</v>
+      </c>
+      <c r="I56" s="103"/>
+      <c r="J56" s="129"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="89"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="91"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="124">
+        <v>14</v>
+      </c>
+      <c r="B58" s="130" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122">
-        <v>1</v>
-      </c>
-      <c r="B6" s="128" t="s">
+      <c r="C58" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D58" s="130">
+        <v>176</v>
+      </c>
+      <c r="E58" s="130">
+        <v>43</v>
+      </c>
+      <c r="F58" s="133" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="88" t="s">
+        <v>342</v>
+      </c>
+      <c r="H58" s="92">
+        <v>43788</v>
+      </c>
+      <c r="I58" s="101"/>
+      <c r="J58" s="127"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="125"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="128">
-        <v>175</v>
-      </c>
-      <c r="E6" s="128">
-        <v>43</v>
-      </c>
-      <c r="F6" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="G6" s="89" t="s">
+      <c r="H59" s="93">
+        <v>43915</v>
+      </c>
+      <c r="I59" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="J59" s="128"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="126"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="H60" s="94">
+        <v>43984</v>
+      </c>
+      <c r="I60" s="103"/>
+      <c r="J60" s="129"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="H6" s="93">
-        <v>43819</v>
-      </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="89" t="s">
+      <c r="G62" s="84" t="s">
         <v>349</v>
-      </c>
-      <c r="H7" s="94">
-        <v>43914</v>
-      </c>
-      <c r="I7" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J7" s="126"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H8" s="95">
-        <v>43971</v>
-      </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="127"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="92"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122">
-        <v>2</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="128">
-        <v>176</v>
-      </c>
-      <c r="E10" s="128">
-        <v>42</v>
-      </c>
-      <c r="F10" s="131" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" s="93">
-        <v>43790</v>
-      </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" s="94">
-        <v>43927</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J11" s="126"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H12" s="95">
-        <v>43983</v>
-      </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="127"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="92"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122">
-        <v>3</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>387</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="128">
-        <v>190</v>
-      </c>
-      <c r="E14" s="128">
-        <v>44</v>
-      </c>
-      <c r="F14" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H14" s="93">
-        <v>43784</v>
-      </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H15" s="94">
-        <v>43915</v>
-      </c>
-      <c r="I15" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J15" s="126"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H16" s="95">
-        <v>43984</v>
-      </c>
-      <c r="I16" s="104"/>
-      <c r="J16" s="127"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="92"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122">
-        <v>4</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="128">
-        <v>178</v>
-      </c>
-      <c r="E18" s="128">
-        <v>41</v>
-      </c>
-      <c r="F18" s="131" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H18" s="93">
-        <v>43788</v>
-      </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="125"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H19" s="94">
-        <v>44083</v>
-      </c>
-      <c r="I19" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J19" s="126"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="124"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H20" s="95">
-        <v>43970</v>
-      </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="127"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="92"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122">
-        <v>5</v>
-      </c>
-      <c r="B22" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="C22" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D22" s="128">
-        <v>180</v>
-      </c>
-      <c r="E22" s="128">
-        <v>45</v>
-      </c>
-      <c r="F22" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" s="93">
-        <v>43789</v>
-      </c>
-      <c r="I22" s="102"/>
-      <c r="J22" s="125"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="123"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H23" s="94">
-        <v>43914</v>
-      </c>
-      <c r="I23" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="J23" s="126"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="124"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H24" s="95">
-        <v>43998</v>
-      </c>
-      <c r="I24" s="104"/>
-      <c r="J24" s="127"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="92"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="122">
-        <v>6</v>
-      </c>
-      <c r="B26" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="D26" s="128">
-        <v>176</v>
-      </c>
-      <c r="E26" s="128">
-        <v>41</v>
-      </c>
-      <c r="F26" s="131" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H26" s="93">
-        <v>43790</v>
-      </c>
-      <c r="I26" s="102"/>
-      <c r="J26" s="125"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H27" s="94">
-        <v>43914</v>
-      </c>
-      <c r="I27" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J27" s="126"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="124"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H28" s="95">
-        <v>43971</v>
-      </c>
-      <c r="I28" s="104"/>
-      <c r="J28" s="127"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="92"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="122">
-        <v>7</v>
-      </c>
-      <c r="B30" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" s="128" t="s">
-        <v>339</v>
-      </c>
-      <c r="D30" s="128">
-        <v>170</v>
-      </c>
-      <c r="E30" s="128">
-        <v>41</v>
-      </c>
-      <c r="F30" s="131" t="s">
-        <v>339</v>
-      </c>
-      <c r="G30" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H30" s="93">
-        <v>43790</v>
-      </c>
-      <c r="I30" s="102"/>
-      <c r="J30" s="125" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="94">
-        <v>43927</v>
-      </c>
-      <c r="I31" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="J31" s="126"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H32" s="95">
-        <v>43983</v>
-      </c>
-      <c r="I32" s="104"/>
-      <c r="J32" s="127"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="90"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="92"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="122">
-        <v>8</v>
-      </c>
-      <c r="B34" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="C34" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D34" s="128">
-        <v>185</v>
-      </c>
-      <c r="E34" s="128">
-        <v>43</v>
-      </c>
-      <c r="F34" s="131" t="s">
-        <v>330</v>
-      </c>
-      <c r="G34" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H34" s="93">
-        <v>43784</v>
-      </c>
-      <c r="I34" s="102"/>
-      <c r="J34" s="125"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="123"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H35" s="94">
-        <v>43917</v>
-      </c>
-      <c r="I35" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J35" s="126"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="124"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H36" s="95">
-        <v>43984</v>
-      </c>
-      <c r="I36" s="104"/>
-      <c r="J36" s="127"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="90"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="92"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="122">
-        <v>9</v>
-      </c>
-      <c r="B38" s="128" t="s">
-        <v>346</v>
-      </c>
-      <c r="C38" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D38" s="128">
-        <v>176</v>
-      </c>
-      <c r="E38" s="128">
-        <v>41</v>
-      </c>
-      <c r="F38" s="131" t="s">
-        <v>330</v>
-      </c>
-      <c r="G38" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="93">
-        <v>43784</v>
-      </c>
-      <c r="I38" s="102"/>
-      <c r="J38" s="125"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="123"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H39" s="94">
-        <v>43914</v>
-      </c>
-      <c r="I39" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J39" s="126"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H40" s="95">
-        <v>43971</v>
-      </c>
-      <c r="I40" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="J40" s="127"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="90"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="92"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="122">
-        <v>10</v>
-      </c>
-      <c r="B42" s="128" t="s">
-        <v>345</v>
-      </c>
-      <c r="C42" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="128">
-        <v>180</v>
-      </c>
-      <c r="E42" s="128">
-        <v>45</v>
-      </c>
-      <c r="F42" s="131" t="s">
-        <v>332</v>
-      </c>
-      <c r="G42" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H42" s="93">
-        <v>43794</v>
-      </c>
-      <c r="I42" s="102"/>
-      <c r="J42" s="125"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="123"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H43" s="94">
-        <v>43923</v>
-      </c>
-      <c r="I43" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J43" s="126"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H44" s="95">
-        <v>43971</v>
-      </c>
-      <c r="I44" s="104"/>
-      <c r="J44" s="127"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="92"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="122">
-        <v>11</v>
-      </c>
-      <c r="B46" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="C46" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="128">
-        <v>176</v>
-      </c>
-      <c r="E46" s="128">
-        <v>41</v>
-      </c>
-      <c r="F46" s="131" t="s">
-        <v>330</v>
-      </c>
-      <c r="G46" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H46" s="93">
-        <v>43784</v>
-      </c>
-      <c r="I46" s="102"/>
-      <c r="J46" s="125"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="123"/>
-      <c r="B47" s="129"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H47" s="94">
-        <v>44166</v>
-      </c>
-      <c r="I47" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="J47" s="126"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H48" s="95">
-        <v>43851</v>
-      </c>
-      <c r="I48" s="104"/>
-      <c r="J48" s="127"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="92"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="122">
-        <v>12</v>
-      </c>
-      <c r="B50" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" s="128">
-        <v>180</v>
-      </c>
-      <c r="E50" s="128">
-        <v>43</v>
-      </c>
-      <c r="F50" s="131" t="s">
-        <v>330</v>
-      </c>
-      <c r="G50" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H50" s="93">
-        <v>43784</v>
-      </c>
-      <c r="I50" s="102"/>
-      <c r="J50" s="125"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="123"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H51" s="94">
-        <v>43914</v>
-      </c>
-      <c r="I51" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J51" s="126"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="124"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H52" s="95">
-        <v>43970</v>
-      </c>
-      <c r="I52" s="104"/>
-      <c r="J52" s="127"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="92"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="122">
-        <v>13</v>
-      </c>
-      <c r="B54" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="C54" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="D54" s="128">
-        <v>174</v>
-      </c>
-      <c r="E54" s="128">
-        <v>42</v>
-      </c>
-      <c r="F54" s="131" t="s">
-        <v>333</v>
-      </c>
-      <c r="G54" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H54" s="93">
-        <v>43788</v>
-      </c>
-      <c r="I54" s="102"/>
-      <c r="J54" s="125"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="123"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H55" s="94">
-        <v>43998</v>
-      </c>
-      <c r="I55" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J55" s="126"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="124"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H56" s="95">
-        <v>44004</v>
-      </c>
-      <c r="I56" s="104"/>
-      <c r="J56" s="127"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="92"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="122">
-        <v>14</v>
-      </c>
-      <c r="B58" s="128" t="s">
-        <v>334</v>
-      </c>
-      <c r="C58" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D58" s="128">
-        <v>176</v>
-      </c>
-      <c r="E58" s="128">
-        <v>43</v>
-      </c>
-      <c r="F58" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="G58" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="H58" s="93">
-        <v>43788</v>
-      </c>
-      <c r="I58" s="102"/>
-      <c r="J58" s="125"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="123"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="H59" s="94">
-        <v>43915</v>
-      </c>
-      <c r="I59" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="J59" s="126"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="124"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="H60" s="95">
-        <v>43984</v>
-      </c>
-      <c r="I60" s="104"/>
-      <c r="J60" s="127"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="G62" s="85" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7644,617 +7587,617 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="85"/>
-    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="85"/>
-    <col min="5" max="5" width="15" style="85" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="85" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="9.140625" style="84"/>
+    <col min="2" max="2" width="19.5703125" style="84" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="84" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="84"/>
+    <col min="5" max="5" width="15" style="84" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="84" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="134" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="100"/>
+      <c r="B3" s="137" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="87" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="124">
+        <v>1</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="130">
+        <v>175</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="127"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="125"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="128"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="126"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="129"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="124">
+        <v>2</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="130">
+        <v>176</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="127"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="125"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="126"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="129"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="124">
+        <v>3</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="130">
+        <v>190</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="127"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="125"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="126"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="129"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="124">
+        <v>4</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="130">
+        <v>178</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="127"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="125"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="128"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="126"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="129"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="124">
+        <v>5</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="130">
+        <v>180</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="127"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="125"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="128"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="126"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="129"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="124">
+        <v>6</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="130">
+        <v>176</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="127"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="125"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G22" s="128"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="126"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="129"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="124">
+        <v>7</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="130">
+        <v>170</v>
+      </c>
+      <c r="E24" s="88"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="128"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="126"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="129"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="124">
+        <v>8</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="130">
+        <v>185</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="127"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="128"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="126"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="129"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124">
+        <v>9</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="130">
+        <v>176</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="127"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="125"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F31" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" s="128"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="126"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="129"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="124">
+        <v>10</v>
+      </c>
+      <c r="B33" s="130" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="130">
+        <v>180</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="127"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="125"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G34" s="128"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="126"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="129"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="124">
+        <v>11</v>
+      </c>
+      <c r="B36" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C36" s="130" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D36" s="130">
+        <v>176</v>
+      </c>
+      <c r="E36" s="88"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="127"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="125"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" s="128"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="126"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="129"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="124">
+        <v>12</v>
+      </c>
+      <c r="B39" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="130">
+        <v>180</v>
+      </c>
+      <c r="E39" s="88"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="127"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="125"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" s="128"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="126"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="129"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="124">
+        <v>13</v>
+      </c>
+      <c r="B42" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87" t="s">
+      <c r="C42" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="130">
+        <v>174</v>
+      </c>
+      <c r="E42" s="88"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="127"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="125"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="F43" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" s="128"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="126"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="129"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="124">
+        <v>14</v>
+      </c>
+      <c r="B45" s="130" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122">
-        <v>1</v>
-      </c>
-      <c r="B6" s="128" t="s">
+      <c r="C45" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="130">
+        <v>176</v>
+      </c>
+      <c r="E45" s="88"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="127"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="125"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="128">
-        <v>175</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="125"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="89" t="s">
+      <c r="F46" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" s="128"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="126"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="129"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" s="84" t="s">
         <v>349</v>
-      </c>
-      <c r="F7" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" s="126"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="127"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122">
-        <v>2</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="128">
-        <v>176</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="125"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="126"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="127"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122">
-        <v>3</v>
-      </c>
-      <c r="B12" s="128" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="128">
-        <v>190</v>
-      </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="125"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F13" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G13" s="126"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="127"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122">
-        <v>4</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="128">
-        <v>178</v>
-      </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="125"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F16" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="126"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="127"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122">
-        <v>5</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="C18" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="128">
-        <v>180</v>
-      </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="125"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F19" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="G19" s="126"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="124"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="127"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122">
-        <v>6</v>
-      </c>
-      <c r="B21" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="C21" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="128">
-        <v>176</v>
-      </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="125"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F22" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="126"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="127"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="122">
-        <v>7</v>
-      </c>
-      <c r="B24" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" s="128" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="128">
-        <v>170</v>
-      </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="125" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F25" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="G25" s="126"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="127"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122">
-        <v>8</v>
-      </c>
-      <c r="B27" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D27" s="128">
-        <v>185</v>
-      </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="125"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F28" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G28" s="126"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="127"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="122">
-        <v>9</v>
-      </c>
-      <c r="B30" s="128" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="128">
-        <v>176</v>
-      </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="125"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F31" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G31" s="126"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="127"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="122">
-        <v>10</v>
-      </c>
-      <c r="B33" s="128" t="s">
-        <v>345</v>
-      </c>
-      <c r="C33" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="D33" s="128">
-        <v>180</v>
-      </c>
-      <c r="E33" s="89"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="125"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="123"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G34" s="126"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="124"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="127"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="122">
-        <v>11</v>
-      </c>
-      <c r="B36" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="C36" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D36" s="128">
-        <v>176</v>
-      </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="125"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F37" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="G37" s="126"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="124"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="127"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="122">
-        <v>12</v>
-      </c>
-      <c r="B39" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="C39" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="128">
-        <v>180</v>
-      </c>
-      <c r="E39" s="89"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="125"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="123"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F40" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G40" s="126"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="127"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="122">
-        <v>13</v>
-      </c>
-      <c r="B42" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="C42" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="128">
-        <v>174</v>
-      </c>
-      <c r="E42" s="89"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="125"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="123"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F43" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G43" s="126"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="127"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="122">
-        <v>14</v>
-      </c>
-      <c r="B45" s="128" t="s">
-        <v>334</v>
-      </c>
-      <c r="C45" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D45" s="128">
-        <v>176</v>
-      </c>
-      <c r="E45" s="89"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="125"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="123"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F46" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G46" s="126"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="124"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="127"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="E49" s="85" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -8344,675 +8287,675 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D45" sqref="D45:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="85"/>
-    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" style="85" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="85"/>
-    <col min="6" max="6" width="15" style="85" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="85" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="9.140625" style="84"/>
+    <col min="2" max="2" width="19.5703125" style="84" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="84"/>
+    <col min="6" max="6" width="15" style="84" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="84" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="134" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="117"/>
+      <c r="B1" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="117"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="118"/>
+      <c r="B3" s="137" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="117"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="87" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="124">
+        <v>1</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="130">
+        <v>43</v>
+      </c>
+      <c r="E6" s="130">
+        <v>175</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="127"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="125"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" s="102"/>
+      <c r="H7" s="128"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="126"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="129"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="124">
+        <v>2</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="130">
+        <v>42</v>
+      </c>
+      <c r="E9" s="130">
+        <v>176</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="127"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="125"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="128"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="126"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="129"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="124">
+        <v>3</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="130">
+        <v>44</v>
+      </c>
+      <c r="E12" s="130">
+        <v>190</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="127"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="125"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G13" s="102"/>
+      <c r="H13" s="128"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="126"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="129"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="124">
+        <v>4</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="130">
+        <v>41</v>
+      </c>
+      <c r="E15" s="130">
+        <v>178</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="127"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="125"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="102"/>
+      <c r="H16" s="128"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="126"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="129"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="124">
+        <v>5</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="130">
+        <v>45</v>
+      </c>
+      <c r="E18" s="130">
+        <v>180</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="127"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="125"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G19" s="102"/>
+      <c r="H19" s="128"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="126"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="129"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="124">
+        <v>6</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="130">
+        <v>41</v>
+      </c>
+      <c r="E21" s="130">
+        <v>176</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="127"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="125"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="102"/>
+      <c r="H22" s="128"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="126"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="129"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="124">
+        <v>7</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="130">
+        <v>41</v>
+      </c>
+      <c r="E24" s="130">
+        <v>170</v>
+      </c>
+      <c r="F24" s="88"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="102"/>
+      <c r="H25" s="128"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="126"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="129"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="124">
+        <v>8</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="130">
+        <v>43</v>
+      </c>
+      <c r="E27" s="130">
+        <v>185</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="127"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G28" s="102"/>
+      <c r="H28" s="128"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="126"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="129"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124">
+        <v>9</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="130">
+        <v>41</v>
+      </c>
+      <c r="E30" s="130">
+        <v>176</v>
+      </c>
+      <c r="F30" s="88"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="127"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="125"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31" s="102"/>
+      <c r="H31" s="128"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="126"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="129"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="124">
+        <v>10</v>
+      </c>
+      <c r="B33" s="130" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="130">
+        <v>45</v>
+      </c>
+      <c r="E33" s="130">
+        <v>180</v>
+      </c>
+      <c r="F33" s="88"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="127"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="125"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G34" s="102"/>
+      <c r="H34" s="128"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="126"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="129"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="124">
+        <v>11</v>
+      </c>
+      <c r="B36" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C36" s="130" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D36" s="130">
+        <v>41</v>
+      </c>
+      <c r="E36" s="130">
+        <v>176</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="127"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="125"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" s="102"/>
+      <c r="H37" s="128"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="126"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="129"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="124">
+        <v>12</v>
+      </c>
+      <c r="B39" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="130">
+        <v>43</v>
+      </c>
+      <c r="E39" s="130">
+        <v>180</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="127"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="125"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" s="102"/>
+      <c r="H40" s="128"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="126"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="129"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="124">
+        <v>13</v>
+      </c>
+      <c r="B42" s="130" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87" t="s">
+      <c r="D42" s="130">
+        <v>42</v>
+      </c>
+      <c r="E42" s="130">
+        <v>174</v>
+      </c>
+      <c r="F42" s="88"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="127"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="125"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" s="102"/>
+      <c r="H43" s="128"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="126"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="129"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="124">
+        <v>14</v>
+      </c>
+      <c r="B45" s="130" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122">
-        <v>1</v>
-      </c>
-      <c r="B6" s="128" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="128">
+      <c r="C45" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="130">
         <v>43</v>
       </c>
-      <c r="E6" s="128">
-        <v>175</v>
-      </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="125"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="126"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="127"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122">
-        <v>2</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="128">
-        <v>42</v>
-      </c>
-      <c r="E9" s="128">
+      <c r="E45" s="130">
         <v>176</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="125"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="126"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="127"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122">
-        <v>3</v>
-      </c>
-      <c r="B12" s="128" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="128">
-        <v>44</v>
-      </c>
-      <c r="E12" s="128">
-        <v>190</v>
-      </c>
-      <c r="F12" s="89" t="s">
+      <c r="F45" s="88"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="127"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="125"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" s="102"/>
+      <c r="H46" s="128"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="126"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="129"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="F49" s="84" t="s">
         <v>349</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" s="125"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="126"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="127"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122">
-        <v>4</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="128">
-        <v>41</v>
-      </c>
-      <c r="E15" s="128">
-        <v>178</v>
-      </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="125"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="126"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="127"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122">
-        <v>5</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="C18" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="128">
-        <v>45</v>
-      </c>
-      <c r="E18" s="128">
-        <v>180</v>
-      </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="125"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="126"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="124"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="127"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122">
-        <v>6</v>
-      </c>
-      <c r="B21" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="C21" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="128">
-        <v>41</v>
-      </c>
-      <c r="E21" s="128">
-        <v>176</v>
-      </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="125"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="103"/>
-      <c r="H22" s="126"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="127"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="122">
-        <v>7</v>
-      </c>
-      <c r="B24" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" s="128" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="128">
-        <v>41</v>
-      </c>
-      <c r="E24" s="128">
-        <v>170</v>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="125" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="126"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="127"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122">
-        <v>8</v>
-      </c>
-      <c r="B27" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D27" s="128">
-        <v>43</v>
-      </c>
-      <c r="E27" s="128">
-        <v>185</v>
-      </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="125"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G28" s="103"/>
-      <c r="H28" s="126"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="127"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="122">
-        <v>9</v>
-      </c>
-      <c r="B30" s="128" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="128">
-        <v>41</v>
-      </c>
-      <c r="E30" s="128">
-        <v>176</v>
-      </c>
-      <c r="F30" s="89"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="125"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G31" s="103"/>
-      <c r="H31" s="126"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="127"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="122">
-        <v>10</v>
-      </c>
-      <c r="B33" s="128" t="s">
-        <v>345</v>
-      </c>
-      <c r="C33" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="D33" s="128">
-        <v>45</v>
-      </c>
-      <c r="E33" s="128">
-        <v>180</v>
-      </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="125"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="123"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G34" s="103"/>
-      <c r="H34" s="126"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="124"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="127"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="122">
-        <v>11</v>
-      </c>
-      <c r="B36" s="128" t="s">
-        <v>329</v>
-      </c>
-      <c r="C36" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D36" s="128">
-        <v>41</v>
-      </c>
-      <c r="E36" s="128">
-        <v>176</v>
-      </c>
-      <c r="F36" s="89"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="125"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G37" s="103"/>
-      <c r="H37" s="126"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="124"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="127"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="122">
-        <v>12</v>
-      </c>
-      <c r="B39" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="C39" s="128" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="128">
-        <v>43</v>
-      </c>
-      <c r="E39" s="128">
-        <v>180</v>
-      </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="125"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="123"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="126"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="127"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="122">
-        <v>13</v>
-      </c>
-      <c r="B42" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="C42" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="128">
-        <v>42</v>
-      </c>
-      <c r="E42" s="128">
-        <v>174</v>
-      </c>
-      <c r="F42" s="89"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="125"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="123"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="126"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="127"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="122">
-        <v>14</v>
-      </c>
-      <c r="B45" s="128" t="s">
-        <v>334</v>
-      </c>
-      <c r="C45" s="128" t="s">
-        <v>335</v>
-      </c>
-      <c r="D45" s="128">
-        <v>43</v>
-      </c>
-      <c r="E45" s="128">
-        <v>176</v>
-      </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="125"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="123"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="G46" s="103"/>
-      <c r="H46" s="126"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="124"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="127"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="F49" s="85" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -9127,7 +9070,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9376,18 +9319,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -9395,7 +9338,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -9403,7 +9346,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -9411,7 +9354,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -9419,7 +9362,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B8">
         <v>240</v>
@@ -9427,7 +9370,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9435,7 +9378,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B11">
         <v>270</v>
@@ -9443,7 +9386,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9451,7 +9394,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9459,7 +9402,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -9467,7 +9410,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B17">
         <v>220</v>
@@ -9475,7 +9418,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9483,7 +9426,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B20">
         <v>120</v>
@@ -9491,7 +9434,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9499,7 +9442,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B23">
         <v>150</v>
@@ -9507,7 +9450,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -9515,7 +9458,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B26">
         <v>70</v>
@@ -9523,7 +9466,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9531,7 +9474,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B29">
         <v>80</v>
@@ -9539,7 +9482,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B30">
         <v>43</v>
@@ -9547,22 +9490,22 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B36">
         <v>50</v>
@@ -9586,291 +9529,291 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="85"/>
-    <col min="2" max="2" width="19.5703125" style="85" customWidth="1"/>
-    <col min="3" max="3" width="24" style="85" customWidth="1"/>
-    <col min="4" max="4" width="18" style="85" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="85" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="9.140625" style="84"/>
+    <col min="2" max="2" width="19.5703125" style="84" customWidth="1"/>
+    <col min="3" max="3" width="24" style="84" customWidth="1"/>
+    <col min="4" max="4" width="18" style="84" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="84" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="134" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="B1" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
+      <c r="B3" s="137" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>373</v>
+      <c r="A5" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122">
+      <c r="A6" s="124">
         <v>1</v>
       </c>
-      <c r="B6" s="128" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="125"/>
+      <c r="B6" s="130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="127"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="126"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="127"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="129"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122">
+      <c r="A9" s="124">
         <v>2</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="130" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="127"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="128"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="126"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="129"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="124">
+        <v>5</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="127"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="125"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="128"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="126"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="129"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="124">
+        <v>7</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="127"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="128"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="126"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="129"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="124">
+        <v>8</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="127"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="125"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="128"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="126"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="124">
+        <v>9</v>
+      </c>
+      <c r="B21" s="130" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="125"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="126"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="127"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122">
-        <v>5</v>
-      </c>
-      <c r="B12" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="125"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="126"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="127"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
-        <v>7</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="125"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="126"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="127"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122">
-        <v>8</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="125"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="126"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="124"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="127"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122">
-        <v>9</v>
-      </c>
-      <c r="B21" s="128" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="127"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="126"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="128"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="127"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="129"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122">
+      <c r="A24" s="124">
         <v>10</v>
       </c>
-      <c r="B24" s="128" t="s">
-        <v>345</v>
-      </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="125"/>
+      <c r="B24" s="130" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="127"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="126"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="127"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="129"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122">
+      <c r="A27" s="124">
         <v>12</v>
       </c>
-      <c r="B27" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="125"/>
+      <c r="B27" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="127"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="126"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="128"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="127"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="129"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="122">
+      <c r="A30" s="124">
         <v>13</v>
       </c>
-      <c r="B30" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="125"/>
+      <c r="B30" s="130" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="127"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="126"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="128"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="127"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="129"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
+      <c r="F33" s="84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="47">
